--- a/storage/app/iprs/1/week_4.xlsx
+++ b/storage/app/iprs/1/week_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F68E76-F1AE-488C-B313-86CEC2BD613C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAF8DEE-36D0-48E8-954B-9D46216FED5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -182,6 +182,9 @@
   <si>
     <t>M1-W052</t>
   </si>
+  <si>
+    <t>M1-W007</t>
+  </si>
 </sst>
 </file>
 
@@ -220,7 +223,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +266,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -360,11 +369,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -416,6 +440,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -706,13 +742,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMN51"/>
+  <dimension ref="A1:AMN1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -722,7 +758,7 @@
     <col min="1029" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" thickBot="1">
+    <row r="1" spans="1:41 1026:1028" ht="15" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -847,7 +883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="15.75" thickBot="1">
+    <row r="2" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -968,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="15.75" thickBot="1">
+    <row r="3" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1089,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="15.75" thickBot="1">
+    <row r="4" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1210,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15.75" thickBot="1">
+    <row r="5" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="15.75" thickBot="1">
+    <row r="6" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1452,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="15.75" thickBot="1">
+    <row r="7" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1573,131 +1609,138 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:41 1026:1028" ht="15.75" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
+        <v>0</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AML8" s="2"/>
+      <c r="AMM8" s="2"/>
+      <c r="AMN8" s="2"/>
+    </row>
+    <row r="9" spans="1:41 1026:1028" ht="15.75" thickBot="1">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="13">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="B9" s="7">
         <v>0</v>
       </c>
@@ -1750,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="T9" s="7">
         <v>0</v>
@@ -1761,7 +1804,7 @@
       <c r="V9" s="7">
         <v>0</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="13">
         <v>0</v>
       </c>
       <c r="X9" s="7">
@@ -1815,9 +1858,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="15.75" thickBot="1">
+    <row r="10" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7">
         <v>0</v>
@@ -1852,8 +1895,8 @@
       <c r="L10" s="7">
         <v>0</v>
       </c>
-      <c r="M10" s="7">
-        <v>0.75</v>
+      <c r="M10" s="13">
+        <v>0</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
@@ -1870,8 +1913,8 @@
       <c r="R10" s="7">
         <v>0</v>
       </c>
-      <c r="S10" s="11">
-        <v>1.25</v>
+      <c r="S10" s="7">
+        <v>1.5</v>
       </c>
       <c r="T10" s="7">
         <v>0</v>
@@ -1936,9 +1979,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="15.75" thickBot="1">
+    <row r="11" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7">
         <v>0</v>
@@ -1974,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
@@ -1991,8 +2034,8 @@
       <c r="R11" s="7">
         <v>0</v>
       </c>
-      <c r="S11" s="7">
-        <v>0</v>
+      <c r="S11" s="11">
+        <v>1.25</v>
       </c>
       <c r="T11" s="7">
         <v>0</v>
@@ -2057,9 +2100,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="15.75" thickBot="1">
+    <row r="12" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
@@ -2178,9 +2221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="15.75" thickBot="1">
+    <row r="13" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7">
         <v>0</v>
@@ -2233,7 +2276,7 @@
       <c r="R13" s="7">
         <v>0</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="7">
         <v>0</v>
       </c>
       <c r="T13" s="7">
@@ -2299,9 +2342,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="15.75" thickBot="1">
+    <row r="14" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
@@ -2354,7 +2397,7 @@
       <c r="R14" s="7">
         <v>0</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="13">
         <v>0</v>
       </c>
       <c r="T14" s="7">
@@ -2420,9 +2463,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="15.75" thickBot="1">
+    <row r="15" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
@@ -2541,9 +2584,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="15.75" thickBot="1">
+    <row r="16" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
@@ -2664,7 +2707,7 @@
     </row>
     <row r="17" spans="1:41" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="7">
         <v>0</v>
@@ -2785,7 +2828,7 @@
     </row>
     <row r="18" spans="1:41" ht="15.75" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -2820,8 +2863,8 @@
       <c r="L18" s="7">
         <v>0</v>
       </c>
-      <c r="M18" s="14">
-        <v>0.5</v>
+      <c r="M18" s="7">
+        <v>0</v>
       </c>
       <c r="N18" s="7">
         <v>0</v>
@@ -2850,7 +2893,7 @@
       <c r="V18" s="7">
         <v>0</v>
       </c>
-      <c r="W18" s="13">
+      <c r="W18" s="7">
         <v>0</v>
       </c>
       <c r="X18" s="7">
@@ -2906,7 +2949,7 @@
     </row>
     <row r="19" spans="1:41" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -2941,8 +2984,8 @@
       <c r="L19" s="7">
         <v>0</v>
       </c>
-      <c r="M19" s="7">
-        <v>0</v>
+      <c r="M19" s="14">
+        <v>0.5</v>
       </c>
       <c r="N19" s="7">
         <v>0</v>
@@ -2971,7 +3014,7 @@
       <c r="V19" s="7">
         <v>0</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="13">
         <v>0</v>
       </c>
       <c r="X19" s="7">
@@ -3027,7 +3070,7 @@
     </row>
     <row r="20" spans="1:41" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="7">
         <v>0</v>
@@ -3092,7 +3135,7 @@
       <c r="V20" s="7">
         <v>0</v>
       </c>
-      <c r="W20" s="13">
+      <c r="W20" s="7">
         <v>0</v>
       </c>
       <c r="X20" s="7">
@@ -3148,7 +3191,7 @@
     </row>
     <row r="21" spans="1:41" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="7">
         <v>0</v>
@@ -3183,8 +3226,8 @@
       <c r="L21" s="7">
         <v>0</v>
       </c>
-      <c r="M21" s="13">
-        <v>0.25</v>
+      <c r="M21" s="7">
+        <v>0</v>
       </c>
       <c r="N21" s="7">
         <v>0</v>
@@ -3201,8 +3244,8 @@
       <c r="R21" s="7">
         <v>0</v>
       </c>
-      <c r="S21" s="13">
-        <v>0.5</v>
+      <c r="S21" s="7">
+        <v>0</v>
       </c>
       <c r="T21" s="7">
         <v>0</v>
@@ -3213,7 +3256,7 @@
       <c r="V21" s="7">
         <v>0</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="13">
         <v>0</v>
       </c>
       <c r="X21" s="7">
@@ -3269,7 +3312,7 @@
     </row>
     <row r="22" spans="1:41" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="7">
         <v>0</v>
@@ -3304,8 +3347,8 @@
       <c r="L22" s="7">
         <v>0</v>
       </c>
-      <c r="M22" s="12">
-        <v>0.75</v>
+      <c r="M22" s="13">
+        <v>0.25</v>
       </c>
       <c r="N22" s="7">
         <v>0</v>
@@ -3322,8 +3365,8 @@
       <c r="R22" s="7">
         <v>0</v>
       </c>
-      <c r="S22" s="11">
-        <v>1.25</v>
+      <c r="S22" s="13">
+        <v>0.5</v>
       </c>
       <c r="T22" s="7">
         <v>0</v>
@@ -3390,7 +3433,7 @@
     </row>
     <row r="23" spans="1:41" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="7">
         <v>0</v>
@@ -3425,8 +3468,8 @@
       <c r="L23" s="7">
         <v>0</v>
       </c>
-      <c r="M23" s="7">
-        <v>0</v>
+      <c r="M23" s="12">
+        <v>0.75</v>
       </c>
       <c r="N23" s="7">
         <v>0</v>
@@ -3443,8 +3486,8 @@
       <c r="R23" s="7">
         <v>0</v>
       </c>
-      <c r="S23" s="7">
-        <v>0</v>
+      <c r="S23" s="11">
+        <v>1.25</v>
       </c>
       <c r="T23" s="7">
         <v>0</v>
@@ -3511,7 +3554,7 @@
     </row>
     <row r="24" spans="1:41" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="7">
         <v>0</v>
@@ -3632,7 +3675,7 @@
     </row>
     <row r="25" spans="1:41" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="7">
         <v>0</v>
@@ -3667,8 +3710,8 @@
       <c r="L25" s="7">
         <v>0</v>
       </c>
-      <c r="M25" s="13">
-        <v>0.75</v>
+      <c r="M25" s="7">
+        <v>0</v>
       </c>
       <c r="N25" s="7">
         <v>0</v>
@@ -3686,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="T25" s="7">
         <v>0</v>
@@ -3753,7 +3796,7 @@
     </row>
     <row r="26" spans="1:41" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7">
         <v>0</v>
@@ -3788,8 +3831,8 @@
       <c r="L26" s="7">
         <v>0</v>
       </c>
-      <c r="M26" s="7">
-        <v>0</v>
+      <c r="M26" s="13">
+        <v>0.75</v>
       </c>
       <c r="N26" s="7">
         <v>0</v>
@@ -3807,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T26" s="7">
         <v>0</v>
@@ -3819,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X26" s="7">
         <v>0</v>
@@ -3874,7 +3917,7 @@
     </row>
     <row r="27" spans="1:41" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="7">
         <v>0</v>
@@ -3910,37 +3953,37 @@
         <v>0</v>
       </c>
       <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0</v>
+      </c>
+      <c r="U27" s="7">
+        <v>0</v>
+      </c>
+      <c r="V27" s="7">
+        <v>0</v>
+      </c>
+      <c r="W27" s="7">
         <v>0.5</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>0</v>
-      </c>
-      <c r="R27" s="7">
-        <v>0</v>
-      </c>
-      <c r="S27" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="T27" s="7">
-        <v>0</v>
-      </c>
-      <c r="U27" s="7">
-        <v>0</v>
-      </c>
-      <c r="V27" s="7">
-        <v>0</v>
-      </c>
-      <c r="W27" s="13">
-        <v>0</v>
       </c>
       <c r="X27" s="7">
         <v>0</v>
@@ -3995,7 +4038,7 @@
     </row>
     <row r="28" spans="1:41" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="7">
         <v>0</v>
@@ -4031,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N28" s="7">
         <v>0</v>
@@ -4049,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T28" s="7">
         <v>0</v>
@@ -4060,7 +4103,7 @@
       <c r="V28" s="7">
         <v>0</v>
       </c>
-      <c r="W28" s="7">
+      <c r="W28" s="13">
         <v>0</v>
       </c>
       <c r="X28" s="7">
@@ -4116,7 +4159,7 @@
     </row>
     <row r="29" spans="1:41" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="7">
         <v>0</v>
@@ -4152,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
         <v>0</v>
@@ -4170,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="7">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="T29" s="7">
         <v>0</v>
@@ -4237,7 +4280,7 @@
     </row>
     <row r="30" spans="1:41" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="7">
         <v>0</v>
@@ -4273,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N30" s="7">
         <v>0</v>
@@ -4291,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="7">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T30" s="7">
         <v>0</v>
@@ -4358,7 +4401,7 @@
     </row>
     <row r="31" spans="1:41" ht="15.75" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7">
         <v>0</v>
@@ -4479,7 +4522,7 @@
     </row>
     <row r="32" spans="1:41" ht="15.75" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7">
         <v>0</v>
@@ -4514,7 +4557,7 @@
       <c r="L32" s="7">
         <v>0</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="7">
         <v>0</v>
       </c>
       <c r="N32" s="7">
@@ -4544,8 +4587,8 @@
       <c r="V32" s="7">
         <v>0</v>
       </c>
-      <c r="W32" s="13">
-        <v>0.08</v>
+      <c r="W32" s="7">
+        <v>0</v>
       </c>
       <c r="X32" s="7">
         <v>0</v>
@@ -4600,7 +4643,7 @@
     </row>
     <row r="33" spans="1:41" ht="15.75" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="7">
         <v>0</v>
@@ -4635,8 +4678,8 @@
       <c r="L33" s="7">
         <v>0</v>
       </c>
-      <c r="M33" s="11">
-        <v>0.25</v>
+      <c r="M33" s="13">
+        <v>0</v>
       </c>
       <c r="N33" s="7">
         <v>0</v>
@@ -4666,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="13">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="X33" s="7">
         <v>0</v>
@@ -4720,8 +4763,8 @@
       </c>
     </row>
     <row r="34" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A34" s="6" t="s">
-        <v>33</v>
+      <c r="A34" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="7">
         <v>0</v>
@@ -4738,14 +4781,14 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="9">
-        <v>2</v>
-      </c>
-      <c r="H34" s="9">
-        <v>4</v>
-      </c>
-      <c r="I34" s="9">
-        <v>4</v>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
       </c>
       <c r="J34" s="7">
         <v>0</v>
@@ -4757,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="11">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="N34" s="7">
         <v>0</v>
@@ -4781,13 +4824,13 @@
         <v>0</v>
       </c>
       <c r="U34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="7">
         <v>0</v>
       </c>
-      <c r="W34" s="7">
-        <v>1</v>
+      <c r="W34" s="13">
+        <v>0.25</v>
       </c>
       <c r="X34" s="7">
         <v>0</v>
@@ -4821,52 +4864,52 @@
       <c r="AI34" s="7">
         <v>0</v>
       </c>
-      <c r="AJ34" s="9">
+      <c r="AJ34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
         <v>2</v>
       </c>
-      <c r="AK34" s="9">
-        <v>2</v>
-      </c>
-      <c r="AL34" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
+      <c r="H35" s="9">
+        <v>4</v>
+      </c>
+      <c r="I35" s="9">
+        <v>4</v>
       </c>
       <c r="J35" s="7">
         <v>0</v>
@@ -4877,8 +4920,8 @@
       <c r="L35" s="7">
         <v>0</v>
       </c>
-      <c r="M35" s="15">
-        <v>0</v>
+      <c r="M35" s="11">
+        <v>0.17</v>
       </c>
       <c r="N35" s="7">
         <v>0</v>
@@ -4902,13 +4945,13 @@
         <v>0</v>
       </c>
       <c r="U35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="7">
         <v>0</v>
       </c>
       <c r="W35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="7">
         <v>0</v>
@@ -4942,11 +4985,11 @@
       <c r="AI35" s="7">
         <v>0</v>
       </c>
-      <c r="AJ35" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="7">
-        <v>0</v>
+      <c r="AJ35" s="9">
+        <v>2</v>
+      </c>
+      <c r="AK35" s="9">
+        <v>2</v>
       </c>
       <c r="AL35" s="7">
         <v>0</v>
@@ -4963,7 +5006,7 @@
     </row>
     <row r="36" spans="1:41" ht="15.75" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7">
         <v>0</v>
@@ -4998,8 +5041,8 @@
       <c r="L36" s="7">
         <v>0</v>
       </c>
-      <c r="M36" s="11">
-        <v>0.17</v>
+      <c r="M36" s="15">
+        <v>0</v>
       </c>
       <c r="N36" s="7">
         <v>0</v>
@@ -5028,7 +5071,7 @@
       <c r="V36" s="7">
         <v>0</v>
       </c>
-      <c r="W36" s="13">
+      <c r="W36" s="7">
         <v>0</v>
       </c>
       <c r="X36" s="7">
@@ -5083,8 +5126,8 @@
       </c>
     </row>
     <row r="37" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A37" s="6" t="s">
-        <v>36</v>
+      <c r="A37" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B37" s="7">
         <v>0</v>
@@ -5101,14 +5144,14 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="10">
-        <v>2</v>
-      </c>
-      <c r="H37" s="10">
-        <v>4</v>
-      </c>
-      <c r="I37" s="10">
-        <v>4</v>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
       </c>
       <c r="J37" s="7">
         <v>0</v>
@@ -5149,8 +5192,8 @@
       <c r="V37" s="7">
         <v>0</v>
       </c>
-      <c r="W37" s="7">
-        <v>0.5</v>
+      <c r="W37" s="13">
+        <v>0</v>
       </c>
       <c r="X37" s="7">
         <v>0</v>
@@ -5184,52 +5227,52 @@
       <c r="AI37" s="7">
         <v>0</v>
       </c>
-      <c r="AJ37" s="10">
+      <c r="AJ37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
         <v>2</v>
       </c>
-      <c r="AK37" s="10">
-        <v>2</v>
-      </c>
-      <c r="AL37" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM37" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN37" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="7">
-        <v>0</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
+      <c r="H38" s="10">
+        <v>4</v>
+      </c>
+      <c r="I38" s="10">
+        <v>4</v>
       </c>
       <c r="J38" s="7">
         <v>0</v>
@@ -5240,8 +5283,8 @@
       <c r="L38" s="7">
         <v>0</v>
       </c>
-      <c r="M38" s="16">
-        <v>0</v>
+      <c r="M38" s="11">
+        <v>0.17</v>
       </c>
       <c r="N38" s="7">
         <v>0</v>
@@ -5271,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="7">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="X38" s="7">
         <v>0</v>
@@ -5305,11 +5348,11 @@
       <c r="AI38" s="7">
         <v>0</v>
       </c>
-      <c r="AJ38" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="7">
-        <v>0</v>
+      <c r="AJ38" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="10">
+        <v>2</v>
       </c>
       <c r="AL38" s="7">
         <v>0</v>
@@ -5326,7 +5369,7 @@
     </row>
     <row r="39" spans="1:41" ht="15.75" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="7">
         <v>0</v>
@@ -5361,7 +5404,7 @@
       <c r="L39" s="7">
         <v>0</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="16">
         <v>0</v>
       </c>
       <c r="N39" s="7">
@@ -5392,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X39" s="7">
         <v>0</v>
@@ -5447,7 +5490,7 @@
     </row>
     <row r="40" spans="1:41" ht="15.75" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="7">
         <v>0</v>
@@ -5568,7 +5611,7 @@
     </row>
     <row r="41" spans="1:41" ht="15.75" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="7">
         <v>0</v>
@@ -5689,7 +5732,7 @@
     </row>
     <row r="42" spans="1:41" ht="15.75" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="7">
         <v>0</v>
@@ -5810,7 +5853,7 @@
     </row>
     <row r="43" spans="1:41" ht="15.75" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="7">
         <v>0</v>
@@ -5846,19 +5889,19 @@
         <v>0</v>
       </c>
       <c r="M43" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="N43" s="16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
       </c>
       <c r="O43" s="7">
         <v>0</v>
       </c>
       <c r="P43" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R43" s="7">
         <v>0</v>
@@ -5875,11 +5918,11 @@
       <c r="V43" s="7">
         <v>0</v>
       </c>
-      <c r="W43" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="X43" s="16">
-        <v>2</v>
+      <c r="W43" s="7">
+        <v>0</v>
+      </c>
+      <c r="X43" s="7">
+        <v>0</v>
       </c>
       <c r="Y43" s="7">
         <v>0</v>
@@ -5888,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="7">
         <v>0</v>
@@ -5896,7 +5939,7 @@
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="7">
         <v>0</v>
@@ -5910,11 +5953,11 @@
       <c r="AI43" s="7">
         <v>0</v>
       </c>
-      <c r="AJ43" s="17">
-        <v>8</v>
+      <c r="AJ43" s="7">
+        <v>0</v>
       </c>
       <c r="AK43" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="7">
         <v>0</v>
@@ -5931,7 +5974,7 @@
     </row>
     <row r="44" spans="1:41" ht="15.75" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="7">
         <v>0</v>
@@ -5967,19 +6010,19 @@
         <v>0</v>
       </c>
       <c r="M44" s="11">
-        <v>0.17</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="N44" s="16">
+        <v>1</v>
       </c>
       <c r="O44" s="7">
         <v>0</v>
       </c>
       <c r="P44" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R44" s="7">
         <v>0</v>
@@ -5996,11 +6039,11 @@
       <c r="V44" s="7">
         <v>0</v>
       </c>
-      <c r="W44" s="16">
-        <v>0</v>
-      </c>
-      <c r="X44" s="11">
-        <v>0</v>
+      <c r="W44" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="X44" s="16">
+        <v>2</v>
       </c>
       <c r="Y44" s="7">
         <v>0</v>
@@ -6009,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44" s="7">
         <v>0</v>
@@ -6017,7 +6060,7 @@
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF44" s="7">
         <v>0</v>
@@ -6032,10 +6075,10 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK44" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL44" s="7">
         <v>0</v>
@@ -6052,7 +6095,7 @@
     </row>
     <row r="45" spans="1:41" ht="15.75" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="7">
         <v>0</v>
@@ -6088,19 +6131,19 @@
         <v>0</v>
       </c>
       <c r="M45" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="N45" s="16">
-        <v>1</v>
+        <v>0.17</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
       </c>
       <c r="O45" s="7">
         <v>0</v>
       </c>
       <c r="P45" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q45" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R45" s="7">
         <v>0</v>
@@ -6117,11 +6160,11 @@
       <c r="V45" s="7">
         <v>0</v>
       </c>
-      <c r="W45" s="7">
-        <v>0</v>
-      </c>
-      <c r="X45" s="16">
-        <v>2</v>
+      <c r="W45" s="16">
+        <v>0</v>
+      </c>
+      <c r="X45" s="11">
+        <v>0</v>
       </c>
       <c r="Y45" s="7">
         <v>0</v>
@@ -6130,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="7">
         <v>0</v>
@@ -6138,7 +6181,7 @@
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="AF45" s="7">
         <v>0</v>
@@ -6153,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK45" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL45" s="7">
         <v>0</v>
@@ -6173,7 +6216,7 @@
     </row>
     <row r="46" spans="1:41" ht="15.75" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="7">
         <v>0</v>
@@ -6209,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N46" s="16">
         <v>1</v>
@@ -6238,8 +6281,8 @@
       <c r="V46" s="7">
         <v>0</v>
       </c>
-      <c r="W46" s="16">
-        <v>0.5</v>
+      <c r="W46" s="7">
+        <v>0</v>
       </c>
       <c r="X46" s="16">
         <v>2</v>
@@ -6259,7 +6302,7 @@
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF46" s="7">
         <v>0</v>
@@ -6294,7 +6337,7 @@
     </row>
     <row r="47" spans="1:41" ht="15.75" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="7">
         <v>0</v>
@@ -6329,8 +6372,8 @@
       <c r="L47" s="7">
         <v>0</v>
       </c>
-      <c r="M47" s="16">
-        <v>0</v>
+      <c r="M47" s="11">
+        <v>0.25</v>
       </c>
       <c r="N47" s="16">
         <v>1</v>
@@ -6359,8 +6402,8 @@
       <c r="V47" s="7">
         <v>0</v>
       </c>
-      <c r="W47" s="7">
-        <v>0.75</v>
+      <c r="W47" s="16">
+        <v>0.5</v>
       </c>
       <c r="X47" s="16">
         <v>2</v>
@@ -6380,7 +6423,7 @@
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
       <c r="AE47" s="7">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF47" s="7">
         <v>0</v>
@@ -6415,7 +6458,7 @@
     </row>
     <row r="48" spans="1:41" ht="15.75" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="7">
         <v>0</v>
@@ -6450,20 +6493,20 @@
       <c r="L48" s="7">
         <v>0</v>
       </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7">
-        <v>0</v>
+      <c r="M48" s="16">
+        <v>0</v>
+      </c>
+      <c r="N48" s="16">
+        <v>1</v>
       </c>
       <c r="O48" s="7">
         <v>0</v>
       </c>
       <c r="P48" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R48" s="7">
         <v>0</v>
@@ -6481,10 +6524,10 @@
         <v>0</v>
       </c>
       <c r="W48" s="7">
-        <v>0</v>
-      </c>
-      <c r="X48" s="7">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="X48" s="16">
+        <v>2</v>
       </c>
       <c r="Y48" s="7">
         <v>0</v>
@@ -6493,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48" s="7">
         <v>0</v>
@@ -6501,7 +6544,7 @@
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
       <c r="AE48" s="7">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AF48" s="7">
         <v>0</v>
@@ -6515,11 +6558,11 @@
       <c r="AI48" s="7">
         <v>0</v>
       </c>
-      <c r="AJ48" s="7">
-        <v>0</v>
+      <c r="AJ48" s="17">
+        <v>8</v>
       </c>
       <c r="AK48" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL48" s="7">
         <v>0</v>
@@ -6536,7 +6579,7 @@
     </row>
     <row r="49" spans="1:41" ht="15.75" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="7">
         <v>0</v>
@@ -6657,7 +6700,7 @@
     </row>
     <row r="50" spans="1:41" ht="15.75" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="7">
         <v>0</v>
@@ -6693,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="11">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
         <v>0</v>
@@ -6722,14 +6765,14 @@
       <c r="V50" s="7">
         <v>0</v>
       </c>
-      <c r="W50" s="16">
-        <v>0.5</v>
+      <c r="W50" s="7">
+        <v>0</v>
       </c>
       <c r="X50" s="7">
         <v>0</v>
       </c>
       <c r="Y50" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="7">
         <v>0</v>
@@ -6778,7 +6821,7 @@
     </row>
     <row r="51" spans="1:41" ht="15.75" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="7">
         <v>0</v>
@@ -6813,8 +6856,8 @@
       <c r="L51" s="7">
         <v>0</v>
       </c>
-      <c r="M51" s="16">
-        <v>0</v>
+      <c r="M51" s="11">
+        <v>0.17</v>
       </c>
       <c r="N51" s="7">
         <v>0</v>
@@ -6843,14 +6886,14 @@
       <c r="V51" s="7">
         <v>0</v>
       </c>
-      <c r="W51" s="7">
-        <v>1.25</v>
+      <c r="W51" s="16">
+        <v>0.5</v>
       </c>
       <c r="X51" s="7">
         <v>0</v>
       </c>
       <c r="Y51" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Z51" s="7">
         <v>0</v>
@@ -6896,6 +6939,2957 @@
       <c r="AO51" s="7">
         <v>0</v>
       </c>
+    </row>
+    <row r="52" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="16">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0</v>
+      </c>
+      <c r="S52" s="7">
+        <v>0</v>
+      </c>
+      <c r="T52" s="7">
+        <v>0</v>
+      </c>
+      <c r="U52" s="7">
+        <v>0</v>
+      </c>
+      <c r="V52" s="7">
+        <v>0</v>
+      </c>
+      <c r="W52" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="X52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" ht="15" thickBot="1"/>
+    <row r="58" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A58" s="21"/>
+    </row>
+    <row r="59" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A59" s="21"/>
+    </row>
+    <row r="60" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A60" s="21"/>
+    </row>
+    <row r="61" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A61" s="21"/>
+    </row>
+    <row r="62" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A62" s="21"/>
+    </row>
+    <row r="63" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A63" s="21"/>
+    </row>
+    <row r="64" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A64" s="21"/>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A65" s="21"/>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A66" s="21"/>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A67" s="21"/>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A68" s="21"/>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A69" s="21"/>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A70" s="21"/>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A71" s="21"/>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A72" s="21"/>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A73" s="21"/>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A74" s="21"/>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A75" s="21"/>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A76" s="21"/>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A77" s="21"/>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A78" s="21"/>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A79" s="21"/>
+    </row>
+    <row r="80" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A80" s="21"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A81" s="21"/>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A82" s="21"/>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A83" s="21"/>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A84" s="21"/>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A85" s="21"/>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A86" s="21"/>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A87" s="21"/>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A88" s="21"/>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A89" s="21"/>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A90" s="21"/>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A91" s="21"/>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A92" s="21"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A93" s="21"/>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A94" s="21"/>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A95" s="21"/>
+    </row>
+    <row r="96" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A96" s="21"/>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A97" s="21"/>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A98" s="21"/>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A99" s="21"/>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A100" s="21"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A101" s="21"/>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A102" s="21"/>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A103" s="21"/>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A104" s="21"/>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A105" s="21"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A106" s="21"/>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A107" s="21"/>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A108" s="21"/>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A109" s="21"/>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A110" s="21"/>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A111" s="21"/>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A112" s="21"/>
+    </row>
+    <row r="113" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A113" s="21"/>
+    </row>
+    <row r="114" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A114" s="21"/>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A115" s="21"/>
+    </row>
+    <row r="116" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A116" s="21"/>
+    </row>
+    <row r="117" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A117" s="21"/>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A118" s="21"/>
+    </row>
+    <row r="119" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A119" s="21"/>
+    </row>
+    <row r="120" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A120" s="21"/>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A121" s="21"/>
+    </row>
+    <row r="122" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A122" s="21"/>
+    </row>
+    <row r="123" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A123" s="21"/>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A124" s="21"/>
+    </row>
+    <row r="125" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A125" s="21"/>
+    </row>
+    <row r="126" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A126" s="21"/>
+    </row>
+    <row r="127" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A127" s="21"/>
+    </row>
+    <row r="128" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A128" s="21"/>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A129" s="21"/>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A130" s="21"/>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A131" s="21"/>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A132" s="21"/>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A133" s="21"/>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A134" s="21"/>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A135" s="21"/>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A136" s="21"/>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A137" s="21"/>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A138" s="21"/>
+    </row>
+    <row r="139" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A139" s="21"/>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A140" s="21"/>
+    </row>
+    <row r="141" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A141" s="21"/>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A142" s="21"/>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A143" s="21"/>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A144" s="21"/>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A145" s="21"/>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A146" s="21"/>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A147" s="21"/>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A148" s="21"/>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A149" s="21"/>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A150" s="21"/>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A151" s="21"/>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A152" s="21"/>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A153" s="21"/>
+    </row>
+    <row r="154" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A154" s="21"/>
+    </row>
+    <row r="155" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A155" s="21"/>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A156" s="21"/>
+    </row>
+    <row r="157" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A157" s="21"/>
+    </row>
+    <row r="158" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A158" s="21"/>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A159" s="21"/>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A160" s="21"/>
+    </row>
+    <row r="161" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A161" s="21"/>
+    </row>
+    <row r="162" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A162" s="21"/>
+    </row>
+    <row r="163" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A163" s="21"/>
+    </row>
+    <row r="164" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A164" s="21"/>
+    </row>
+    <row r="165" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A165" s="21"/>
+    </row>
+    <row r="166" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A166" s="21"/>
+    </row>
+    <row r="167" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A167" s="21"/>
+    </row>
+    <row r="168" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A168" s="21"/>
+    </row>
+    <row r="169" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A169" s="21"/>
+    </row>
+    <row r="170" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A170" s="21"/>
+    </row>
+    <row r="171" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A171" s="21"/>
+    </row>
+    <row r="172" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A172" s="21"/>
+    </row>
+    <row r="173" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A173" s="21"/>
+    </row>
+    <row r="174" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A174" s="21"/>
+    </row>
+    <row r="175" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A175" s="21"/>
+    </row>
+    <row r="176" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A176" s="21"/>
+    </row>
+    <row r="177" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A177" s="21"/>
+    </row>
+    <row r="178" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A178" s="21"/>
+    </row>
+    <row r="179" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A179" s="21"/>
+    </row>
+    <row r="180" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A180" s="21"/>
+    </row>
+    <row r="181" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A181" s="21"/>
+    </row>
+    <row r="182" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A182" s="21"/>
+    </row>
+    <row r="183" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A183" s="21"/>
+    </row>
+    <row r="184" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A184" s="21"/>
+    </row>
+    <row r="185" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A185" s="21"/>
+    </row>
+    <row r="186" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A186" s="21"/>
+    </row>
+    <row r="187" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A187" s="21"/>
+    </row>
+    <row r="188" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A188" s="21"/>
+    </row>
+    <row r="189" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A189" s="21"/>
+    </row>
+    <row r="190" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A190" s="21"/>
+    </row>
+    <row r="191" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A191" s="21"/>
+    </row>
+    <row r="192" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A192" s="21"/>
+    </row>
+    <row r="193" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A193" s="21"/>
+    </row>
+    <row r="194" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A194" s="21"/>
+    </row>
+    <row r="195" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A195" s="21"/>
+    </row>
+    <row r="196" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A196" s="21"/>
+    </row>
+    <row r="197" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A197" s="21"/>
+    </row>
+    <row r="198" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A198" s="21"/>
+    </row>
+    <row r="199" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A199" s="21"/>
+    </row>
+    <row r="200" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A200" s="21"/>
+    </row>
+    <row r="201" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A201" s="21"/>
+    </row>
+    <row r="202" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A202" s="21"/>
+    </row>
+    <row r="203" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A203" s="21"/>
+    </row>
+    <row r="204" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A204" s="21"/>
+    </row>
+    <row r="205" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A205" s="21"/>
+    </row>
+    <row r="206" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A206" s="21"/>
+    </row>
+    <row r="207" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A207" s="21"/>
+    </row>
+    <row r="208" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A208" s="21"/>
+    </row>
+    <row r="209" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A209" s="21"/>
+    </row>
+    <row r="210" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A210" s="21"/>
+    </row>
+    <row r="211" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A211" s="21"/>
+    </row>
+    <row r="212" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A212" s="21"/>
+    </row>
+    <row r="213" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A213" s="21"/>
+    </row>
+    <row r="214" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A214" s="21"/>
+    </row>
+    <row r="215" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A215" s="21"/>
+    </row>
+    <row r="216" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A216" s="22"/>
+    </row>
+    <row r="217" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A217" s="22"/>
+    </row>
+    <row r="218" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A218" s="22"/>
+    </row>
+    <row r="219" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A219" s="22"/>
+    </row>
+    <row r="220" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A220" s="22"/>
+    </row>
+    <row r="221" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A221" s="22"/>
+    </row>
+    <row r="222" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A222" s="22"/>
+    </row>
+    <row r="223" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A223" s="22"/>
+    </row>
+    <row r="224" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A224" s="22"/>
+    </row>
+    <row r="225" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A225" s="22"/>
+    </row>
+    <row r="226" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A226" s="22"/>
+    </row>
+    <row r="227" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A227" s="22"/>
+    </row>
+    <row r="228" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A228" s="22"/>
+    </row>
+    <row r="229" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A229" s="22"/>
+    </row>
+    <row r="230" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A230" s="22"/>
+    </row>
+    <row r="231" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A231" s="22"/>
+    </row>
+    <row r="232" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A232" s="22"/>
+    </row>
+    <row r="233" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A233" s="22"/>
+    </row>
+    <row r="234" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A234" s="22"/>
+    </row>
+    <row r="235" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A235" s="22"/>
+    </row>
+    <row r="236" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A236" s="22"/>
+    </row>
+    <row r="237" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A237" s="22"/>
+    </row>
+    <row r="238" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A238" s="22"/>
+    </row>
+    <row r="239" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A239" s="22"/>
+    </row>
+    <row r="240" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A240" s="22"/>
+    </row>
+    <row r="241" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A241" s="22"/>
+    </row>
+    <row r="242" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A242" s="22"/>
+    </row>
+    <row r="243" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A243" s="22"/>
+    </row>
+    <row r="244" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A244" s="22"/>
+    </row>
+    <row r="245" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A245" s="22"/>
+    </row>
+    <row r="246" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A246" s="22"/>
+    </row>
+    <row r="247" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A247" s="22"/>
+    </row>
+    <row r="248" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A248" s="22"/>
+    </row>
+    <row r="249" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A249" s="22"/>
+    </row>
+    <row r="250" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A250" s="22"/>
+    </row>
+    <row r="251" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A251" s="22"/>
+    </row>
+    <row r="252" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A252" s="22"/>
+    </row>
+    <row r="253" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A253" s="22"/>
+    </row>
+    <row r="254" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A254" s="22"/>
+    </row>
+    <row r="255" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A255" s="22"/>
+    </row>
+    <row r="256" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A256" s="22"/>
+    </row>
+    <row r="257" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A257" s="22"/>
+    </row>
+    <row r="258" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A258" s="22"/>
+    </row>
+    <row r="259" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A259" s="22"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A260" s="22"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A261" s="22"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A262" s="22"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A263" s="22"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A264" s="22"/>
+    </row>
+    <row r="265" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A265" s="22"/>
+    </row>
+    <row r="266" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A266" s="22"/>
+    </row>
+    <row r="267" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A267" s="22"/>
+    </row>
+    <row r="268" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A268" s="22"/>
+    </row>
+    <row r="269" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A269" s="22"/>
+    </row>
+    <row r="270" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A270" s="22"/>
+    </row>
+    <row r="271" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A271" s="22"/>
+    </row>
+    <row r="272" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A272" s="22"/>
+    </row>
+    <row r="273" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A273" s="22"/>
+    </row>
+    <row r="274" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A274" s="22"/>
+    </row>
+    <row r="275" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A275" s="22"/>
+    </row>
+    <row r="276" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A276" s="22"/>
+    </row>
+    <row r="277" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A277" s="22"/>
+    </row>
+    <row r="278" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A278" s="22"/>
+    </row>
+    <row r="279" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A279" s="22"/>
+    </row>
+    <row r="280" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A280" s="22"/>
+    </row>
+    <row r="281" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A281" s="22"/>
+    </row>
+    <row r="282" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A282" s="22"/>
+    </row>
+    <row r="283" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A283" s="22"/>
+    </row>
+    <row r="284" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A284" s="22"/>
+    </row>
+    <row r="285" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A285" s="22"/>
+    </row>
+    <row r="286" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A286" s="22"/>
+    </row>
+    <row r="287" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A287" s="22"/>
+    </row>
+    <row r="288" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A288" s="22"/>
+    </row>
+    <row r="289" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A289" s="22"/>
+    </row>
+    <row r="290" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A290" s="22"/>
+    </row>
+    <row r="291" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A291" s="22"/>
+    </row>
+    <row r="292" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A292" s="22"/>
+    </row>
+    <row r="293" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A293" s="22"/>
+    </row>
+    <row r="294" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A294" s="22"/>
+    </row>
+    <row r="295" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A295" s="22"/>
+    </row>
+    <row r="296" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A296" s="22"/>
+    </row>
+    <row r="297" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A297" s="22"/>
+    </row>
+    <row r="298" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A298" s="22"/>
+    </row>
+    <row r="299" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A299" s="22"/>
+    </row>
+    <row r="300" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A300" s="22"/>
+    </row>
+    <row r="301" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A301" s="22"/>
+    </row>
+    <row r="302" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A302" s="22"/>
+    </row>
+    <row r="303" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A303" s="22"/>
+    </row>
+    <row r="304" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A304" s="22"/>
+    </row>
+    <row r="305" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A305" s="22"/>
+    </row>
+    <row r="306" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A306" s="22"/>
+    </row>
+    <row r="307" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A307" s="22"/>
+    </row>
+    <row r="308" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A308" s="22"/>
+    </row>
+    <row r="309" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A309" s="22"/>
+    </row>
+    <row r="310" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A310" s="22"/>
+    </row>
+    <row r="311" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A311" s="22"/>
+    </row>
+    <row r="312" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A312" s="22"/>
+    </row>
+    <row r="313" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A313" s="22"/>
+    </row>
+    <row r="314" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A314" s="22"/>
+    </row>
+    <row r="315" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A315" s="22"/>
+    </row>
+    <row r="316" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A316" s="22"/>
+    </row>
+    <row r="317" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A317" s="22"/>
+    </row>
+    <row r="318" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A318" s="22"/>
+    </row>
+    <row r="319" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A319" s="22"/>
+    </row>
+    <row r="320" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A320" s="22"/>
+    </row>
+    <row r="321" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A321" s="22"/>
+    </row>
+    <row r="322" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A322" s="22"/>
+    </row>
+    <row r="323" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A323" s="22"/>
+    </row>
+    <row r="324" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A324" s="22"/>
+    </row>
+    <row r="325" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A325" s="22"/>
+    </row>
+    <row r="326" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A326" s="22"/>
+    </row>
+    <row r="327" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A327" s="22"/>
+    </row>
+    <row r="328" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A328" s="22"/>
+    </row>
+    <row r="329" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A329" s="22"/>
+    </row>
+    <row r="330" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A330" s="22"/>
+    </row>
+    <row r="331" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A331" s="22"/>
+    </row>
+    <row r="332" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A332" s="22"/>
+    </row>
+    <row r="333" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A333" s="22"/>
+    </row>
+    <row r="334" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A334" s="22"/>
+    </row>
+    <row r="335" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A335" s="22"/>
+    </row>
+    <row r="336" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A336" s="22"/>
+    </row>
+    <row r="337" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A337" s="22"/>
+    </row>
+    <row r="338" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A338" s="22"/>
+    </row>
+    <row r="339" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A339" s="22"/>
+    </row>
+    <row r="340" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A340" s="22"/>
+    </row>
+    <row r="341" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A341" s="22"/>
+    </row>
+    <row r="342" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A342" s="22"/>
+    </row>
+    <row r="343" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A343" s="22"/>
+    </row>
+    <row r="344" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A344" s="22"/>
+    </row>
+    <row r="345" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A345" s="22"/>
+    </row>
+    <row r="346" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A346" s="22"/>
+    </row>
+    <row r="347" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A347" s="22"/>
+    </row>
+    <row r="348" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A348" s="22"/>
+    </row>
+    <row r="349" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A349" s="22"/>
+    </row>
+    <row r="350" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A350" s="22"/>
+    </row>
+    <row r="351" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A351" s="22"/>
+    </row>
+    <row r="352" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A352" s="22"/>
+    </row>
+    <row r="353" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A353" s="22"/>
+    </row>
+    <row r="354" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A354" s="22"/>
+    </row>
+    <row r="355" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A355" s="22"/>
+    </row>
+    <row r="356" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A356" s="22"/>
+    </row>
+    <row r="357" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A357" s="22"/>
+    </row>
+    <row r="358" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A358" s="22"/>
+    </row>
+    <row r="359" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A359" s="22"/>
+    </row>
+    <row r="360" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A360" s="22"/>
+    </row>
+    <row r="361" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A361" s="22"/>
+    </row>
+    <row r="362" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A362" s="22"/>
+    </row>
+    <row r="363" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A363" s="22"/>
+    </row>
+    <row r="364" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A364" s="22"/>
+    </row>
+    <row r="365" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A365" s="22"/>
+    </row>
+    <row r="366" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A366" s="22"/>
+    </row>
+    <row r="367" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A367" s="22"/>
+    </row>
+    <row r="368" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A368" s="22"/>
+    </row>
+    <row r="369" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A369" s="22"/>
+    </row>
+    <row r="370" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A370" s="22"/>
+    </row>
+    <row r="371" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A371" s="22"/>
+    </row>
+    <row r="372" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A372" s="22"/>
+    </row>
+    <row r="373" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A373" s="22"/>
+    </row>
+    <row r="374" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A374" s="22"/>
+    </row>
+    <row r="375" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A375" s="22"/>
+    </row>
+    <row r="376" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A376" s="22"/>
+    </row>
+    <row r="377" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A377" s="22"/>
+    </row>
+    <row r="378" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A378" s="22"/>
+    </row>
+    <row r="379" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A379" s="22"/>
+    </row>
+    <row r="380" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A380" s="22"/>
+    </row>
+    <row r="381" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A381" s="22"/>
+    </row>
+    <row r="382" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A382" s="22"/>
+    </row>
+    <row r="383" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A383" s="22"/>
+    </row>
+    <row r="384" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A384" s="22"/>
+    </row>
+    <row r="385" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A385" s="22"/>
+    </row>
+    <row r="386" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A386" s="22"/>
+    </row>
+    <row r="387" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A387" s="22"/>
+    </row>
+    <row r="388" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A388" s="22"/>
+    </row>
+    <row r="389" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A389" s="22"/>
+    </row>
+    <row r="390" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A390" s="22"/>
+    </row>
+    <row r="391" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A391" s="22"/>
+    </row>
+    <row r="392" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A392" s="22"/>
+    </row>
+    <row r="393" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A393" s="22"/>
+    </row>
+    <row r="394" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A394" s="22"/>
+    </row>
+    <row r="395" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A395" s="22"/>
+    </row>
+    <row r="396" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A396" s="22"/>
+    </row>
+    <row r="397" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A397" s="22"/>
+    </row>
+    <row r="398" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A398" s="22"/>
+    </row>
+    <row r="399" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A399" s="22"/>
+    </row>
+    <row r="400" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A400" s="22"/>
+    </row>
+    <row r="401" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A401" s="22"/>
+    </row>
+    <row r="402" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A402" s="22"/>
+    </row>
+    <row r="403" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A403" s="22"/>
+    </row>
+    <row r="404" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A404" s="22"/>
+    </row>
+    <row r="405" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A405" s="22"/>
+    </row>
+    <row r="406" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A406" s="22"/>
+    </row>
+    <row r="407" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A407" s="22"/>
+    </row>
+    <row r="408" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A408" s="22"/>
+    </row>
+    <row r="409" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A409" s="22"/>
+    </row>
+    <row r="410" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A410" s="22"/>
+    </row>
+    <row r="411" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A411" s="22"/>
+    </row>
+    <row r="412" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A412" s="22"/>
+    </row>
+    <row r="413" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A413" s="22"/>
+    </row>
+    <row r="414" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A414" s="22"/>
+    </row>
+    <row r="415" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A415" s="22"/>
+    </row>
+    <row r="416" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A416" s="22"/>
+    </row>
+    <row r="417" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A417" s="22"/>
+    </row>
+    <row r="418" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A418" s="22"/>
+    </row>
+    <row r="419" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A419" s="22"/>
+    </row>
+    <row r="420" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A420" s="22"/>
+    </row>
+    <row r="421" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A421" s="22"/>
+    </row>
+    <row r="422" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A422" s="22"/>
+    </row>
+    <row r="423" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A423" s="22"/>
+    </row>
+    <row r="424" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A424" s="22"/>
+    </row>
+    <row r="425" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A425" s="22"/>
+    </row>
+    <row r="426" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A426" s="22"/>
+    </row>
+    <row r="427" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A427" s="22"/>
+    </row>
+    <row r="428" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A428" s="22"/>
+    </row>
+    <row r="429" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A429" s="22"/>
+    </row>
+    <row r="430" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A430" s="22"/>
+    </row>
+    <row r="431" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A431" s="22"/>
+    </row>
+    <row r="432" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A432" s="22"/>
+    </row>
+    <row r="433" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A433" s="22"/>
+    </row>
+    <row r="434" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A434" s="22"/>
+    </row>
+    <row r="435" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A435" s="22"/>
+    </row>
+    <row r="436" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A436" s="22"/>
+    </row>
+    <row r="437" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A437" s="22"/>
+    </row>
+    <row r="438" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A438" s="22"/>
+    </row>
+    <row r="439" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A439" s="22"/>
+    </row>
+    <row r="440" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A440" s="22"/>
+    </row>
+    <row r="441" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A441" s="22"/>
+    </row>
+    <row r="442" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A442" s="22"/>
+    </row>
+    <row r="443" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A443" s="22"/>
+    </row>
+    <row r="444" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A444" s="22"/>
+    </row>
+    <row r="445" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A445" s="22"/>
+    </row>
+    <row r="446" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A446" s="22"/>
+    </row>
+    <row r="447" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A447" s="22"/>
+    </row>
+    <row r="448" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A448" s="22"/>
+    </row>
+    <row r="449" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A449" s="22"/>
+    </row>
+    <row r="450" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A450" s="22"/>
+    </row>
+    <row r="451" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A451" s="22"/>
+    </row>
+    <row r="452" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A452" s="22"/>
+    </row>
+    <row r="453" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A453" s="22"/>
+    </row>
+    <row r="454" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A454" s="22"/>
+    </row>
+    <row r="455" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A455" s="22"/>
+    </row>
+    <row r="456" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A456" s="22"/>
+    </row>
+    <row r="457" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A457" s="22"/>
+    </row>
+    <row r="458" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A458" s="22"/>
+    </row>
+    <row r="459" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A459" s="22"/>
+    </row>
+    <row r="460" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A460" s="22"/>
+    </row>
+    <row r="461" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A461" s="22"/>
+    </row>
+    <row r="462" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A462" s="22"/>
+    </row>
+    <row r="463" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A463" s="22"/>
+    </row>
+    <row r="464" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A464" s="22"/>
+    </row>
+    <row r="465" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A465" s="22"/>
+    </row>
+    <row r="466" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A466" s="22"/>
+    </row>
+    <row r="467" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A467" s="22"/>
+    </row>
+    <row r="468" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A468" s="22"/>
+    </row>
+    <row r="469" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A469" s="22"/>
+    </row>
+    <row r="470" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A470" s="22"/>
+    </row>
+    <row r="471" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A471" s="22"/>
+    </row>
+    <row r="472" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A472" s="22"/>
+    </row>
+    <row r="473" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A473" s="22"/>
+    </row>
+    <row r="474" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A474" s="22"/>
+    </row>
+    <row r="475" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A475" s="22"/>
+    </row>
+    <row r="476" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A476" s="22"/>
+    </row>
+    <row r="477" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A477" s="22"/>
+    </row>
+    <row r="478" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A478" s="22"/>
+    </row>
+    <row r="479" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A479" s="22"/>
+    </row>
+    <row r="480" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A480" s="22"/>
+    </row>
+    <row r="481" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A481" s="22"/>
+    </row>
+    <row r="482" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A482" s="22"/>
+    </row>
+    <row r="483" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A483" s="22"/>
+    </row>
+    <row r="484" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A484" s="22"/>
+    </row>
+    <row r="485" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A485" s="22"/>
+    </row>
+    <row r="486" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A486" s="22"/>
+    </row>
+    <row r="487" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A487" s="22"/>
+    </row>
+    <row r="488" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A488" s="22"/>
+    </row>
+    <row r="489" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A489" s="22"/>
+    </row>
+    <row r="490" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A490" s="22"/>
+    </row>
+    <row r="491" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A491" s="22"/>
+    </row>
+    <row r="492" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A492" s="22"/>
+    </row>
+    <row r="493" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A493" s="22"/>
+    </row>
+    <row r="494" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A494" s="22"/>
+    </row>
+    <row r="495" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A495" s="22"/>
+    </row>
+    <row r="496" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A496" s="22"/>
+    </row>
+    <row r="497" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A497" s="22"/>
+    </row>
+    <row r="498" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A498" s="22"/>
+    </row>
+    <row r="499" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A499" s="22"/>
+    </row>
+    <row r="500" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A500" s="22"/>
+    </row>
+    <row r="501" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A501" s="22"/>
+    </row>
+    <row r="502" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A502" s="22"/>
+    </row>
+    <row r="503" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A503" s="22"/>
+    </row>
+    <row r="504" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A504" s="22"/>
+    </row>
+    <row r="505" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A505" s="22"/>
+    </row>
+    <row r="506" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A506" s="22"/>
+    </row>
+    <row r="507" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A507" s="22"/>
+    </row>
+    <row r="508" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A508" s="22"/>
+    </row>
+    <row r="509" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A509" s="22"/>
+    </row>
+    <row r="510" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A510" s="22"/>
+    </row>
+    <row r="511" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A511" s="22"/>
+    </row>
+    <row r="512" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A512" s="22"/>
+    </row>
+    <row r="513" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A513" s="22"/>
+    </row>
+    <row r="514" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A514" s="22"/>
+    </row>
+    <row r="515" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A515" s="22"/>
+    </row>
+    <row r="516" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A516" s="22"/>
+    </row>
+    <row r="517" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A517" s="22"/>
+    </row>
+    <row r="518" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A518" s="22"/>
+    </row>
+    <row r="519" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A519" s="22"/>
+    </row>
+    <row r="520" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A520" s="22"/>
+    </row>
+    <row r="521" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A521" s="22"/>
+    </row>
+    <row r="522" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A522" s="22"/>
+    </row>
+    <row r="523" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A523" s="22"/>
+    </row>
+    <row r="524" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A524" s="22"/>
+    </row>
+    <row r="525" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A525" s="22"/>
+    </row>
+    <row r="526" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A526" s="22"/>
+    </row>
+    <row r="527" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A527" s="22"/>
+    </row>
+    <row r="528" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A528" s="22"/>
+    </row>
+    <row r="529" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A529" s="22"/>
+    </row>
+    <row r="530" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A530" s="22"/>
+    </row>
+    <row r="531" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A531" s="22"/>
+    </row>
+    <row r="532" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A532" s="22"/>
+    </row>
+    <row r="533" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A533" s="22"/>
+    </row>
+    <row r="534" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A534" s="22"/>
+    </row>
+    <row r="535" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A535" s="22"/>
+    </row>
+    <row r="536" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A536" s="22"/>
+    </row>
+    <row r="537" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A537" s="22"/>
+    </row>
+    <row r="538" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A538" s="22"/>
+    </row>
+    <row r="539" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A539" s="22"/>
+    </row>
+    <row r="540" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A540" s="22"/>
+    </row>
+    <row r="541" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A541" s="22"/>
+    </row>
+    <row r="542" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A542" s="22"/>
+    </row>
+    <row r="543" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A543" s="22"/>
+    </row>
+    <row r="544" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A544" s="22"/>
+    </row>
+    <row r="545" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A545" s="22"/>
+    </row>
+    <row r="546" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A546" s="22"/>
+    </row>
+    <row r="547" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A547" s="22"/>
+    </row>
+    <row r="548" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A548" s="22"/>
+    </row>
+    <row r="549" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A549" s="22"/>
+    </row>
+    <row r="550" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A550" s="22"/>
+    </row>
+    <row r="551" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A551" s="22"/>
+    </row>
+    <row r="552" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A552" s="22"/>
+    </row>
+    <row r="553" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A553" s="22"/>
+    </row>
+    <row r="554" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A554" s="22"/>
+    </row>
+    <row r="555" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A555" s="22"/>
+    </row>
+    <row r="556" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A556" s="22"/>
+    </row>
+    <row r="557" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A557" s="22"/>
+    </row>
+    <row r="558" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A558" s="22"/>
+    </row>
+    <row r="559" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A559" s="22"/>
+    </row>
+    <row r="560" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A560" s="22"/>
+    </row>
+    <row r="561" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A561" s="22"/>
+    </row>
+    <row r="562" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A562" s="22"/>
+    </row>
+    <row r="563" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A563" s="22"/>
+    </row>
+    <row r="564" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A564" s="22"/>
+    </row>
+    <row r="565" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A565" s="22"/>
+    </row>
+    <row r="566" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A566" s="22"/>
+    </row>
+    <row r="567" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A567" s="22"/>
+    </row>
+    <row r="568" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A568" s="22"/>
+    </row>
+    <row r="569" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A569" s="22"/>
+    </row>
+    <row r="570" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A570" s="22"/>
+    </row>
+    <row r="571" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A571" s="22"/>
+    </row>
+    <row r="572" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A572" s="22"/>
+    </row>
+    <row r="573" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A573" s="22"/>
+    </row>
+    <row r="574" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A574" s="22"/>
+    </row>
+    <row r="575" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A575" s="22"/>
+    </row>
+    <row r="576" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A576" s="22"/>
+    </row>
+    <row r="577" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A577" s="22"/>
+    </row>
+    <row r="578" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A578" s="22"/>
+    </row>
+    <row r="579" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A579" s="22"/>
+    </row>
+    <row r="580" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A580" s="22"/>
+    </row>
+    <row r="581" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A581" s="22"/>
+    </row>
+    <row r="582" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A582" s="22"/>
+    </row>
+    <row r="583" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A583" s="22"/>
+    </row>
+    <row r="584" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A584" s="22"/>
+    </row>
+    <row r="585" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A585" s="22"/>
+    </row>
+    <row r="586" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A586" s="22"/>
+    </row>
+    <row r="587" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A587" s="22"/>
+    </row>
+    <row r="588" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A588" s="22"/>
+    </row>
+    <row r="589" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A589" s="22"/>
+    </row>
+    <row r="590" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A590" s="22"/>
+    </row>
+    <row r="591" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A591" s="22"/>
+    </row>
+    <row r="592" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A592" s="22"/>
+    </row>
+    <row r="593" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A593" s="22"/>
+    </row>
+    <row r="594" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A594" s="22"/>
+    </row>
+    <row r="595" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A595" s="22"/>
+    </row>
+    <row r="596" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A596" s="22"/>
+    </row>
+    <row r="597" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A597" s="22"/>
+    </row>
+    <row r="598" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A598" s="22"/>
+    </row>
+    <row r="599" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A599" s="22"/>
+    </row>
+    <row r="600" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A600" s="22"/>
+    </row>
+    <row r="601" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A601" s="22"/>
+    </row>
+    <row r="602" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A602" s="22"/>
+    </row>
+    <row r="603" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A603" s="22"/>
+    </row>
+    <row r="604" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A604" s="22"/>
+    </row>
+    <row r="605" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A605" s="22"/>
+    </row>
+    <row r="606" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A606" s="22"/>
+    </row>
+    <row r="607" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A607" s="22"/>
+    </row>
+    <row r="608" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A608" s="22"/>
+    </row>
+    <row r="609" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A609" s="22"/>
+    </row>
+    <row r="610" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A610" s="22"/>
+    </row>
+    <row r="611" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A611" s="22"/>
+    </row>
+    <row r="612" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A612" s="22"/>
+    </row>
+    <row r="613" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A613" s="22"/>
+    </row>
+    <row r="614" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A614" s="22"/>
+    </row>
+    <row r="615" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A615" s="22"/>
+    </row>
+    <row r="616" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A616" s="22"/>
+    </row>
+    <row r="617" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A617" s="22"/>
+    </row>
+    <row r="618" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A618" s="22"/>
+    </row>
+    <row r="619" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A619" s="22"/>
+    </row>
+    <row r="620" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A620" s="22"/>
+    </row>
+    <row r="621" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A621" s="22"/>
+    </row>
+    <row r="622" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A622" s="22"/>
+    </row>
+    <row r="623" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A623" s="22"/>
+    </row>
+    <row r="624" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A624" s="22"/>
+    </row>
+    <row r="625" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A625" s="22"/>
+    </row>
+    <row r="626" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A626" s="22"/>
+    </row>
+    <row r="627" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A627" s="22"/>
+    </row>
+    <row r="628" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A628" s="22"/>
+    </row>
+    <row r="629" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A629" s="22"/>
+    </row>
+    <row r="630" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A630" s="22"/>
+    </row>
+    <row r="631" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A631" s="22"/>
+    </row>
+    <row r="632" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A632" s="22"/>
+    </row>
+    <row r="633" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A633" s="22"/>
+    </row>
+    <row r="634" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A634" s="22"/>
+    </row>
+    <row r="635" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A635" s="22"/>
+    </row>
+    <row r="636" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A636" s="22"/>
+    </row>
+    <row r="637" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A637" s="22"/>
+    </row>
+    <row r="638" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A638" s="22"/>
+    </row>
+    <row r="639" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A639" s="22"/>
+    </row>
+    <row r="640" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A640" s="22"/>
+    </row>
+    <row r="641" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A641" s="22"/>
+    </row>
+    <row r="642" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A642" s="22"/>
+    </row>
+    <row r="643" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A643" s="22"/>
+    </row>
+    <row r="644" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A644" s="22"/>
+    </row>
+    <row r="645" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A645" s="22"/>
+    </row>
+    <row r="646" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A646" s="22"/>
+    </row>
+    <row r="647" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A647" s="22"/>
+    </row>
+    <row r="648" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A648" s="22"/>
+    </row>
+    <row r="649" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A649" s="22"/>
+    </row>
+    <row r="650" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A650" s="22"/>
+    </row>
+    <row r="651" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A651" s="22"/>
+    </row>
+    <row r="652" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A652" s="22"/>
+    </row>
+    <row r="653" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A653" s="22"/>
+    </row>
+    <row r="654" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A654" s="22"/>
+    </row>
+    <row r="655" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A655" s="22"/>
+    </row>
+    <row r="656" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A656" s="22"/>
+    </row>
+    <row r="657" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A657" s="22"/>
+    </row>
+    <row r="658" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A658" s="22"/>
+    </row>
+    <row r="659" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A659" s="22"/>
+    </row>
+    <row r="660" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A660" s="22"/>
+    </row>
+    <row r="661" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A661" s="22"/>
+    </row>
+    <row r="662" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A662" s="22"/>
+    </row>
+    <row r="663" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A663" s="22"/>
+    </row>
+    <row r="664" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A664" s="22"/>
+    </row>
+    <row r="665" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A665" s="22"/>
+    </row>
+    <row r="666" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A666" s="22"/>
+    </row>
+    <row r="667" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A667" s="22"/>
+    </row>
+    <row r="668" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A668" s="22"/>
+    </row>
+    <row r="669" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A669" s="22"/>
+    </row>
+    <row r="670" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A670" s="22"/>
+    </row>
+    <row r="671" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A671" s="22"/>
+    </row>
+    <row r="672" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A672" s="22"/>
+    </row>
+    <row r="673" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A673" s="22"/>
+    </row>
+    <row r="674" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A674" s="22"/>
+    </row>
+    <row r="675" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A675" s="22"/>
+    </row>
+    <row r="676" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A676" s="22"/>
+    </row>
+    <row r="677" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A677" s="22"/>
+    </row>
+    <row r="678" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A678" s="22"/>
+    </row>
+    <row r="679" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A679" s="22"/>
+    </row>
+    <row r="680" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A680" s="22"/>
+    </row>
+    <row r="681" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A681" s="22"/>
+    </row>
+    <row r="682" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A682" s="22"/>
+    </row>
+    <row r="683" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A683" s="22"/>
+    </row>
+    <row r="684" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A684" s="22"/>
+    </row>
+    <row r="685" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A685" s="22"/>
+    </row>
+    <row r="686" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A686" s="22"/>
+    </row>
+    <row r="687" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A687" s="22"/>
+    </row>
+    <row r="688" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A688" s="22"/>
+    </row>
+    <row r="689" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A689" s="22"/>
+    </row>
+    <row r="690" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A690" s="22"/>
+    </row>
+    <row r="691" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A691" s="22"/>
+    </row>
+    <row r="692" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A692" s="22"/>
+    </row>
+    <row r="693" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A693" s="22"/>
+    </row>
+    <row r="694" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A694" s="22"/>
+    </row>
+    <row r="695" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A695" s="22"/>
+    </row>
+    <row r="696" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A696" s="22"/>
+    </row>
+    <row r="697" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A697" s="22"/>
+    </row>
+    <row r="698" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A698" s="22"/>
+    </row>
+    <row r="699" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A699" s="22"/>
+    </row>
+    <row r="700" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A700" s="22"/>
+    </row>
+    <row r="701" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A701" s="22"/>
+    </row>
+    <row r="702" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A702" s="22"/>
+    </row>
+    <row r="703" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A703" s="22"/>
+    </row>
+    <row r="704" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A704" s="22"/>
+    </row>
+    <row r="705" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A705" s="22"/>
+    </row>
+    <row r="706" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A706" s="22"/>
+    </row>
+    <row r="707" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A707" s="22"/>
+    </row>
+    <row r="708" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A708" s="22"/>
+    </row>
+    <row r="709" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A709" s="22"/>
+    </row>
+    <row r="710" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A710" s="22"/>
+    </row>
+    <row r="711" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A711" s="22"/>
+    </row>
+    <row r="712" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A712" s="22"/>
+    </row>
+    <row r="713" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A713" s="22"/>
+    </row>
+    <row r="714" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A714" s="22"/>
+    </row>
+    <row r="715" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A715" s="22"/>
+    </row>
+    <row r="716" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A716" s="22"/>
+    </row>
+    <row r="717" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A717" s="22"/>
+    </row>
+    <row r="718" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A718" s="22"/>
+    </row>
+    <row r="719" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A719" s="22"/>
+    </row>
+    <row r="720" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A720" s="22"/>
+    </row>
+    <row r="721" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A721" s="22"/>
+    </row>
+    <row r="722" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A722" s="22"/>
+    </row>
+    <row r="723" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A723" s="22"/>
+    </row>
+    <row r="724" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A724" s="22"/>
+    </row>
+    <row r="725" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A725" s="22"/>
+    </row>
+    <row r="726" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A726" s="22"/>
+    </row>
+    <row r="727" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A727" s="22"/>
+    </row>
+    <row r="728" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A728" s="22"/>
+    </row>
+    <row r="729" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A729" s="22"/>
+    </row>
+    <row r="730" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A730" s="22"/>
+    </row>
+    <row r="731" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A731" s="22"/>
+    </row>
+    <row r="732" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A732" s="22"/>
+    </row>
+    <row r="733" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A733" s="22"/>
+    </row>
+    <row r="734" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A734" s="22"/>
+    </row>
+    <row r="735" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A735" s="22"/>
+    </row>
+    <row r="736" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A736" s="22"/>
+    </row>
+    <row r="737" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A737" s="22"/>
+    </row>
+    <row r="738" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A738" s="22"/>
+    </row>
+    <row r="739" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A739" s="22"/>
+    </row>
+    <row r="740" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A740" s="22"/>
+    </row>
+    <row r="741" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A741" s="22"/>
+    </row>
+    <row r="742" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A742" s="22"/>
+    </row>
+    <row r="743" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A743" s="22"/>
+    </row>
+    <row r="744" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A744" s="22"/>
+    </row>
+    <row r="745" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A745" s="22"/>
+    </row>
+    <row r="746" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A746" s="22"/>
+    </row>
+    <row r="747" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A747" s="22"/>
+    </row>
+    <row r="748" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A748" s="22"/>
+    </row>
+    <row r="749" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A749" s="22"/>
+    </row>
+    <row r="750" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A750" s="22"/>
+    </row>
+    <row r="751" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A751" s="22"/>
+    </row>
+    <row r="752" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A752" s="22"/>
+    </row>
+    <row r="753" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A753" s="22"/>
+    </row>
+    <row r="754" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A754" s="22"/>
+    </row>
+    <row r="755" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A755" s="22"/>
+    </row>
+    <row r="756" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A756" s="22"/>
+    </row>
+    <row r="757" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A757" s="22"/>
+    </row>
+    <row r="758" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A758" s="22"/>
+    </row>
+    <row r="759" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A759" s="22"/>
+    </row>
+    <row r="760" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A760" s="22"/>
+    </row>
+    <row r="761" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A761" s="22"/>
+    </row>
+    <row r="762" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A762" s="22"/>
+    </row>
+    <row r="763" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A763" s="22"/>
+    </row>
+    <row r="764" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A764" s="22"/>
+    </row>
+    <row r="765" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A765" s="22"/>
+    </row>
+    <row r="766" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A766" s="22"/>
+    </row>
+    <row r="767" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A767" s="22"/>
+    </row>
+    <row r="768" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A768" s="22"/>
+    </row>
+    <row r="769" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A769" s="22"/>
+    </row>
+    <row r="770" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A770" s="22"/>
+    </row>
+    <row r="771" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A771" s="22"/>
+    </row>
+    <row r="772" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A772" s="22"/>
+    </row>
+    <row r="773" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A773" s="22"/>
+    </row>
+    <row r="774" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A774" s="22"/>
+    </row>
+    <row r="775" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A775" s="22"/>
+    </row>
+    <row r="776" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A776" s="22"/>
+    </row>
+    <row r="777" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A777" s="22"/>
+    </row>
+    <row r="778" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A778" s="22"/>
+    </row>
+    <row r="779" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A779" s="22"/>
+    </row>
+    <row r="780" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A780" s="22"/>
+    </row>
+    <row r="781" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A781" s="22"/>
+    </row>
+    <row r="782" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A782" s="22"/>
+    </row>
+    <row r="783" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A783" s="22"/>
+    </row>
+    <row r="784" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A784" s="22"/>
+    </row>
+    <row r="785" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A785" s="22"/>
+    </row>
+    <row r="786" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A786" s="22"/>
+    </row>
+    <row r="787" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A787" s="22"/>
+    </row>
+    <row r="788" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A788" s="22"/>
+    </row>
+    <row r="789" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A789" s="22"/>
+    </row>
+    <row r="790" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A790" s="22"/>
+    </row>
+    <row r="791" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A791" s="22"/>
+    </row>
+    <row r="792" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A792" s="22"/>
+    </row>
+    <row r="793" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A793" s="22"/>
+    </row>
+    <row r="794" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A794" s="22"/>
+    </row>
+    <row r="795" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A795" s="22"/>
+    </row>
+    <row r="796" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A796" s="22"/>
+    </row>
+    <row r="797" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A797" s="22"/>
+    </row>
+    <row r="798" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A798" s="22"/>
+    </row>
+    <row r="799" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A799" s="22"/>
+    </row>
+    <row r="800" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A800" s="22"/>
+    </row>
+    <row r="801" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A801" s="22"/>
+    </row>
+    <row r="802" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A802" s="22"/>
+    </row>
+    <row r="803" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A803" s="22"/>
+    </row>
+    <row r="804" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A804" s="22"/>
+    </row>
+    <row r="805" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A805" s="22"/>
+    </row>
+    <row r="806" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A806" s="22"/>
+    </row>
+    <row r="807" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A807" s="22"/>
+    </row>
+    <row r="808" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A808" s="22"/>
+    </row>
+    <row r="809" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A809" s="22"/>
+    </row>
+    <row r="810" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A810" s="22"/>
+    </row>
+    <row r="811" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A811" s="22"/>
+    </row>
+    <row r="812" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A812" s="22"/>
+    </row>
+    <row r="813" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A813" s="22"/>
+    </row>
+    <row r="814" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A814" s="22"/>
+    </row>
+    <row r="815" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A815" s="22"/>
+    </row>
+    <row r="816" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A816" s="22"/>
+    </row>
+    <row r="817" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A817" s="22"/>
+    </row>
+    <row r="818" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A818" s="22"/>
+    </row>
+    <row r="819" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A819" s="22"/>
+    </row>
+    <row r="820" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A820" s="22"/>
+    </row>
+    <row r="821" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A821" s="22"/>
+    </row>
+    <row r="822" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A822" s="22"/>
+    </row>
+    <row r="823" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A823" s="22"/>
+    </row>
+    <row r="824" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A824" s="22"/>
+    </row>
+    <row r="825" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A825" s="22"/>
+    </row>
+    <row r="826" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A826" s="22"/>
+    </row>
+    <row r="827" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A827" s="22"/>
+    </row>
+    <row r="828" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A828" s="22"/>
+    </row>
+    <row r="829" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A829" s="22"/>
+    </row>
+    <row r="830" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A830" s="22"/>
+    </row>
+    <row r="831" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A831" s="22"/>
+    </row>
+    <row r="832" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A832" s="22"/>
+    </row>
+    <row r="833" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A833" s="22"/>
+    </row>
+    <row r="834" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A834" s="22"/>
+    </row>
+    <row r="835" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A835" s="22"/>
+    </row>
+    <row r="836" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A836" s="22"/>
+    </row>
+    <row r="837" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A837" s="22"/>
+    </row>
+    <row r="838" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A838" s="22"/>
+    </row>
+    <row r="839" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A839" s="22"/>
+    </row>
+    <row r="840" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A840" s="22"/>
+    </row>
+    <row r="841" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A841" s="22"/>
+    </row>
+    <row r="842" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A842" s="22"/>
+    </row>
+    <row r="843" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A843" s="22"/>
+    </row>
+    <row r="844" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A844" s="22"/>
+    </row>
+    <row r="845" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A845" s="22"/>
+    </row>
+    <row r="846" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A846" s="22"/>
+    </row>
+    <row r="847" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A847" s="22"/>
+    </row>
+    <row r="848" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A848" s="22"/>
+    </row>
+    <row r="849" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A849" s="22"/>
+    </row>
+    <row r="850" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A850" s="22"/>
+    </row>
+    <row r="851" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A851" s="22"/>
+    </row>
+    <row r="852" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A852" s="22"/>
+    </row>
+    <row r="853" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A853" s="22"/>
+    </row>
+    <row r="854" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A854" s="22"/>
+    </row>
+    <row r="855" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A855" s="22"/>
+    </row>
+    <row r="856" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A856" s="22"/>
+    </row>
+    <row r="857" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A857" s="22"/>
+    </row>
+    <row r="858" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A858" s="22"/>
+    </row>
+    <row r="859" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A859" s="22"/>
+    </row>
+    <row r="860" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A860" s="22"/>
+    </row>
+    <row r="861" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A861" s="22"/>
+    </row>
+    <row r="862" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A862" s="22"/>
+    </row>
+    <row r="863" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A863" s="22"/>
+    </row>
+    <row r="864" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A864" s="22"/>
+    </row>
+    <row r="865" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A865" s="22"/>
+    </row>
+    <row r="866" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A866" s="22"/>
+    </row>
+    <row r="867" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A867" s="22"/>
+    </row>
+    <row r="868" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A868" s="22"/>
+    </row>
+    <row r="869" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A869" s="22"/>
+    </row>
+    <row r="870" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A870" s="22"/>
+    </row>
+    <row r="871" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A871" s="22"/>
+    </row>
+    <row r="872" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A872" s="22"/>
+    </row>
+    <row r="873" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A873" s="22"/>
+    </row>
+    <row r="874" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A874" s="22"/>
+    </row>
+    <row r="875" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A875" s="22"/>
+    </row>
+    <row r="876" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A876" s="22"/>
+    </row>
+    <row r="877" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A877" s="22"/>
+    </row>
+    <row r="878" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A878" s="22"/>
+    </row>
+    <row r="879" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A879" s="22"/>
+    </row>
+    <row r="880" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A880" s="22"/>
+    </row>
+    <row r="881" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A881" s="22"/>
+    </row>
+    <row r="882" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A882" s="22"/>
+    </row>
+    <row r="883" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A883" s="22"/>
+    </row>
+    <row r="884" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A884" s="22"/>
+    </row>
+    <row r="885" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A885" s="22"/>
+    </row>
+    <row r="886" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A886" s="22"/>
+    </row>
+    <row r="887" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A887" s="22"/>
+    </row>
+    <row r="888" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A888" s="22"/>
+    </row>
+    <row r="889" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A889" s="22"/>
+    </row>
+    <row r="890" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A890" s="22"/>
+    </row>
+    <row r="891" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A891" s="22"/>
+    </row>
+    <row r="892" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A892" s="22"/>
+    </row>
+    <row r="893" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A893" s="22"/>
+    </row>
+    <row r="894" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A894" s="22"/>
+    </row>
+    <row r="895" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A895" s="22"/>
+    </row>
+    <row r="896" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A896" s="22"/>
+    </row>
+    <row r="897" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A897" s="22"/>
+    </row>
+    <row r="898" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A898" s="22"/>
+    </row>
+    <row r="899" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A899" s="22"/>
+    </row>
+    <row r="900" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A900" s="22"/>
+    </row>
+    <row r="901" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A901" s="22"/>
+    </row>
+    <row r="902" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A902" s="22"/>
+    </row>
+    <row r="903" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A903" s="22"/>
+    </row>
+    <row r="904" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A904" s="22"/>
+    </row>
+    <row r="905" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A905" s="22"/>
+    </row>
+    <row r="906" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A906" s="22"/>
+    </row>
+    <row r="907" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A907" s="22"/>
+    </row>
+    <row r="908" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A908" s="22"/>
+    </row>
+    <row r="909" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A909" s="22"/>
+    </row>
+    <row r="910" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A910" s="22"/>
+    </row>
+    <row r="911" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A911" s="22"/>
+    </row>
+    <row r="912" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A912" s="22"/>
+    </row>
+    <row r="913" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A913" s="22"/>
+    </row>
+    <row r="914" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A914" s="22"/>
+    </row>
+    <row r="915" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A915" s="22"/>
+    </row>
+    <row r="916" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A916" s="22"/>
+    </row>
+    <row r="917" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A917" s="22"/>
+    </row>
+    <row r="918" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A918" s="22"/>
+    </row>
+    <row r="919" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A919" s="22"/>
+    </row>
+    <row r="920" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A920" s="22"/>
+    </row>
+    <row r="921" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A921" s="22"/>
+    </row>
+    <row r="922" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A922" s="22"/>
+    </row>
+    <row r="923" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A923" s="22"/>
+    </row>
+    <row r="924" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A924" s="22"/>
+    </row>
+    <row r="925" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A925" s="22"/>
+    </row>
+    <row r="926" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A926" s="22"/>
+    </row>
+    <row r="927" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A927" s="22"/>
+    </row>
+    <row r="928" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A928" s="22"/>
+    </row>
+    <row r="929" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A929" s="22"/>
+    </row>
+    <row r="930" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A930" s="22"/>
+    </row>
+    <row r="931" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A931" s="22"/>
+    </row>
+    <row r="932" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A932" s="22"/>
+    </row>
+    <row r="933" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A933" s="22"/>
+    </row>
+    <row r="934" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A934" s="22"/>
+    </row>
+    <row r="935" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A935" s="22"/>
+    </row>
+    <row r="936" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A936" s="22"/>
+    </row>
+    <row r="937" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A937" s="22"/>
+    </row>
+    <row r="938" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A938" s="22"/>
+    </row>
+    <row r="939" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A939" s="22"/>
+    </row>
+    <row r="940" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A940" s="22"/>
+    </row>
+    <row r="941" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A941" s="22"/>
+    </row>
+    <row r="942" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A942" s="22"/>
+    </row>
+    <row r="943" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A943" s="22"/>
+    </row>
+    <row r="944" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A944" s="22"/>
+    </row>
+    <row r="945" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A945" s="22"/>
+    </row>
+    <row r="946" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A946" s="22"/>
+    </row>
+    <row r="947" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A947" s="22"/>
+    </row>
+    <row r="948" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A948" s="22"/>
+    </row>
+    <row r="949" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A949" s="22"/>
+    </row>
+    <row r="950" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A950" s="22"/>
+    </row>
+    <row r="951" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A951" s="22"/>
+    </row>
+    <row r="952" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A952" s="22"/>
+    </row>
+    <row r="953" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A953" s="22"/>
+    </row>
+    <row r="954" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A954" s="22"/>
+    </row>
+    <row r="955" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A955" s="22"/>
+    </row>
+    <row r="956" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A956" s="22"/>
+    </row>
+    <row r="957" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A957" s="22"/>
+    </row>
+    <row r="958" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A958" s="22"/>
+    </row>
+    <row r="959" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A959" s="22"/>
+    </row>
+    <row r="960" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A960" s="22"/>
+    </row>
+    <row r="961" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A961" s="22"/>
+    </row>
+    <row r="962" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A962" s="22"/>
+    </row>
+    <row r="963" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A963" s="22"/>
+    </row>
+    <row r="964" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A964" s="22"/>
+    </row>
+    <row r="965" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A965" s="22"/>
+    </row>
+    <row r="966" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A966" s="22"/>
+    </row>
+    <row r="967" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A967" s="22"/>
+    </row>
+    <row r="968" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A968" s="22"/>
+    </row>
+    <row r="969" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A969" s="22"/>
+    </row>
+    <row r="970" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A970" s="22"/>
+    </row>
+    <row r="971" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A971" s="22"/>
+    </row>
+    <row r="972" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A972" s="22"/>
+    </row>
+    <row r="973" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A973" s="22"/>
+    </row>
+    <row r="974" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A974" s="22"/>
+    </row>
+    <row r="975" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A975" s="22"/>
+    </row>
+    <row r="976" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A976" s="22"/>
+    </row>
+    <row r="977" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A977" s="22"/>
+    </row>
+    <row r="978" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A978" s="22"/>
+    </row>
+    <row r="979" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A979" s="22"/>
+    </row>
+    <row r="980" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A980" s="22"/>
+    </row>
+    <row r="981" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A981" s="22"/>
+    </row>
+    <row r="982" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A982" s="22"/>
+    </row>
+    <row r="983" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A983" s="22"/>
+    </row>
+    <row r="984" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A984" s="22"/>
+    </row>
+    <row r="985" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A985" s="22"/>
+    </row>
+    <row r="986" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A986" s="22"/>
+    </row>
+    <row r="987" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A987" s="22"/>
+    </row>
+    <row r="988" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A988" s="22"/>
+    </row>
+    <row r="989" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A989" s="22"/>
+    </row>
+    <row r="990" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A990" s="22"/>
+    </row>
+    <row r="991" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A991" s="22"/>
+    </row>
+    <row r="992" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A992" s="22"/>
+    </row>
+    <row r="993" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A993" s="22"/>
+    </row>
+    <row r="994" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A994" s="22"/>
+    </row>
+    <row r="995" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A995" s="22"/>
+    </row>
+    <row r="996" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A996" s="22"/>
+    </row>
+    <row r="997" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A997" s="22"/>
+    </row>
+    <row r="998" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A998" s="22"/>
+    </row>
+    <row r="999" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A999" s="22"/>
+    </row>
+    <row r="1000" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1000" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/storage/app/iprs/1/week_4.xlsx
+++ b/storage/app/iprs/1/week_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAF8DEE-36D0-48E8-954B-9D46216FED5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A6E64D-8ECA-4B64-90BA-02103B735C04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>M1-W007</t>
+  </si>
+  <si>
+    <t>M1-W022</t>
   </si>
 </sst>
 </file>
@@ -742,13 +745,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMN1000"/>
+  <dimension ref="A1:AMN1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58:A101"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23:AO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2705,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="15.75" thickBot="1">
+    <row r="17" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="15.75" thickBot="1">
+    <row r="18" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="15.75" thickBot="1">
+    <row r="19" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="15.75" thickBot="1">
+    <row r="20" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="15.75" thickBot="1">
+    <row r="21" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -3310,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="15.75" thickBot="1">
+    <row r="22" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -3431,184 +3434,191 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:41 1026:1028" ht="15.75" thickBot="1">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="T23" s="19">
+        <v>0</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0</v>
+      </c>
+      <c r="V23" s="19">
+        <v>0</v>
+      </c>
+      <c r="W23" s="19">
+        <v>0</v>
+      </c>
+      <c r="X23" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AML23" s="2"/>
+      <c r="AMM23" s="2"/>
+      <c r="AMN23" s="2"/>
+    </row>
+    <row r="24" spans="1:41 1026:1028" ht="15.75" thickBot="1">
+      <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
-        <v>0</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12">
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
         <v>0.75</v>
       </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0</v>
-      </c>
-      <c r="S23" s="11">
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+      <c r="S24" s="11">
         <v>1.25</v>
-      </c>
-      <c r="T23" s="7">
-        <v>0</v>
-      </c>
-      <c r="U23" s="7">
-        <v>0</v>
-      </c>
-      <c r="V23" s="7">
-        <v>0</v>
-      </c>
-      <c r="W23" s="7">
-        <v>0</v>
-      </c>
-      <c r="X23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0</v>
-      </c>
-      <c r="S24" s="7">
-        <v>0</v>
       </c>
       <c r="T24" s="7">
         <v>0</v>
@@ -3673,9 +3683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="15.75" thickBot="1">
+    <row r="25" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="7">
         <v>0</v>
@@ -3794,9 +3804,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="15.75" thickBot="1">
+    <row r="26" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="7">
         <v>0</v>
@@ -3831,8 +3841,8 @@
       <c r="L26" s="7">
         <v>0</v>
       </c>
-      <c r="M26" s="13">
-        <v>0.75</v>
+      <c r="M26" s="7">
+        <v>0</v>
       </c>
       <c r="N26" s="7">
         <v>0</v>
@@ -3850,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="T26" s="7">
         <v>0</v>
@@ -3915,9 +3925,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="15.75" thickBot="1">
+    <row r="27" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="7">
         <v>0</v>
@@ -3952,8 +3962,8 @@
       <c r="L27" s="7">
         <v>0</v>
       </c>
-      <c r="M27" s="7">
-        <v>0</v>
+      <c r="M27" s="13">
+        <v>0.75</v>
       </c>
       <c r="N27" s="7">
         <v>0</v>
@@ -3971,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T27" s="7">
         <v>0</v>
@@ -3983,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X27" s="7">
         <v>0</v>
@@ -4036,9 +4046,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="15.75" thickBot="1">
+    <row r="28" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="7">
         <v>0</v>
@@ -4074,37 +4084,37 @@
         <v>0</v>
       </c>
       <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0</v>
+      </c>
+      <c r="U28" s="7">
+        <v>0</v>
+      </c>
+      <c r="V28" s="7">
+        <v>0</v>
+      </c>
+      <c r="W28" s="7">
         <v>0.5</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>0</v>
-      </c>
-      <c r="R28" s="7">
-        <v>0</v>
-      </c>
-      <c r="S28" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="T28" s="7">
-        <v>0</v>
-      </c>
-      <c r="U28" s="7">
-        <v>0</v>
-      </c>
-      <c r="V28" s="7">
-        <v>0</v>
-      </c>
-      <c r="W28" s="13">
-        <v>0</v>
       </c>
       <c r="X28" s="7">
         <v>0</v>
@@ -4157,9 +4167,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="15.75" thickBot="1">
+    <row r="29" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="7">
         <v>0</v>
@@ -4195,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N29" s="7">
         <v>0</v>
@@ -4213,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T29" s="7">
         <v>0</v>
@@ -4224,7 +4234,7 @@
       <c r="V29" s="7">
         <v>0</v>
       </c>
-      <c r="W29" s="7">
+      <c r="W29" s="13">
         <v>0</v>
       </c>
       <c r="X29" s="7">
@@ -4278,9 +4288,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="15.75" thickBot="1">
+    <row r="30" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="7">
         <v>0</v>
@@ -4316,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
         <v>0</v>
@@ -4334,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="7">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="T30" s="7">
         <v>0</v>
@@ -4399,9 +4409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="15.75" thickBot="1">
+    <row r="31" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="7">
         <v>0</v>
@@ -4437,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N31" s="7">
         <v>0</v>
@@ -4455,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="7">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T31" s="7">
         <v>0</v>
@@ -4520,9 +4530,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="15.75" thickBot="1">
+    <row r="32" spans="1:41 1026:1028" ht="15.75" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="7">
         <v>0</v>
@@ -4643,7 +4653,7 @@
     </row>
     <row r="33" spans="1:41" ht="15.75" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="7">
         <v>0</v>
@@ -4678,7 +4688,7 @@
       <c r="L33" s="7">
         <v>0</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="7">
         <v>0</v>
       </c>
       <c r="N33" s="7">
@@ -4708,8 +4718,8 @@
       <c r="V33" s="7">
         <v>0</v>
       </c>
-      <c r="W33" s="13">
-        <v>0.08</v>
+      <c r="W33" s="7">
+        <v>0</v>
       </c>
       <c r="X33" s="7">
         <v>0</v>
@@ -4764,7 +4774,7 @@
     </row>
     <row r="34" spans="1:41" ht="15.75" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="7">
         <v>0</v>
@@ -4799,8 +4809,8 @@
       <c r="L34" s="7">
         <v>0</v>
       </c>
-      <c r="M34" s="11">
-        <v>0.25</v>
+      <c r="M34" s="13">
+        <v>0</v>
       </c>
       <c r="N34" s="7">
         <v>0</v>
@@ -4830,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="13">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="X34" s="7">
         <v>0</v>
@@ -4884,8 +4894,8 @@
       </c>
     </row>
     <row r="35" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A35" s="6" t="s">
-        <v>33</v>
+      <c r="A35" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B35" s="7">
         <v>0</v>
@@ -4902,14 +4912,14 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="9">
-        <v>2</v>
-      </c>
-      <c r="H35" s="9">
-        <v>4</v>
-      </c>
-      <c r="I35" s="9">
-        <v>4</v>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
       </c>
       <c r="J35" s="7">
         <v>0</v>
@@ -4921,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="11">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="N35" s="7">
         <v>0</v>
@@ -4945,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="U35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="7">
         <v>0</v>
       </c>
-      <c r="W35" s="7">
-        <v>1</v>
+      <c r="W35" s="13">
+        <v>0.25</v>
       </c>
       <c r="X35" s="7">
         <v>0</v>
@@ -4985,52 +4995,52 @@
       <c r="AI35" s="7">
         <v>0</v>
       </c>
-      <c r="AJ35" s="9">
+      <c r="AJ35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
         <v>2</v>
       </c>
-      <c r="AK35" s="9">
-        <v>2</v>
-      </c>
-      <c r="AL35" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7">
-        <v>0</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
+      <c r="H36" s="9">
+        <v>4</v>
+      </c>
+      <c r="I36" s="9">
+        <v>4</v>
       </c>
       <c r="J36" s="7">
         <v>0</v>
@@ -5041,8 +5051,8 @@
       <c r="L36" s="7">
         <v>0</v>
       </c>
-      <c r="M36" s="15">
-        <v>0</v>
+      <c r="M36" s="11">
+        <v>0.17</v>
       </c>
       <c r="N36" s="7">
         <v>0</v>
@@ -5066,13 +5076,13 @@
         <v>0</v>
       </c>
       <c r="U36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="7">
         <v>0</v>
       </c>
       <c r="W36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="7">
         <v>0</v>
@@ -5106,11 +5116,11 @@
       <c r="AI36" s="7">
         <v>0</v>
       </c>
-      <c r="AJ36" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="7">
-        <v>0</v>
+      <c r="AJ36" s="9">
+        <v>2</v>
+      </c>
+      <c r="AK36" s="9">
+        <v>2</v>
       </c>
       <c r="AL36" s="7">
         <v>0</v>
@@ -5127,7 +5137,7 @@
     </row>
     <row r="37" spans="1:41" ht="15.75" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="7">
         <v>0</v>
@@ -5162,8 +5172,8 @@
       <c r="L37" s="7">
         <v>0</v>
       </c>
-      <c r="M37" s="11">
-        <v>0.17</v>
+      <c r="M37" s="15">
+        <v>0</v>
       </c>
       <c r="N37" s="7">
         <v>0</v>
@@ -5192,7 +5202,7 @@
       <c r="V37" s="7">
         <v>0</v>
       </c>
-      <c r="W37" s="13">
+      <c r="W37" s="7">
         <v>0</v>
       </c>
       <c r="X37" s="7">
@@ -5247,8 +5257,8 @@
       </c>
     </row>
     <row r="38" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A38" s="6" t="s">
-        <v>36</v>
+      <c r="A38" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B38" s="7">
         <v>0</v>
@@ -5265,14 +5275,14 @@
       <c r="F38" s="7">
         <v>0</v>
       </c>
-      <c r="G38" s="10">
-        <v>2</v>
-      </c>
-      <c r="H38" s="10">
-        <v>4</v>
-      </c>
-      <c r="I38" s="10">
-        <v>4</v>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
       </c>
       <c r="J38" s="7">
         <v>0</v>
@@ -5313,8 +5323,8 @@
       <c r="V38" s="7">
         <v>0</v>
       </c>
-      <c r="W38" s="7">
-        <v>0.5</v>
+      <c r="W38" s="13">
+        <v>0</v>
       </c>
       <c r="X38" s="7">
         <v>0</v>
@@ -5348,52 +5358,52 @@
       <c r="AI38" s="7">
         <v>0</v>
       </c>
-      <c r="AJ38" s="10">
+      <c r="AJ38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
         <v>2</v>
       </c>
-      <c r="AK38" s="10">
-        <v>2</v>
-      </c>
-      <c r="AL38" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM38" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
+      <c r="H39" s="10">
+        <v>4</v>
+      </c>
+      <c r="I39" s="10">
+        <v>4</v>
       </c>
       <c r="J39" s="7">
         <v>0</v>
@@ -5404,8 +5414,8 @@
       <c r="L39" s="7">
         <v>0</v>
       </c>
-      <c r="M39" s="16">
-        <v>0</v>
+      <c r="M39" s="11">
+        <v>0.17</v>
       </c>
       <c r="N39" s="7">
         <v>0</v>
@@ -5435,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="7">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="X39" s="7">
         <v>0</v>
@@ -5469,11 +5479,11 @@
       <c r="AI39" s="7">
         <v>0</v>
       </c>
-      <c r="AJ39" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="7">
-        <v>0</v>
+      <c r="AJ39" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK39" s="10">
+        <v>2</v>
       </c>
       <c r="AL39" s="7">
         <v>0</v>
@@ -5490,7 +5500,7 @@
     </row>
     <row r="40" spans="1:41" ht="15.75" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="7">
         <v>0</v>
@@ -5525,7 +5535,7 @@
       <c r="L40" s="7">
         <v>0</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="16">
         <v>0</v>
       </c>
       <c r="N40" s="7">
@@ -5556,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X40" s="7">
         <v>0</v>
@@ -5611,7 +5621,7 @@
     </row>
     <row r="41" spans="1:41" ht="15.75" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="7">
         <v>0</v>
@@ -5732,7 +5742,7 @@
     </row>
     <row r="42" spans="1:41" ht="15.75" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="7">
         <v>0</v>
@@ -5853,7 +5863,7 @@
     </row>
     <row r="43" spans="1:41" ht="15.75" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="7">
         <v>0</v>
@@ -5974,7 +5984,7 @@
     </row>
     <row r="44" spans="1:41" ht="15.75" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="7">
         <v>0</v>
@@ -6010,19 +6020,19 @@
         <v>0</v>
       </c>
       <c r="M44" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="N44" s="16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
       </c>
       <c r="O44" s="7">
         <v>0</v>
       </c>
       <c r="P44" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R44" s="7">
         <v>0</v>
@@ -6039,11 +6049,11 @@
       <c r="V44" s="7">
         <v>0</v>
       </c>
-      <c r="W44" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="X44" s="16">
-        <v>2</v>
+      <c r="W44" s="7">
+        <v>0</v>
+      </c>
+      <c r="X44" s="7">
+        <v>0</v>
       </c>
       <c r="Y44" s="7">
         <v>0</v>
@@ -6052,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="7">
         <v>0</v>
@@ -6060,7 +6070,7 @@
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="7">
         <v>0</v>
@@ -6074,11 +6084,11 @@
       <c r="AI44" s="7">
         <v>0</v>
       </c>
-      <c r="AJ44" s="17">
-        <v>8</v>
+      <c r="AJ44" s="7">
+        <v>0</v>
       </c>
       <c r="AK44" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="7">
         <v>0</v>
@@ -6095,7 +6105,7 @@
     </row>
     <row r="45" spans="1:41" ht="15.75" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="7">
         <v>0</v>
@@ -6131,19 +6141,19 @@
         <v>0</v>
       </c>
       <c r="M45" s="11">
-        <v>0.17</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="N45" s="16">
+        <v>1</v>
       </c>
       <c r="O45" s="7">
         <v>0</v>
       </c>
       <c r="P45" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R45" s="7">
         <v>0</v>
@@ -6160,11 +6170,11 @@
       <c r="V45" s="7">
         <v>0</v>
       </c>
-      <c r="W45" s="16">
-        <v>0</v>
-      </c>
-      <c r="X45" s="11">
-        <v>0</v>
+      <c r="W45" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="X45" s="16">
+        <v>2</v>
       </c>
       <c r="Y45" s="7">
         <v>0</v>
@@ -6173,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" s="7">
         <v>0</v>
@@ -6181,7 +6191,7 @@
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF45" s="7">
         <v>0</v>
@@ -6196,10 +6206,10 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK45" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL45" s="7">
         <v>0</v>
@@ -6216,7 +6226,7 @@
     </row>
     <row r="46" spans="1:41" ht="15.75" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="7">
         <v>0</v>
@@ -6252,19 +6262,19 @@
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="N46" s="16">
-        <v>1</v>
+        <v>0.17</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
       </c>
       <c r="O46" s="7">
         <v>0</v>
       </c>
       <c r="P46" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q46" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R46" s="7">
         <v>0</v>
@@ -6281,11 +6291,11 @@
       <c r="V46" s="7">
         <v>0</v>
       </c>
-      <c r="W46" s="7">
-        <v>0</v>
-      </c>
-      <c r="X46" s="16">
-        <v>2</v>
+      <c r="W46" s="16">
+        <v>0</v>
+      </c>
+      <c r="X46" s="11">
+        <v>0</v>
       </c>
       <c r="Y46" s="7">
         <v>0</v>
@@ -6294,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="7">
         <v>0</v>
@@ -6302,7 +6312,7 @@
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="AF46" s="7">
         <v>0</v>
@@ -6317,10 +6327,10 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK46" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL46" s="7">
         <v>0</v>
@@ -6337,7 +6347,7 @@
     </row>
     <row r="47" spans="1:41" ht="15.75" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="7">
         <v>0</v>
@@ -6373,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="11">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N47" s="16">
         <v>1</v>
@@ -6402,8 +6412,8 @@
       <c r="V47" s="7">
         <v>0</v>
       </c>
-      <c r="W47" s="16">
-        <v>0.5</v>
+      <c r="W47" s="7">
+        <v>0</v>
       </c>
       <c r="X47" s="16">
         <v>2</v>
@@ -6423,7 +6433,7 @@
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
       <c r="AE47" s="7">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF47" s="7">
         <v>0</v>
@@ -6458,7 +6468,7 @@
     </row>
     <row r="48" spans="1:41" ht="15.75" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7">
         <v>0</v>
@@ -6493,8 +6503,8 @@
       <c r="L48" s="7">
         <v>0</v>
       </c>
-      <c r="M48" s="16">
-        <v>0</v>
+      <c r="M48" s="11">
+        <v>0.25</v>
       </c>
       <c r="N48" s="16">
         <v>1</v>
@@ -6523,8 +6533,8 @@
       <c r="V48" s="7">
         <v>0</v>
       </c>
-      <c r="W48" s="7">
-        <v>0.75</v>
+      <c r="W48" s="16">
+        <v>0.5</v>
       </c>
       <c r="X48" s="16">
         <v>2</v>
@@ -6544,7 +6554,7 @@
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
       <c r="AE48" s="7">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF48" s="7">
         <v>0</v>
@@ -6579,7 +6589,7 @@
     </row>
     <row r="49" spans="1:41" ht="15.75" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7">
         <v>0</v>
@@ -6614,20 +6624,20 @@
       <c r="L49" s="7">
         <v>0</v>
       </c>
-      <c r="M49" s="11">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
+      <c r="M49" s="16">
+        <v>0</v>
+      </c>
+      <c r="N49" s="16">
+        <v>1</v>
       </c>
       <c r="O49" s="7">
         <v>0</v>
       </c>
       <c r="P49" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R49" s="7">
         <v>0</v>
@@ -6645,10 +6655,10 @@
         <v>0</v>
       </c>
       <c r="W49" s="7">
-        <v>0</v>
-      </c>
-      <c r="X49" s="7">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="X49" s="16">
+        <v>2</v>
       </c>
       <c r="Y49" s="7">
         <v>0</v>
@@ -6657,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49" s="7">
         <v>0</v>
@@ -6665,7 +6675,7 @@
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
       <c r="AE49" s="7">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AF49" s="7">
         <v>0</v>
@@ -6679,11 +6689,11 @@
       <c r="AI49" s="7">
         <v>0</v>
       </c>
-      <c r="AJ49" s="7">
-        <v>0</v>
+      <c r="AJ49" s="17">
+        <v>8</v>
       </c>
       <c r="AK49" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL49" s="7">
         <v>0</v>
@@ -6700,7 +6710,7 @@
     </row>
     <row r="50" spans="1:41" ht="15.75" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="7">
         <v>0</v>
@@ -6821,7 +6831,7 @@
     </row>
     <row r="51" spans="1:41" ht="15.75" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="7">
         <v>0</v>
@@ -6857,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="11">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
         <v>0</v>
@@ -6886,14 +6896,14 @@
       <c r="V51" s="7">
         <v>0</v>
       </c>
-      <c r="W51" s="16">
-        <v>0.5</v>
+      <c r="W51" s="7">
+        <v>0</v>
       </c>
       <c r="X51" s="7">
         <v>0</v>
       </c>
       <c r="Y51" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="7">
         <v>0</v>
@@ -6942,7 +6952,7 @@
     </row>
     <row r="52" spans="1:41" ht="15.75" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="7">
         <v>0</v>
@@ -6977,8 +6987,8 @@
       <c r="L52" s="7">
         <v>0</v>
       </c>
-      <c r="M52" s="16">
-        <v>0</v>
+      <c r="M52" s="11">
+        <v>0.17</v>
       </c>
       <c r="N52" s="7">
         <v>0</v>
@@ -7007,14 +7017,14 @@
       <c r="V52" s="7">
         <v>0</v>
       </c>
-      <c r="W52" s="7">
-        <v>1.25</v>
+      <c r="W52" s="16">
+        <v>0.5</v>
       </c>
       <c r="X52" s="7">
         <v>0</v>
       </c>
       <c r="Y52" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Z52" s="7">
         <v>0</v>
@@ -7061,10 +7071,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="15" thickBot="1"/>
-    <row r="58" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A58" s="21"/>
-    </row>
+    <row r="53" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+      <c r="M53" s="16">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>0</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+      <c r="S53" s="7">
+        <v>0</v>
+      </c>
+      <c r="T53" s="7">
+        <v>0</v>
+      </c>
+      <c r="U53" s="7">
+        <v>0</v>
+      </c>
+      <c r="V53" s="7">
+        <v>0</v>
+      </c>
+      <c r="W53" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="X53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" ht="15" thickBot="1"/>
     <row r="59" spans="1:41" ht="15.75" thickBot="1">
       <c r="A59" s="21"/>
     </row>
@@ -7083,2813 +7211,3714 @@
     <row r="64" spans="1:41" ht="15.75" thickBot="1">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1">
       <c r="A65" s="21"/>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C65" s="21"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1">
       <c r="A66" s="21"/>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C66" s="21"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1">
       <c r="A67" s="21"/>
-    </row>
-    <row r="68" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C67" s="21"/>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1">
       <c r="A68" s="21"/>
-    </row>
-    <row r="69" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C68" s="21"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1">
       <c r="A69" s="21"/>
-    </row>
-    <row r="70" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C69" s="21"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1">
       <c r="A70" s="21"/>
-    </row>
-    <row r="71" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C70" s="21"/>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1">
       <c r="A71" s="21"/>
-    </row>
-    <row r="72" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C71" s="21"/>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1">
       <c r="A72" s="21"/>
-    </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C72" s="21"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1">
       <c r="A73" s="21"/>
-    </row>
-    <row r="74" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C73" s="21"/>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1">
       <c r="A74" s="21"/>
-    </row>
-    <row r="75" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C74" s="21"/>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1">
       <c r="A75" s="21"/>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C75" s="21"/>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1">
       <c r="A76" s="21"/>
-    </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C76" s="21"/>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1">
       <c r="A77" s="21"/>
-    </row>
-    <row r="78" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C77" s="21"/>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" thickBot="1">
       <c r="A78" s="21"/>
-    </row>
-    <row r="79" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C78" s="21"/>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1">
       <c r="A79" s="21"/>
-    </row>
-    <row r="80" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C79" s="21"/>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" thickBot="1">
       <c r="A80" s="21"/>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C80" s="21"/>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1">
       <c r="A81" s="21"/>
-    </row>
-    <row r="82" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C81" s="21"/>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" thickBot="1">
       <c r="A82" s="21"/>
-    </row>
-    <row r="83" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C82" s="21"/>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" thickBot="1">
       <c r="A83" s="21"/>
-    </row>
-    <row r="84" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" thickBot="1">
       <c r="A84" s="21"/>
-    </row>
-    <row r="85" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C84" s="21"/>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" thickBot="1">
       <c r="A85" s="21"/>
-    </row>
-    <row r="86" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C85" s="21"/>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1">
       <c r="A86" s="21"/>
-    </row>
-    <row r="87" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C86" s="21"/>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" thickBot="1">
       <c r="A87" s="21"/>
-    </row>
-    <row r="88" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C87" s="21"/>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" thickBot="1">
       <c r="A88" s="21"/>
-    </row>
-    <row r="89" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C88" s="21"/>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" thickBot="1">
       <c r="A89" s="21"/>
-    </row>
-    <row r="90" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C89" s="21"/>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" thickBot="1">
       <c r="A90" s="21"/>
-    </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C90" s="21"/>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" thickBot="1">
       <c r="A91" s="21"/>
-    </row>
-    <row r="92" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C91" s="21"/>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" thickBot="1">
       <c r="A92" s="21"/>
-    </row>
-    <row r="93" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" thickBot="1">
       <c r="A93" s="21"/>
-    </row>
-    <row r="94" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C93" s="21"/>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" thickBot="1">
       <c r="A94" s="21"/>
-    </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C94" s="21"/>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" thickBot="1">
       <c r="A95" s="21"/>
-    </row>
-    <row r="96" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C95" s="21"/>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" thickBot="1">
       <c r="A96" s="21"/>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C96" s="21"/>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" thickBot="1">
       <c r="A97" s="21"/>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C97" s="21"/>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" thickBot="1">
       <c r="A98" s="21"/>
-    </row>
-    <row r="99" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C98" s="21"/>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" thickBot="1">
       <c r="A99" s="21"/>
-    </row>
-    <row r="100" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C99" s="21"/>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" thickBot="1">
       <c r="A100" s="21"/>
-    </row>
-    <row r="101" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C100" s="21"/>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" thickBot="1">
       <c r="A101" s="21"/>
-    </row>
-    <row r="102" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C101" s="21"/>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" thickBot="1">
       <c r="A102" s="21"/>
-    </row>
-    <row r="103" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C102" s="21"/>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" thickBot="1">
       <c r="A103" s="21"/>
-    </row>
-    <row r="104" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C103" s="21"/>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" thickBot="1">
       <c r="A104" s="21"/>
-    </row>
-    <row r="105" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C104" s="21"/>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" thickBot="1">
       <c r="A105" s="21"/>
-    </row>
-    <row r="106" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C105" s="21"/>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" thickBot="1">
       <c r="A106" s="21"/>
-    </row>
-    <row r="107" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C106" s="21"/>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" thickBot="1">
       <c r="A107" s="21"/>
-    </row>
-    <row r="108" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C107" s="21"/>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" thickBot="1">
       <c r="A108" s="21"/>
-    </row>
-    <row r="109" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C108" s="21"/>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" thickBot="1">
       <c r="A109" s="21"/>
-    </row>
-    <row r="110" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C109" s="21"/>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" thickBot="1">
       <c r="A110" s="21"/>
-    </row>
-    <row r="111" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C110" s="21"/>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" thickBot="1">
       <c r="A111" s="21"/>
-    </row>
-    <row r="112" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C111" s="21"/>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" thickBot="1">
       <c r="A112" s="21"/>
-    </row>
-    <row r="113" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C112" s="21"/>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" thickBot="1">
       <c r="A113" s="21"/>
-    </row>
-    <row r="114" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C113" s="21"/>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" thickBot="1">
       <c r="A114" s="21"/>
-    </row>
-    <row r="115" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C114" s="21"/>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" thickBot="1">
       <c r="A115" s="21"/>
-    </row>
-    <row r="116" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C115" s="21"/>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" thickBot="1">
       <c r="A116" s="21"/>
-    </row>
-    <row r="117" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C116" s="21"/>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" thickBot="1">
       <c r="A117" s="21"/>
-    </row>
-    <row r="118" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C117" s="21"/>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" thickBot="1">
       <c r="A118" s="21"/>
-    </row>
-    <row r="119" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C118" s="21"/>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" thickBot="1">
       <c r="A119" s="21"/>
-    </row>
-    <row r="120" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C119" s="21"/>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" thickBot="1">
       <c r="A120" s="21"/>
-    </row>
-    <row r="121" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C120" s="21"/>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" thickBot="1">
       <c r="A121" s="21"/>
-    </row>
-    <row r="122" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C121" s="21"/>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" thickBot="1">
       <c r="A122" s="21"/>
-    </row>
-    <row r="123" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C122" s="21"/>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" thickBot="1">
       <c r="A123" s="21"/>
-    </row>
-    <row r="124" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C123" s="21"/>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" thickBot="1">
       <c r="A124" s="21"/>
-    </row>
-    <row r="125" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C124" s="21"/>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" thickBot="1">
       <c r="A125" s="21"/>
-    </row>
-    <row r="126" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C125" s="21"/>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" thickBot="1">
       <c r="A126" s="21"/>
-    </row>
-    <row r="127" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C126" s="21"/>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" thickBot="1">
       <c r="A127" s="21"/>
-    </row>
-    <row r="128" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C127" s="21"/>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" thickBot="1">
       <c r="A128" s="21"/>
-    </row>
-    <row r="129" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C128" s="21"/>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" thickBot="1">
       <c r="A129" s="21"/>
-    </row>
-    <row r="130" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C129" s="21"/>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" thickBot="1">
       <c r="A130" s="21"/>
-    </row>
-    <row r="131" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C130" s="21"/>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" thickBot="1">
       <c r="A131" s="21"/>
-    </row>
-    <row r="132" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C131" s="21"/>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" thickBot="1">
       <c r="A132" s="21"/>
-    </row>
-    <row r="133" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C132" s="21"/>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" thickBot="1">
       <c r="A133" s="21"/>
-    </row>
-    <row r="134" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C133" s="21"/>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" thickBot="1">
       <c r="A134" s="21"/>
-    </row>
-    <row r="135" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C134" s="21"/>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" thickBot="1">
       <c r="A135" s="21"/>
-    </row>
-    <row r="136" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C135" s="21"/>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" thickBot="1">
       <c r="A136" s="21"/>
-    </row>
-    <row r="137" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C136" s="21"/>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" thickBot="1">
       <c r="A137" s="21"/>
-    </row>
-    <row r="138" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C137" s="21"/>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" thickBot="1">
       <c r="A138" s="21"/>
-    </row>
-    <row r="139" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C138" s="21"/>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" thickBot="1">
       <c r="A139" s="21"/>
-    </row>
-    <row r="140" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C139" s="21"/>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" thickBot="1">
       <c r="A140" s="21"/>
-    </row>
-    <row r="141" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C140" s="21"/>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" thickBot="1">
       <c r="A141" s="21"/>
-    </row>
-    <row r="142" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C141" s="21"/>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" thickBot="1">
       <c r="A142" s="21"/>
-    </row>
-    <row r="143" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C142" s="21"/>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" thickBot="1">
       <c r="A143" s="21"/>
-    </row>
-    <row r="144" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C143" s="21"/>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" thickBot="1">
       <c r="A144" s="21"/>
-    </row>
-    <row r="145" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C144" s="21"/>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" thickBot="1">
       <c r="A145" s="21"/>
-    </row>
-    <row r="146" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C145" s="21"/>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" thickBot="1">
       <c r="A146" s="21"/>
-    </row>
-    <row r="147" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C146" s="21"/>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" thickBot="1">
       <c r="A147" s="21"/>
-    </row>
-    <row r="148" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C147" s="21"/>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" thickBot="1">
       <c r="A148" s="21"/>
-    </row>
-    <row r="149" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C148" s="21"/>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" thickBot="1">
       <c r="A149" s="21"/>
-    </row>
-    <row r="150" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C149" s="21"/>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" thickBot="1">
       <c r="A150" s="21"/>
-    </row>
-    <row r="151" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C150" s="21"/>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" thickBot="1">
       <c r="A151" s="21"/>
-    </row>
-    <row r="152" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C151" s="21"/>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" thickBot="1">
       <c r="A152" s="21"/>
-    </row>
-    <row r="153" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C152" s="21"/>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" thickBot="1">
       <c r="A153" s="21"/>
-    </row>
-    <row r="154" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C153" s="21"/>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" thickBot="1">
       <c r="A154" s="21"/>
-    </row>
-    <row r="155" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C154" s="21"/>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" thickBot="1">
       <c r="A155" s="21"/>
-    </row>
-    <row r="156" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C155" s="21"/>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" thickBot="1">
       <c r="A156" s="21"/>
-    </row>
-    <row r="157" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C156" s="21"/>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" thickBot="1">
       <c r="A157" s="21"/>
-    </row>
-    <row r="158" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C157" s="21"/>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" thickBot="1">
       <c r="A158" s="21"/>
-    </row>
-    <row r="159" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C158" s="21"/>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" thickBot="1">
       <c r="A159" s="21"/>
-    </row>
-    <row r="160" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A160" s="21"/>
-    </row>
-    <row r="161" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A161" s="21"/>
-    </row>
-    <row r="162" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A162" s="21"/>
-    </row>
-    <row r="163" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A163" s="21"/>
-    </row>
-    <row r="164" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A164" s="21"/>
-    </row>
-    <row r="165" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A165" s="21"/>
-    </row>
-    <row r="166" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A166" s="21"/>
-    </row>
-    <row r="167" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A167" s="21"/>
-    </row>
-    <row r="168" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A168" s="21"/>
-    </row>
-    <row r="169" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A169" s="21"/>
-    </row>
-    <row r="170" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A170" s="21"/>
-    </row>
-    <row r="171" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A171" s="21"/>
-    </row>
-    <row r="172" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A172" s="21"/>
-    </row>
-    <row r="173" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A173" s="21"/>
-    </row>
-    <row r="174" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A174" s="21"/>
-    </row>
-    <row r="175" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A175" s="21"/>
-    </row>
-    <row r="176" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A176" s="21"/>
-    </row>
-    <row r="177" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A177" s="21"/>
-    </row>
-    <row r="178" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A178" s="21"/>
-    </row>
-    <row r="179" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A179" s="21"/>
-    </row>
-    <row r="180" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A180" s="21"/>
-    </row>
-    <row r="181" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A181" s="21"/>
-    </row>
-    <row r="182" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A182" s="21"/>
-    </row>
-    <row r="183" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A183" s="21"/>
-    </row>
-    <row r="184" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A184" s="21"/>
-    </row>
-    <row r="185" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A185" s="21"/>
-    </row>
-    <row r="186" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A186" s="21"/>
-    </row>
-    <row r="187" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A187" s="21"/>
-    </row>
-    <row r="188" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A188" s="21"/>
-    </row>
-    <row r="189" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A189" s="21"/>
-    </row>
-    <row r="190" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A190" s="21"/>
-    </row>
-    <row r="191" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A191" s="21"/>
-    </row>
-    <row r="192" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A192" s="21"/>
-    </row>
-    <row r="193" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A193" s="21"/>
-    </row>
-    <row r="194" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A194" s="21"/>
-    </row>
-    <row r="195" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A195" s="21"/>
-    </row>
-    <row r="196" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A196" s="21"/>
-    </row>
-    <row r="197" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A197" s="21"/>
-    </row>
-    <row r="198" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A198" s="21"/>
-    </row>
-    <row r="199" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A199" s="21"/>
-    </row>
-    <row r="200" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A200" s="21"/>
-    </row>
-    <row r="201" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A201" s="21"/>
-    </row>
-    <row r="202" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A202" s="21"/>
-    </row>
-    <row r="203" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A203" s="21"/>
-    </row>
-    <row r="204" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A204" s="21"/>
-    </row>
-    <row r="205" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A205" s="21"/>
-    </row>
-    <row r="206" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A206" s="21"/>
-    </row>
-    <row r="207" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A207" s="21"/>
-    </row>
-    <row r="208" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A208" s="21"/>
-    </row>
-    <row r="209" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A209" s="21"/>
-    </row>
-    <row r="210" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A210" s="21"/>
-    </row>
-    <row r="211" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A211" s="21"/>
-    </row>
-    <row r="212" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A212" s="21"/>
-    </row>
-    <row r="213" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A213" s="21"/>
-    </row>
-    <row r="214" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A214" s="21"/>
-    </row>
-    <row r="215" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A215" s="21"/>
-    </row>
-    <row r="216" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C159" s="21"/>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A160" s="22"/>
+      <c r="C160" s="21"/>
+    </row>
+    <row r="161" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A161" s="22"/>
+      <c r="C161" s="21"/>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A162" s="22"/>
+      <c r="C162" s="21"/>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A163" s="22"/>
+      <c r="C163" s="21"/>
+    </row>
+    <row r="164" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A164" s="22"/>
+      <c r="C164" s="21"/>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A165" s="22"/>
+      <c r="C165" s="21"/>
+    </row>
+    <row r="166" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A166" s="22"/>
+      <c r="C166" s="21"/>
+    </row>
+    <row r="167" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A167" s="22"/>
+      <c r="C167" s="21"/>
+    </row>
+    <row r="168" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A168" s="22"/>
+      <c r="C168" s="21"/>
+    </row>
+    <row r="169" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A169" s="22"/>
+      <c r="C169" s="21"/>
+    </row>
+    <row r="170" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A170" s="22"/>
+      <c r="C170" s="21"/>
+    </row>
+    <row r="171" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A171" s="22"/>
+      <c r="C171" s="21"/>
+    </row>
+    <row r="172" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A172" s="22"/>
+      <c r="C172" s="21"/>
+    </row>
+    <row r="173" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A173" s="22"/>
+      <c r="C173" s="21"/>
+    </row>
+    <row r="174" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A174" s="22"/>
+      <c r="C174" s="21"/>
+    </row>
+    <row r="175" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A175" s="22"/>
+      <c r="C175" s="21"/>
+    </row>
+    <row r="176" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A176" s="22"/>
+      <c r="C176" s="21"/>
+    </row>
+    <row r="177" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A177" s="22"/>
+      <c r="C177" s="21"/>
+    </row>
+    <row r="178" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A178" s="22"/>
+      <c r="C178" s="21"/>
+    </row>
+    <row r="179" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A179" s="22"/>
+      <c r="C179" s="21"/>
+    </row>
+    <row r="180" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A180" s="22"/>
+      <c r="C180" s="21"/>
+    </row>
+    <row r="181" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A181" s="22"/>
+      <c r="C181" s="21"/>
+    </row>
+    <row r="182" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A182" s="22"/>
+      <c r="C182" s="22"/>
+    </row>
+    <row r="183" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A183" s="22"/>
+      <c r="C183" s="22"/>
+    </row>
+    <row r="184" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A184" s="22"/>
+      <c r="C184" s="22"/>
+    </row>
+    <row r="185" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A185" s="22"/>
+      <c r="C185" s="22"/>
+    </row>
+    <row r="186" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A186" s="22"/>
+      <c r="C186" s="22"/>
+    </row>
+    <row r="187" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A187" s="22"/>
+      <c r="C187" s="22"/>
+    </row>
+    <row r="188" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A188" s="22"/>
+      <c r="C188" s="22"/>
+    </row>
+    <row r="189" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A189" s="22"/>
+      <c r="C189" s="22"/>
+    </row>
+    <row r="190" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A190" s="22"/>
+      <c r="C190" s="22"/>
+    </row>
+    <row r="191" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A191" s="22"/>
+      <c r="C191" s="22"/>
+    </row>
+    <row r="192" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A192" s="22"/>
+      <c r="C192" s="22"/>
+    </row>
+    <row r="193" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A193" s="22"/>
+      <c r="C193" s="22"/>
+    </row>
+    <row r="194" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A194" s="22"/>
+      <c r="C194" s="22"/>
+    </row>
+    <row r="195" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A195" s="22"/>
+      <c r="C195" s="22"/>
+    </row>
+    <row r="196" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A196" s="22"/>
+      <c r="C196" s="22"/>
+    </row>
+    <row r="197" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A197" s="22"/>
+      <c r="C197" s="22"/>
+    </row>
+    <row r="198" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A198" s="22"/>
+      <c r="C198" s="22"/>
+    </row>
+    <row r="199" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A199" s="22"/>
+      <c r="C199" s="22"/>
+    </row>
+    <row r="200" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A200" s="22"/>
+      <c r="C200" s="22"/>
+    </row>
+    <row r="201" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A201" s="22"/>
+      <c r="C201" s="22"/>
+    </row>
+    <row r="202" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A202" s="22"/>
+      <c r="C202" s="22"/>
+    </row>
+    <row r="203" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A203" s="22"/>
+      <c r="C203" s="22"/>
+    </row>
+    <row r="204" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A204" s="22"/>
+      <c r="C204" s="22"/>
+    </row>
+    <row r="205" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A205" s="22"/>
+      <c r="C205" s="22"/>
+    </row>
+    <row r="206" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A206" s="22"/>
+      <c r="C206" s="22"/>
+    </row>
+    <row r="207" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A207" s="22"/>
+      <c r="C207" s="22"/>
+    </row>
+    <row r="208" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A208" s="22"/>
+      <c r="C208" s="22"/>
+    </row>
+    <row r="209" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A209" s="22"/>
+      <c r="C209" s="22"/>
+    </row>
+    <row r="210" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A210" s="22"/>
+      <c r="C210" s="22"/>
+    </row>
+    <row r="211" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A211" s="22"/>
+      <c r="C211" s="22"/>
+    </row>
+    <row r="212" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A212" s="22"/>
+      <c r="C212" s="22"/>
+    </row>
+    <row r="213" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A213" s="22"/>
+      <c r="C213" s="22"/>
+    </row>
+    <row r="214" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A214" s="22"/>
+      <c r="C214" s="22"/>
+    </row>
+    <row r="215" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A215" s="22"/>
+      <c r="C215" s="22"/>
+    </row>
+    <row r="216" spans="1:3" ht="15.75" thickBot="1">
       <c r="A216" s="22"/>
-    </row>
-    <row r="217" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C216" s="22"/>
+    </row>
+    <row r="217" spans="1:3" ht="15.75" thickBot="1">
       <c r="A217" s="22"/>
-    </row>
-    <row r="218" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C217" s="22"/>
+    </row>
+    <row r="218" spans="1:3" ht="15.75" thickBot="1">
       <c r="A218" s="22"/>
-    </row>
-    <row r="219" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C218" s="22"/>
+    </row>
+    <row r="219" spans="1:3" ht="15.75" thickBot="1">
       <c r="A219" s="22"/>
-    </row>
-    <row r="220" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C219" s="22"/>
+    </row>
+    <row r="220" spans="1:3" ht="15.75" thickBot="1">
       <c r="A220" s="22"/>
-    </row>
-    <row r="221" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C220" s="22"/>
+    </row>
+    <row r="221" spans="1:3" ht="15.75" thickBot="1">
       <c r="A221" s="22"/>
-    </row>
-    <row r="222" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C221" s="22"/>
+    </row>
+    <row r="222" spans="1:3" ht="15.75" thickBot="1">
       <c r="A222" s="22"/>
-    </row>
-    <row r="223" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C222" s="22"/>
+    </row>
+    <row r="223" spans="1:3" ht="15.75" thickBot="1">
       <c r="A223" s="22"/>
-    </row>
-    <row r="224" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C223" s="22"/>
+    </row>
+    <row r="224" spans="1:3" ht="15.75" thickBot="1">
       <c r="A224" s="22"/>
-    </row>
-    <row r="225" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C224" s="22"/>
+    </row>
+    <row r="225" spans="1:3" ht="15.75" thickBot="1">
       <c r="A225" s="22"/>
-    </row>
-    <row r="226" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C225" s="22"/>
+    </row>
+    <row r="226" spans="1:3" ht="15.75" thickBot="1">
       <c r="A226" s="22"/>
-    </row>
-    <row r="227" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C226" s="22"/>
+    </row>
+    <row r="227" spans="1:3" ht="15.75" thickBot="1">
       <c r="A227" s="22"/>
-    </row>
-    <row r="228" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C227" s="22"/>
+    </row>
+    <row r="228" spans="1:3" ht="15.75" thickBot="1">
       <c r="A228" s="22"/>
-    </row>
-    <row r="229" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C228" s="22"/>
+    </row>
+    <row r="229" spans="1:3" ht="15.75" thickBot="1">
       <c r="A229" s="22"/>
-    </row>
-    <row r="230" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C229" s="22"/>
+    </row>
+    <row r="230" spans="1:3" ht="15.75" thickBot="1">
       <c r="A230" s="22"/>
-    </row>
-    <row r="231" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C230" s="22"/>
+    </row>
+    <row r="231" spans="1:3" ht="15.75" thickBot="1">
       <c r="A231" s="22"/>
-    </row>
-    <row r="232" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C231" s="22"/>
+    </row>
+    <row r="232" spans="1:3" ht="15.75" thickBot="1">
       <c r="A232" s="22"/>
-    </row>
-    <row r="233" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C232" s="22"/>
+    </row>
+    <row r="233" spans="1:3" ht="15.75" thickBot="1">
       <c r="A233" s="22"/>
-    </row>
-    <row r="234" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C233" s="22"/>
+    </row>
+    <row r="234" spans="1:3" ht="15.75" thickBot="1">
       <c r="A234" s="22"/>
-    </row>
-    <row r="235" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C234" s="22"/>
+    </row>
+    <row r="235" spans="1:3" ht="15.75" thickBot="1">
       <c r="A235" s="22"/>
-    </row>
-    <row r="236" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C235" s="22"/>
+    </row>
+    <row r="236" spans="1:3" ht="15.75" thickBot="1">
       <c r="A236" s="22"/>
-    </row>
-    <row r="237" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C236" s="22"/>
+    </row>
+    <row r="237" spans="1:3" ht="15.75" thickBot="1">
       <c r="A237" s="22"/>
-    </row>
-    <row r="238" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C237" s="22"/>
+    </row>
+    <row r="238" spans="1:3" ht="15.75" thickBot="1">
       <c r="A238" s="22"/>
-    </row>
-    <row r="239" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C238" s="22"/>
+    </row>
+    <row r="239" spans="1:3" ht="15.75" thickBot="1">
       <c r="A239" s="22"/>
-    </row>
-    <row r="240" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C239" s="22"/>
+    </row>
+    <row r="240" spans="1:3" ht="15.75" thickBot="1">
       <c r="A240" s="22"/>
-    </row>
-    <row r="241" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C240" s="22"/>
+    </row>
+    <row r="241" spans="1:3" ht="15.75" thickBot="1">
       <c r="A241" s="22"/>
-    </row>
-    <row r="242" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C241" s="22"/>
+    </row>
+    <row r="242" spans="1:3" ht="15.75" thickBot="1">
       <c r="A242" s="22"/>
-    </row>
-    <row r="243" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C242" s="22"/>
+    </row>
+    <row r="243" spans="1:3" ht="15.75" thickBot="1">
       <c r="A243" s="22"/>
-    </row>
-    <row r="244" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C243" s="22"/>
+    </row>
+    <row r="244" spans="1:3" ht="15.75" thickBot="1">
       <c r="A244" s="22"/>
-    </row>
-    <row r="245" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C244" s="22"/>
+    </row>
+    <row r="245" spans="1:3" ht="15.75" thickBot="1">
       <c r="A245" s="22"/>
-    </row>
-    <row r="246" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C245" s="22"/>
+    </row>
+    <row r="246" spans="1:3" ht="15.75" thickBot="1">
       <c r="A246" s="22"/>
-    </row>
-    <row r="247" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C246" s="22"/>
+    </row>
+    <row r="247" spans="1:3" ht="15.75" thickBot="1">
       <c r="A247" s="22"/>
-    </row>
-    <row r="248" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C247" s="22"/>
+    </row>
+    <row r="248" spans="1:3" ht="15.75" thickBot="1">
       <c r="A248" s="22"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C248" s="22"/>
+    </row>
+    <row r="249" spans="1:3" ht="15.75" thickBot="1">
       <c r="A249" s="22"/>
-    </row>
-    <row r="250" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C249" s="22"/>
+    </row>
+    <row r="250" spans="1:3" ht="15.75" thickBot="1">
       <c r="A250" s="22"/>
-    </row>
-    <row r="251" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C250" s="22"/>
+    </row>
+    <row r="251" spans="1:3" ht="15.75" thickBot="1">
       <c r="A251" s="22"/>
-    </row>
-    <row r="252" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C251" s="22"/>
+    </row>
+    <row r="252" spans="1:3" ht="15.75" thickBot="1">
       <c r="A252" s="22"/>
-    </row>
-    <row r="253" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C252" s="22"/>
+    </row>
+    <row r="253" spans="1:3" ht="15.75" thickBot="1">
       <c r="A253" s="22"/>
-    </row>
-    <row r="254" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C253" s="22"/>
+    </row>
+    <row r="254" spans="1:3" ht="15.75" thickBot="1">
       <c r="A254" s="22"/>
-    </row>
-    <row r="255" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C254" s="22"/>
+    </row>
+    <row r="255" spans="1:3" ht="15.75" thickBot="1">
       <c r="A255" s="22"/>
-    </row>
-    <row r="256" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C255" s="22"/>
+    </row>
+    <row r="256" spans="1:3" ht="15.75" thickBot="1">
       <c r="A256" s="22"/>
-    </row>
-    <row r="257" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C256" s="22"/>
+    </row>
+    <row r="257" spans="1:3" ht="15.75" thickBot="1">
       <c r="A257" s="22"/>
-    </row>
-    <row r="258" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C257" s="22"/>
+    </row>
+    <row r="258" spans="1:3" ht="15.75" thickBot="1">
       <c r="A258" s="22"/>
-    </row>
-    <row r="259" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C258" s="22"/>
+    </row>
+    <row r="259" spans="1:3" ht="15.75" thickBot="1">
       <c r="A259" s="22"/>
-    </row>
-    <row r="260" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C259" s="22"/>
+    </row>
+    <row r="260" spans="1:3" ht="15.75" thickBot="1">
       <c r="A260" s="22"/>
-    </row>
-    <row r="261" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C260" s="22"/>
+    </row>
+    <row r="261" spans="1:3" ht="15.75" thickBot="1">
       <c r="A261" s="22"/>
-    </row>
-    <row r="262" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C261" s="22"/>
+    </row>
+    <row r="262" spans="1:3" ht="15.75" thickBot="1">
       <c r="A262" s="22"/>
-    </row>
-    <row r="263" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C262" s="22"/>
+    </row>
+    <row r="263" spans="1:3" ht="15.75" thickBot="1">
       <c r="A263" s="22"/>
-    </row>
-    <row r="264" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C263" s="22"/>
+    </row>
+    <row r="264" spans="1:3" ht="15.75" thickBot="1">
       <c r="A264" s="22"/>
-    </row>
-    <row r="265" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C264" s="22"/>
+    </row>
+    <row r="265" spans="1:3" ht="15.75" thickBot="1">
       <c r="A265" s="22"/>
-    </row>
-    <row r="266" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C265" s="22"/>
+    </row>
+    <row r="266" spans="1:3" ht="15.75" thickBot="1">
       <c r="A266" s="22"/>
-    </row>
-    <row r="267" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C266" s="22"/>
+    </row>
+    <row r="267" spans="1:3" ht="15.75" thickBot="1">
       <c r="A267" s="22"/>
-    </row>
-    <row r="268" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C267" s="22"/>
+    </row>
+    <row r="268" spans="1:3" ht="15.75" thickBot="1">
       <c r="A268" s="22"/>
-    </row>
-    <row r="269" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C268" s="22"/>
+    </row>
+    <row r="269" spans="1:3" ht="15.75" thickBot="1">
       <c r="A269" s="22"/>
-    </row>
-    <row r="270" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C269" s="22"/>
+    </row>
+    <row r="270" spans="1:3" ht="15.75" thickBot="1">
       <c r="A270" s="22"/>
-    </row>
-    <row r="271" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C270" s="22"/>
+    </row>
+    <row r="271" spans="1:3" ht="15.75" thickBot="1">
       <c r="A271" s="22"/>
-    </row>
-    <row r="272" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C271" s="22"/>
+    </row>
+    <row r="272" spans="1:3" ht="15.75" thickBot="1">
       <c r="A272" s="22"/>
-    </row>
-    <row r="273" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C272" s="22"/>
+    </row>
+    <row r="273" spans="1:3" ht="15.75" thickBot="1">
       <c r="A273" s="22"/>
-    </row>
-    <row r="274" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C273" s="22"/>
+    </row>
+    <row r="274" spans="1:3" ht="15.75" thickBot="1">
       <c r="A274" s="22"/>
-    </row>
-    <row r="275" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C274" s="22"/>
+    </row>
+    <row r="275" spans="1:3" ht="15.75" thickBot="1">
       <c r="A275" s="22"/>
-    </row>
-    <row r="276" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C275" s="22"/>
+    </row>
+    <row r="276" spans="1:3" ht="15.75" thickBot="1">
       <c r="A276" s="22"/>
-    </row>
-    <row r="277" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C276" s="22"/>
+    </row>
+    <row r="277" spans="1:3" ht="15.75" thickBot="1">
       <c r="A277" s="22"/>
-    </row>
-    <row r="278" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C277" s="22"/>
+    </row>
+    <row r="278" spans="1:3" ht="15.75" thickBot="1">
       <c r="A278" s="22"/>
-    </row>
-    <row r="279" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C278" s="22"/>
+    </row>
+    <row r="279" spans="1:3" ht="15.75" thickBot="1">
       <c r="A279" s="22"/>
-    </row>
-    <row r="280" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C279" s="22"/>
+    </row>
+    <row r="280" spans="1:3" ht="15.75" thickBot="1">
       <c r="A280" s="22"/>
-    </row>
-    <row r="281" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C280" s="22"/>
+    </row>
+    <row r="281" spans="1:3" ht="15.75" thickBot="1">
       <c r="A281" s="22"/>
-    </row>
-    <row r="282" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C281" s="22"/>
+    </row>
+    <row r="282" spans="1:3" ht="15.75" thickBot="1">
       <c r="A282" s="22"/>
-    </row>
-    <row r="283" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C282" s="22"/>
+    </row>
+    <row r="283" spans="1:3" ht="15.75" thickBot="1">
       <c r="A283" s="22"/>
-    </row>
-    <row r="284" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C283" s="22"/>
+    </row>
+    <row r="284" spans="1:3" ht="15.75" thickBot="1">
       <c r="A284" s="22"/>
-    </row>
-    <row r="285" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C284" s="22"/>
+    </row>
+    <row r="285" spans="1:3" ht="15.75" thickBot="1">
       <c r="A285" s="22"/>
-    </row>
-    <row r="286" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C285" s="22"/>
+    </row>
+    <row r="286" spans="1:3" ht="15.75" thickBot="1">
       <c r="A286" s="22"/>
-    </row>
-    <row r="287" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C286" s="22"/>
+    </row>
+    <row r="287" spans="1:3" ht="15.75" thickBot="1">
       <c r="A287" s="22"/>
-    </row>
-    <row r="288" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C287" s="22"/>
+    </row>
+    <row r="288" spans="1:3" ht="15.75" thickBot="1">
       <c r="A288" s="22"/>
-    </row>
-    <row r="289" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C288" s="22"/>
+    </row>
+    <row r="289" spans="1:3" ht="15.75" thickBot="1">
       <c r="A289" s="22"/>
-    </row>
-    <row r="290" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C289" s="22"/>
+    </row>
+    <row r="290" spans="1:3" ht="15.75" thickBot="1">
       <c r="A290" s="22"/>
-    </row>
-    <row r="291" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C290" s="22"/>
+    </row>
+    <row r="291" spans="1:3" ht="15.75" thickBot="1">
       <c r="A291" s="22"/>
-    </row>
-    <row r="292" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C291" s="22"/>
+    </row>
+    <row r="292" spans="1:3" ht="15.75" thickBot="1">
       <c r="A292" s="22"/>
-    </row>
-    <row r="293" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C292" s="22"/>
+    </row>
+    <row r="293" spans="1:3" ht="15.75" thickBot="1">
       <c r="A293" s="22"/>
-    </row>
-    <row r="294" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C293" s="22"/>
+    </row>
+    <row r="294" spans="1:3" ht="15.75" thickBot="1">
       <c r="A294" s="22"/>
-    </row>
-    <row r="295" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C294" s="22"/>
+    </row>
+    <row r="295" spans="1:3" ht="15.75" thickBot="1">
       <c r="A295" s="22"/>
-    </row>
-    <row r="296" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C295" s="22"/>
+    </row>
+    <row r="296" spans="1:3" ht="15.75" thickBot="1">
       <c r="A296" s="22"/>
-    </row>
-    <row r="297" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C296" s="22"/>
+    </row>
+    <row r="297" spans="1:3" ht="15.75" thickBot="1">
       <c r="A297" s="22"/>
-    </row>
-    <row r="298" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C297" s="22"/>
+    </row>
+    <row r="298" spans="1:3" ht="15.75" thickBot="1">
       <c r="A298" s="22"/>
-    </row>
-    <row r="299" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C298" s="22"/>
+    </row>
+    <row r="299" spans="1:3" ht="15.75" thickBot="1">
       <c r="A299" s="22"/>
-    </row>
-    <row r="300" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C299" s="22"/>
+    </row>
+    <row r="300" spans="1:3" ht="15.75" thickBot="1">
       <c r="A300" s="22"/>
-    </row>
-    <row r="301" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C300" s="22"/>
+    </row>
+    <row r="301" spans="1:3" ht="15.75" thickBot="1">
       <c r="A301" s="22"/>
-    </row>
-    <row r="302" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C301" s="22"/>
+    </row>
+    <row r="302" spans="1:3" ht="15.75" thickBot="1">
       <c r="A302" s="22"/>
-    </row>
-    <row r="303" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C302" s="22"/>
+    </row>
+    <row r="303" spans="1:3" ht="15.75" thickBot="1">
       <c r="A303" s="22"/>
-    </row>
-    <row r="304" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C303" s="22"/>
+    </row>
+    <row r="304" spans="1:3" ht="15.75" thickBot="1">
       <c r="A304" s="22"/>
-    </row>
-    <row r="305" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C304" s="22"/>
+    </row>
+    <row r="305" spans="1:3" ht="15.75" thickBot="1">
       <c r="A305" s="22"/>
-    </row>
-    <row r="306" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C305" s="22"/>
+    </row>
+    <row r="306" spans="1:3" ht="15.75" thickBot="1">
       <c r="A306" s="22"/>
-    </row>
-    <row r="307" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C306" s="22"/>
+    </row>
+    <row r="307" spans="1:3" ht="15.75" thickBot="1">
       <c r="A307" s="22"/>
-    </row>
-    <row r="308" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C307" s="22"/>
+    </row>
+    <row r="308" spans="1:3" ht="15.75" thickBot="1">
       <c r="A308" s="22"/>
-    </row>
-    <row r="309" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C308" s="22"/>
+    </row>
+    <row r="309" spans="1:3" ht="15.75" thickBot="1">
       <c r="A309" s="22"/>
-    </row>
-    <row r="310" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C309" s="22"/>
+    </row>
+    <row r="310" spans="1:3" ht="15.75" thickBot="1">
       <c r="A310" s="22"/>
-    </row>
-    <row r="311" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C310" s="22"/>
+    </row>
+    <row r="311" spans="1:3" ht="15.75" thickBot="1">
       <c r="A311" s="22"/>
-    </row>
-    <row r="312" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C311" s="22"/>
+    </row>
+    <row r="312" spans="1:3" ht="15.75" thickBot="1">
       <c r="A312" s="22"/>
-    </row>
-    <row r="313" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C312" s="22"/>
+    </row>
+    <row r="313" spans="1:3" ht="15.75" thickBot="1">
       <c r="A313" s="22"/>
-    </row>
-    <row r="314" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C313" s="22"/>
+    </row>
+    <row r="314" spans="1:3" ht="15.75" thickBot="1">
       <c r="A314" s="22"/>
-    </row>
-    <row r="315" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C314" s="22"/>
+    </row>
+    <row r="315" spans="1:3" ht="15.75" thickBot="1">
       <c r="A315" s="22"/>
-    </row>
-    <row r="316" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C315" s="22"/>
+    </row>
+    <row r="316" spans="1:3" ht="15.75" thickBot="1">
       <c r="A316" s="22"/>
-    </row>
-    <row r="317" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C316" s="22"/>
+    </row>
+    <row r="317" spans="1:3" ht="15.75" thickBot="1">
       <c r="A317" s="22"/>
-    </row>
-    <row r="318" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C317" s="22"/>
+    </row>
+    <row r="318" spans="1:3" ht="15.75" thickBot="1">
       <c r="A318" s="22"/>
-    </row>
-    <row r="319" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C318" s="22"/>
+    </row>
+    <row r="319" spans="1:3" ht="15.75" thickBot="1">
       <c r="A319" s="22"/>
-    </row>
-    <row r="320" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C319" s="22"/>
+    </row>
+    <row r="320" spans="1:3" ht="15.75" thickBot="1">
       <c r="A320" s="22"/>
-    </row>
-    <row r="321" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C320" s="22"/>
+    </row>
+    <row r="321" spans="1:3" ht="15.75" thickBot="1">
       <c r="A321" s="22"/>
-    </row>
-    <row r="322" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C321" s="22"/>
+    </row>
+    <row r="322" spans="1:3" ht="15.75" thickBot="1">
       <c r="A322" s="22"/>
-    </row>
-    <row r="323" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C322" s="22"/>
+    </row>
+    <row r="323" spans="1:3" ht="15.75" thickBot="1">
       <c r="A323" s="22"/>
-    </row>
-    <row r="324" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C323" s="22"/>
+    </row>
+    <row r="324" spans="1:3" ht="15.75" thickBot="1">
       <c r="A324" s="22"/>
-    </row>
-    <row r="325" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C324" s="22"/>
+    </row>
+    <row r="325" spans="1:3" ht="15.75" thickBot="1">
       <c r="A325" s="22"/>
-    </row>
-    <row r="326" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C325" s="22"/>
+    </row>
+    <row r="326" spans="1:3" ht="15.75" thickBot="1">
       <c r="A326" s="22"/>
-    </row>
-    <row r="327" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C326" s="22"/>
+    </row>
+    <row r="327" spans="1:3" ht="15.75" thickBot="1">
       <c r="A327" s="22"/>
-    </row>
-    <row r="328" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C327" s="22"/>
+    </row>
+    <row r="328" spans="1:3" ht="15.75" thickBot="1">
       <c r="A328" s="22"/>
-    </row>
-    <row r="329" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C328" s="22"/>
+    </row>
+    <row r="329" spans="1:3" ht="15.75" thickBot="1">
       <c r="A329" s="22"/>
-    </row>
-    <row r="330" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C329" s="22"/>
+    </row>
+    <row r="330" spans="1:3" ht="15.75" thickBot="1">
       <c r="A330" s="22"/>
-    </row>
-    <row r="331" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C330" s="22"/>
+    </row>
+    <row r="331" spans="1:3" ht="15.75" thickBot="1">
       <c r="A331" s="22"/>
-    </row>
-    <row r="332" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C331" s="22"/>
+    </row>
+    <row r="332" spans="1:3" ht="15.75" thickBot="1">
       <c r="A332" s="22"/>
-    </row>
-    <row r="333" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C332" s="22"/>
+    </row>
+    <row r="333" spans="1:3" ht="15.75" thickBot="1">
       <c r="A333" s="22"/>
-    </row>
-    <row r="334" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C333" s="22"/>
+    </row>
+    <row r="334" spans="1:3" ht="15.75" thickBot="1">
       <c r="A334" s="22"/>
-    </row>
-    <row r="335" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C334" s="22"/>
+    </row>
+    <row r="335" spans="1:3" ht="15.75" thickBot="1">
       <c r="A335" s="22"/>
-    </row>
-    <row r="336" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C335" s="22"/>
+    </row>
+    <row r="336" spans="1:3" ht="15.75" thickBot="1">
       <c r="A336" s="22"/>
-    </row>
-    <row r="337" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C336" s="22"/>
+    </row>
+    <row r="337" spans="1:3" ht="15.75" thickBot="1">
       <c r="A337" s="22"/>
-    </row>
-    <row r="338" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C337" s="22"/>
+    </row>
+    <row r="338" spans="1:3" ht="15.75" thickBot="1">
       <c r="A338" s="22"/>
-    </row>
-    <row r="339" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C338" s="22"/>
+    </row>
+    <row r="339" spans="1:3" ht="15.75" thickBot="1">
       <c r="A339" s="22"/>
-    </row>
-    <row r="340" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C339" s="22"/>
+    </row>
+    <row r="340" spans="1:3" ht="15.75" thickBot="1">
       <c r="A340" s="22"/>
-    </row>
-    <row r="341" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C340" s="22"/>
+    </row>
+    <row r="341" spans="1:3" ht="15.75" thickBot="1">
       <c r="A341" s="22"/>
-    </row>
-    <row r="342" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C341" s="22"/>
+    </row>
+    <row r="342" spans="1:3" ht="15.75" thickBot="1">
       <c r="A342" s="22"/>
-    </row>
-    <row r="343" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C342" s="22"/>
+    </row>
+    <row r="343" spans="1:3" ht="15.75" thickBot="1">
       <c r="A343" s="22"/>
-    </row>
-    <row r="344" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C343" s="22"/>
+    </row>
+    <row r="344" spans="1:3" ht="15.75" thickBot="1">
       <c r="A344" s="22"/>
-    </row>
-    <row r="345" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C344" s="22"/>
+    </row>
+    <row r="345" spans="1:3" ht="15.75" thickBot="1">
       <c r="A345" s="22"/>
-    </row>
-    <row r="346" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C345" s="22"/>
+    </row>
+    <row r="346" spans="1:3" ht="15.75" thickBot="1">
       <c r="A346" s="22"/>
-    </row>
-    <row r="347" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C346" s="22"/>
+    </row>
+    <row r="347" spans="1:3" ht="15.75" thickBot="1">
       <c r="A347" s="22"/>
-    </row>
-    <row r="348" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C347" s="22"/>
+    </row>
+    <row r="348" spans="1:3" ht="15.75" thickBot="1">
       <c r="A348" s="22"/>
-    </row>
-    <row r="349" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C348" s="22"/>
+    </row>
+    <row r="349" spans="1:3" ht="15.75" thickBot="1">
       <c r="A349" s="22"/>
-    </row>
-    <row r="350" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C349" s="22"/>
+    </row>
+    <row r="350" spans="1:3" ht="15.75" thickBot="1">
       <c r="A350" s="22"/>
-    </row>
-    <row r="351" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C350" s="22"/>
+    </row>
+    <row r="351" spans="1:3" ht="15.75" thickBot="1">
       <c r="A351" s="22"/>
-    </row>
-    <row r="352" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C351" s="22"/>
+    </row>
+    <row r="352" spans="1:3" ht="15.75" thickBot="1">
       <c r="A352" s="22"/>
-    </row>
-    <row r="353" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C352" s="22"/>
+    </row>
+    <row r="353" spans="1:3" ht="15.75" thickBot="1">
       <c r="A353" s="22"/>
-    </row>
-    <row r="354" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C353" s="22"/>
+    </row>
+    <row r="354" spans="1:3" ht="15.75" thickBot="1">
       <c r="A354" s="22"/>
-    </row>
-    <row r="355" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C354" s="22"/>
+    </row>
+    <row r="355" spans="1:3" ht="15.75" thickBot="1">
       <c r="A355" s="22"/>
-    </row>
-    <row r="356" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C355" s="22"/>
+    </row>
+    <row r="356" spans="1:3" ht="15.75" thickBot="1">
       <c r="A356" s="22"/>
-    </row>
-    <row r="357" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C356" s="22"/>
+    </row>
+    <row r="357" spans="1:3" ht="15.75" thickBot="1">
       <c r="A357" s="22"/>
-    </row>
-    <row r="358" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C357" s="22"/>
+    </row>
+    <row r="358" spans="1:3" ht="15.75" thickBot="1">
       <c r="A358" s="22"/>
-    </row>
-    <row r="359" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C358" s="22"/>
+    </row>
+    <row r="359" spans="1:3" ht="15.75" thickBot="1">
       <c r="A359" s="22"/>
-    </row>
-    <row r="360" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C359" s="22"/>
+    </row>
+    <row r="360" spans="1:3" ht="15.75" thickBot="1">
       <c r="A360" s="22"/>
-    </row>
-    <row r="361" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C360" s="22"/>
+    </row>
+    <row r="361" spans="1:3" ht="15.75" thickBot="1">
       <c r="A361" s="22"/>
-    </row>
-    <row r="362" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C361" s="22"/>
+    </row>
+    <row r="362" spans="1:3" ht="15.75" thickBot="1">
       <c r="A362" s="22"/>
-    </row>
-    <row r="363" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C362" s="22"/>
+    </row>
+    <row r="363" spans="1:3" ht="15.75" thickBot="1">
       <c r="A363" s="22"/>
-    </row>
-    <row r="364" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C363" s="22"/>
+    </row>
+    <row r="364" spans="1:3" ht="15.75" thickBot="1">
       <c r="A364" s="22"/>
-    </row>
-    <row r="365" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C364" s="22"/>
+    </row>
+    <row r="365" spans="1:3" ht="15.75" thickBot="1">
       <c r="A365" s="22"/>
-    </row>
-    <row r="366" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C365" s="22"/>
+    </row>
+    <row r="366" spans="1:3" ht="15.75" thickBot="1">
       <c r="A366" s="22"/>
-    </row>
-    <row r="367" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C366" s="22"/>
+    </row>
+    <row r="367" spans="1:3" ht="15.75" thickBot="1">
       <c r="A367" s="22"/>
-    </row>
-    <row r="368" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C367" s="22"/>
+    </row>
+    <row r="368" spans="1:3" ht="15.75" thickBot="1">
       <c r="A368" s="22"/>
-    </row>
-    <row r="369" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C368" s="22"/>
+    </row>
+    <row r="369" spans="1:3" ht="15.75" thickBot="1">
       <c r="A369" s="22"/>
-    </row>
-    <row r="370" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C369" s="22"/>
+    </row>
+    <row r="370" spans="1:3" ht="15.75" thickBot="1">
       <c r="A370" s="22"/>
-    </row>
-    <row r="371" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C370" s="22"/>
+    </row>
+    <row r="371" spans="1:3" ht="15.75" thickBot="1">
       <c r="A371" s="22"/>
-    </row>
-    <row r="372" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C371" s="22"/>
+    </row>
+    <row r="372" spans="1:3" ht="15.75" thickBot="1">
       <c r="A372" s="22"/>
-    </row>
-    <row r="373" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C372" s="22"/>
+    </row>
+    <row r="373" spans="1:3" ht="15.75" thickBot="1">
       <c r="A373" s="22"/>
-    </row>
-    <row r="374" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C373" s="22"/>
+    </row>
+    <row r="374" spans="1:3" ht="15.75" thickBot="1">
       <c r="A374" s="22"/>
-    </row>
-    <row r="375" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C374" s="22"/>
+    </row>
+    <row r="375" spans="1:3" ht="15.75" thickBot="1">
       <c r="A375" s="22"/>
-    </row>
-    <row r="376" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C375" s="22"/>
+    </row>
+    <row r="376" spans="1:3" ht="15.75" thickBot="1">
       <c r="A376" s="22"/>
-    </row>
-    <row r="377" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C376" s="22"/>
+    </row>
+    <row r="377" spans="1:3" ht="15.75" thickBot="1">
       <c r="A377" s="22"/>
-    </row>
-    <row r="378" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C377" s="22"/>
+    </row>
+    <row r="378" spans="1:3" ht="15.75" thickBot="1">
       <c r="A378" s="22"/>
-    </row>
-    <row r="379" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C378" s="22"/>
+    </row>
+    <row r="379" spans="1:3" ht="15.75" thickBot="1">
       <c r="A379" s="22"/>
-    </row>
-    <row r="380" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C379" s="22"/>
+    </row>
+    <row r="380" spans="1:3" ht="15.75" thickBot="1">
       <c r="A380" s="22"/>
-    </row>
-    <row r="381" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C380" s="22"/>
+    </row>
+    <row r="381" spans="1:3" ht="15.75" thickBot="1">
       <c r="A381" s="22"/>
-    </row>
-    <row r="382" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C381" s="22"/>
+    </row>
+    <row r="382" spans="1:3" ht="15.75" thickBot="1">
       <c r="A382" s="22"/>
-    </row>
-    <row r="383" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C382" s="22"/>
+    </row>
+    <row r="383" spans="1:3" ht="15.75" thickBot="1">
       <c r="A383" s="22"/>
-    </row>
-    <row r="384" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C383" s="22"/>
+    </row>
+    <row r="384" spans="1:3" ht="15.75" thickBot="1">
       <c r="A384" s="22"/>
-    </row>
-    <row r="385" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C384" s="22"/>
+    </row>
+    <row r="385" spans="1:3" ht="15.75" thickBot="1">
       <c r="A385" s="22"/>
-    </row>
-    <row r="386" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C385" s="22"/>
+    </row>
+    <row r="386" spans="1:3" ht="15.75" thickBot="1">
       <c r="A386" s="22"/>
-    </row>
-    <row r="387" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C386" s="22"/>
+    </row>
+    <row r="387" spans="1:3" ht="15.75" thickBot="1">
       <c r="A387" s="22"/>
-    </row>
-    <row r="388" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C387" s="22"/>
+    </row>
+    <row r="388" spans="1:3" ht="15.75" thickBot="1">
       <c r="A388" s="22"/>
-    </row>
-    <row r="389" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C388" s="22"/>
+    </row>
+    <row r="389" spans="1:3" ht="15.75" thickBot="1">
       <c r="A389" s="22"/>
-    </row>
-    <row r="390" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C389" s="22"/>
+    </row>
+    <row r="390" spans="1:3" ht="15.75" thickBot="1">
       <c r="A390" s="22"/>
-    </row>
-    <row r="391" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C390" s="22"/>
+    </row>
+    <row r="391" spans="1:3" ht="15.75" thickBot="1">
       <c r="A391" s="22"/>
-    </row>
-    <row r="392" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C391" s="22"/>
+    </row>
+    <row r="392" spans="1:3" ht="15.75" thickBot="1">
       <c r="A392" s="22"/>
-    </row>
-    <row r="393" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C392" s="22"/>
+    </row>
+    <row r="393" spans="1:3" ht="15.75" thickBot="1">
       <c r="A393" s="22"/>
-    </row>
-    <row r="394" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C393" s="22"/>
+    </row>
+    <row r="394" spans="1:3" ht="15.75" thickBot="1">
       <c r="A394" s="22"/>
-    </row>
-    <row r="395" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C394" s="22"/>
+    </row>
+    <row r="395" spans="1:3" ht="15.75" thickBot="1">
       <c r="A395" s="22"/>
-    </row>
-    <row r="396" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C395" s="22"/>
+    </row>
+    <row r="396" spans="1:3" ht="15.75" thickBot="1">
       <c r="A396" s="22"/>
-    </row>
-    <row r="397" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C396" s="22"/>
+    </row>
+    <row r="397" spans="1:3" ht="15.75" thickBot="1">
       <c r="A397" s="22"/>
-    </row>
-    <row r="398" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C397" s="22"/>
+    </row>
+    <row r="398" spans="1:3" ht="15.75" thickBot="1">
       <c r="A398" s="22"/>
-    </row>
-    <row r="399" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C398" s="22"/>
+    </row>
+    <row r="399" spans="1:3" ht="15.75" thickBot="1">
       <c r="A399" s="22"/>
-    </row>
-    <row r="400" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C399" s="22"/>
+    </row>
+    <row r="400" spans="1:3" ht="15.75" thickBot="1">
       <c r="A400" s="22"/>
-    </row>
-    <row r="401" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C400" s="22"/>
+    </row>
+    <row r="401" spans="1:3" ht="15.75" thickBot="1">
       <c r="A401" s="22"/>
-    </row>
-    <row r="402" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C401" s="22"/>
+    </row>
+    <row r="402" spans="1:3" ht="15.75" thickBot="1">
       <c r="A402" s="22"/>
-    </row>
-    <row r="403" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C402" s="22"/>
+    </row>
+    <row r="403" spans="1:3" ht="15.75" thickBot="1">
       <c r="A403" s="22"/>
-    </row>
-    <row r="404" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C403" s="22"/>
+    </row>
+    <row r="404" spans="1:3" ht="15.75" thickBot="1">
       <c r="A404" s="22"/>
-    </row>
-    <row r="405" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C404" s="22"/>
+    </row>
+    <row r="405" spans="1:3" ht="15.75" thickBot="1">
       <c r="A405" s="22"/>
-    </row>
-    <row r="406" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C405" s="22"/>
+    </row>
+    <row r="406" spans="1:3" ht="15.75" thickBot="1">
       <c r="A406" s="22"/>
-    </row>
-    <row r="407" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C406" s="22"/>
+    </row>
+    <row r="407" spans="1:3" ht="15.75" thickBot="1">
       <c r="A407" s="22"/>
-    </row>
-    <row r="408" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C407" s="22"/>
+    </row>
+    <row r="408" spans="1:3" ht="15.75" thickBot="1">
       <c r="A408" s="22"/>
-    </row>
-    <row r="409" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C408" s="22"/>
+    </row>
+    <row r="409" spans="1:3" ht="15.75" thickBot="1">
       <c r="A409" s="22"/>
-    </row>
-    <row r="410" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C409" s="22"/>
+    </row>
+    <row r="410" spans="1:3" ht="15.75" thickBot="1">
       <c r="A410" s="22"/>
-    </row>
-    <row r="411" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C410" s="22"/>
+    </row>
+    <row r="411" spans="1:3" ht="15.75" thickBot="1">
       <c r="A411" s="22"/>
-    </row>
-    <row r="412" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C411" s="22"/>
+    </row>
+    <row r="412" spans="1:3" ht="15.75" thickBot="1">
       <c r="A412" s="22"/>
-    </row>
-    <row r="413" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C412" s="22"/>
+    </row>
+    <row r="413" spans="1:3" ht="15.75" thickBot="1">
       <c r="A413" s="22"/>
-    </row>
-    <row r="414" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C413" s="22"/>
+    </row>
+    <row r="414" spans="1:3" ht="15.75" thickBot="1">
       <c r="A414" s="22"/>
-    </row>
-    <row r="415" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C414" s="22"/>
+    </row>
+    <row r="415" spans="1:3" ht="15.75" thickBot="1">
       <c r="A415" s="22"/>
-    </row>
-    <row r="416" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C415" s="22"/>
+    </row>
+    <row r="416" spans="1:3" ht="15.75" thickBot="1">
       <c r="A416" s="22"/>
-    </row>
-    <row r="417" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C416" s="22"/>
+    </row>
+    <row r="417" spans="1:3" ht="15.75" thickBot="1">
       <c r="A417" s="22"/>
-    </row>
-    <row r="418" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C417" s="22"/>
+    </row>
+    <row r="418" spans="1:3" ht="15.75" thickBot="1">
       <c r="A418" s="22"/>
-    </row>
-    <row r="419" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C418" s="22"/>
+    </row>
+    <row r="419" spans="1:3" ht="15.75" thickBot="1">
       <c r="A419" s="22"/>
-    </row>
-    <row r="420" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C419" s="22"/>
+    </row>
+    <row r="420" spans="1:3" ht="15.75" thickBot="1">
       <c r="A420" s="22"/>
-    </row>
-    <row r="421" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C420" s="22"/>
+    </row>
+    <row r="421" spans="1:3" ht="15.75" thickBot="1">
       <c r="A421" s="22"/>
-    </row>
-    <row r="422" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C421" s="22"/>
+    </row>
+    <row r="422" spans="1:3" ht="15.75" thickBot="1">
       <c r="A422" s="22"/>
-    </row>
-    <row r="423" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C422" s="22"/>
+    </row>
+    <row r="423" spans="1:3" ht="15.75" thickBot="1">
       <c r="A423" s="22"/>
-    </row>
-    <row r="424" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C423" s="22"/>
+    </row>
+    <row r="424" spans="1:3" ht="15.75" thickBot="1">
       <c r="A424" s="22"/>
-    </row>
-    <row r="425" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C424" s="22"/>
+    </row>
+    <row r="425" spans="1:3" ht="15.75" thickBot="1">
       <c r="A425" s="22"/>
-    </row>
-    <row r="426" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C425" s="22"/>
+    </row>
+    <row r="426" spans="1:3" ht="15.75" thickBot="1">
       <c r="A426" s="22"/>
-    </row>
-    <row r="427" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C426" s="22"/>
+    </row>
+    <row r="427" spans="1:3" ht="15.75" thickBot="1">
       <c r="A427" s="22"/>
-    </row>
-    <row r="428" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C427" s="22"/>
+    </row>
+    <row r="428" spans="1:3" ht="15.75" thickBot="1">
       <c r="A428" s="22"/>
-    </row>
-    <row r="429" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C428" s="22"/>
+    </row>
+    <row r="429" spans="1:3" ht="15.75" thickBot="1">
       <c r="A429" s="22"/>
-    </row>
-    <row r="430" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C429" s="22"/>
+    </row>
+    <row r="430" spans="1:3" ht="15.75" thickBot="1">
       <c r="A430" s="22"/>
-    </row>
-    <row r="431" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C430" s="22"/>
+    </row>
+    <row r="431" spans="1:3" ht="15.75" thickBot="1">
       <c r="A431" s="22"/>
-    </row>
-    <row r="432" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C431" s="22"/>
+    </row>
+    <row r="432" spans="1:3" ht="15.75" thickBot="1">
       <c r="A432" s="22"/>
-    </row>
-    <row r="433" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C432" s="22"/>
+    </row>
+    <row r="433" spans="1:3" ht="15.75" thickBot="1">
       <c r="A433" s="22"/>
-    </row>
-    <row r="434" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C433" s="22"/>
+    </row>
+    <row r="434" spans="1:3" ht="15.75" thickBot="1">
       <c r="A434" s="22"/>
-    </row>
-    <row r="435" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C434" s="22"/>
+    </row>
+    <row r="435" spans="1:3" ht="15.75" thickBot="1">
       <c r="A435" s="22"/>
-    </row>
-    <row r="436" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C435" s="22"/>
+    </row>
+    <row r="436" spans="1:3" ht="15.75" thickBot="1">
       <c r="A436" s="22"/>
-    </row>
-    <row r="437" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C436" s="22"/>
+    </row>
+    <row r="437" spans="1:3" ht="15.75" thickBot="1">
       <c r="A437" s="22"/>
-    </row>
-    <row r="438" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C437" s="22"/>
+    </row>
+    <row r="438" spans="1:3" ht="15.75" thickBot="1">
       <c r="A438" s="22"/>
-    </row>
-    <row r="439" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C438" s="22"/>
+    </row>
+    <row r="439" spans="1:3" ht="15.75" thickBot="1">
       <c r="A439" s="22"/>
-    </row>
-    <row r="440" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C439" s="22"/>
+    </row>
+    <row r="440" spans="1:3" ht="15.75" thickBot="1">
       <c r="A440" s="22"/>
-    </row>
-    <row r="441" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C440" s="22"/>
+    </row>
+    <row r="441" spans="1:3" ht="15.75" thickBot="1">
       <c r="A441" s="22"/>
-    </row>
-    <row r="442" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C441" s="22"/>
+    </row>
+    <row r="442" spans="1:3" ht="15.75" thickBot="1">
       <c r="A442" s="22"/>
-    </row>
-    <row r="443" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C442" s="22"/>
+    </row>
+    <row r="443" spans="1:3" ht="15.75" thickBot="1">
       <c r="A443" s="22"/>
-    </row>
-    <row r="444" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C443" s="22"/>
+    </row>
+    <row r="444" spans="1:3" ht="15.75" thickBot="1">
       <c r="A444" s="22"/>
-    </row>
-    <row r="445" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C444" s="22"/>
+    </row>
+    <row r="445" spans="1:3" ht="15.75" thickBot="1">
       <c r="A445" s="22"/>
-    </row>
-    <row r="446" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C445" s="22"/>
+    </row>
+    <row r="446" spans="1:3" ht="15.75" thickBot="1">
       <c r="A446" s="22"/>
-    </row>
-    <row r="447" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C446" s="22"/>
+    </row>
+    <row r="447" spans="1:3" ht="15.75" thickBot="1">
       <c r="A447" s="22"/>
-    </row>
-    <row r="448" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C447" s="22"/>
+    </row>
+    <row r="448" spans="1:3" ht="15.75" thickBot="1">
       <c r="A448" s="22"/>
-    </row>
-    <row r="449" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C448" s="22"/>
+    </row>
+    <row r="449" spans="1:3" ht="15.75" thickBot="1">
       <c r="A449" s="22"/>
-    </row>
-    <row r="450" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C449" s="22"/>
+    </row>
+    <row r="450" spans="1:3" ht="15.75" thickBot="1">
       <c r="A450" s="22"/>
-    </row>
-    <row r="451" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C450" s="22"/>
+    </row>
+    <row r="451" spans="1:3" ht="15.75" thickBot="1">
       <c r="A451" s="22"/>
-    </row>
-    <row r="452" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C451" s="22"/>
+    </row>
+    <row r="452" spans="1:3" ht="15.75" thickBot="1">
       <c r="A452" s="22"/>
-    </row>
-    <row r="453" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C452" s="22"/>
+    </row>
+    <row r="453" spans="1:3" ht="15.75" thickBot="1">
       <c r="A453" s="22"/>
-    </row>
-    <row r="454" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C453" s="22"/>
+    </row>
+    <row r="454" spans="1:3" ht="15.75" thickBot="1">
       <c r="A454" s="22"/>
-    </row>
-    <row r="455" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C454" s="22"/>
+    </row>
+    <row r="455" spans="1:3" ht="15.75" thickBot="1">
       <c r="A455" s="22"/>
-    </row>
-    <row r="456" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C455" s="22"/>
+    </row>
+    <row r="456" spans="1:3" ht="15.75" thickBot="1">
       <c r="A456" s="22"/>
-    </row>
-    <row r="457" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C456" s="22"/>
+    </row>
+    <row r="457" spans="1:3" ht="15.75" thickBot="1">
       <c r="A457" s="22"/>
-    </row>
-    <row r="458" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C457" s="22"/>
+    </row>
+    <row r="458" spans="1:3" ht="15.75" thickBot="1">
       <c r="A458" s="22"/>
-    </row>
-    <row r="459" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C458" s="22"/>
+    </row>
+    <row r="459" spans="1:3" ht="15.75" thickBot="1">
       <c r="A459" s="22"/>
-    </row>
-    <row r="460" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C459" s="22"/>
+    </row>
+    <row r="460" spans="1:3" ht="15.75" thickBot="1">
       <c r="A460" s="22"/>
-    </row>
-    <row r="461" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C460" s="22"/>
+    </row>
+    <row r="461" spans="1:3" ht="15.75" thickBot="1">
       <c r="A461" s="22"/>
-    </row>
-    <row r="462" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C461" s="22"/>
+    </row>
+    <row r="462" spans="1:3" ht="15.75" thickBot="1">
       <c r="A462" s="22"/>
-    </row>
-    <row r="463" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C462" s="22"/>
+    </row>
+    <row r="463" spans="1:3" ht="15.75" thickBot="1">
       <c r="A463" s="22"/>
-    </row>
-    <row r="464" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C463" s="22"/>
+    </row>
+    <row r="464" spans="1:3" ht="15.75" thickBot="1">
       <c r="A464" s="22"/>
-    </row>
-    <row r="465" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C464" s="22"/>
+    </row>
+    <row r="465" spans="1:3" ht="15.75" thickBot="1">
       <c r="A465" s="22"/>
-    </row>
-    <row r="466" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C465" s="22"/>
+    </row>
+    <row r="466" spans="1:3" ht="15.75" thickBot="1">
       <c r="A466" s="22"/>
-    </row>
-    <row r="467" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C466" s="22"/>
+    </row>
+    <row r="467" spans="1:3" ht="15.75" thickBot="1">
       <c r="A467" s="22"/>
-    </row>
-    <row r="468" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C467" s="22"/>
+    </row>
+    <row r="468" spans="1:3" ht="15.75" thickBot="1">
       <c r="A468" s="22"/>
-    </row>
-    <row r="469" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C468" s="22"/>
+    </row>
+    <row r="469" spans="1:3" ht="15.75" thickBot="1">
       <c r="A469" s="22"/>
-    </row>
-    <row r="470" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C469" s="22"/>
+    </row>
+    <row r="470" spans="1:3" ht="15.75" thickBot="1">
       <c r="A470" s="22"/>
-    </row>
-    <row r="471" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C470" s="22"/>
+    </row>
+    <row r="471" spans="1:3" ht="15.75" thickBot="1">
       <c r="A471" s="22"/>
-    </row>
-    <row r="472" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C471" s="22"/>
+    </row>
+    <row r="472" spans="1:3" ht="15.75" thickBot="1">
       <c r="A472" s="22"/>
-    </row>
-    <row r="473" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C472" s="22"/>
+    </row>
+    <row r="473" spans="1:3" ht="15.75" thickBot="1">
       <c r="A473" s="22"/>
-    </row>
-    <row r="474" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C473" s="22"/>
+    </row>
+    <row r="474" spans="1:3" ht="15.75" thickBot="1">
       <c r="A474" s="22"/>
-    </row>
-    <row r="475" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C474" s="22"/>
+    </row>
+    <row r="475" spans="1:3" ht="15.75" thickBot="1">
       <c r="A475" s="22"/>
-    </row>
-    <row r="476" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C475" s="22"/>
+    </row>
+    <row r="476" spans="1:3" ht="15.75" thickBot="1">
       <c r="A476" s="22"/>
-    </row>
-    <row r="477" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C476" s="22"/>
+    </row>
+    <row r="477" spans="1:3" ht="15.75" thickBot="1">
       <c r="A477" s="22"/>
-    </row>
-    <row r="478" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C477" s="22"/>
+    </row>
+    <row r="478" spans="1:3" ht="15.75" thickBot="1">
       <c r="A478" s="22"/>
-    </row>
-    <row r="479" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C478" s="22"/>
+    </row>
+    <row r="479" spans="1:3" ht="15.75" thickBot="1">
       <c r="A479" s="22"/>
-    </row>
-    <row r="480" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C479" s="22"/>
+    </row>
+    <row r="480" spans="1:3" ht="15.75" thickBot="1">
       <c r="A480" s="22"/>
-    </row>
-    <row r="481" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C480" s="22"/>
+    </row>
+    <row r="481" spans="1:3" ht="15.75" thickBot="1">
       <c r="A481" s="22"/>
-    </row>
-    <row r="482" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C481" s="22"/>
+    </row>
+    <row r="482" spans="1:3" ht="15.75" thickBot="1">
       <c r="A482" s="22"/>
-    </row>
-    <row r="483" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C482" s="22"/>
+    </row>
+    <row r="483" spans="1:3" ht="15.75" thickBot="1">
       <c r="A483" s="22"/>
-    </row>
-    <row r="484" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C483" s="22"/>
+    </row>
+    <row r="484" spans="1:3" ht="15.75" thickBot="1">
       <c r="A484" s="22"/>
-    </row>
-    <row r="485" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C484" s="22"/>
+    </row>
+    <row r="485" spans="1:3" ht="15.75" thickBot="1">
       <c r="A485" s="22"/>
-    </row>
-    <row r="486" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C485" s="22"/>
+    </row>
+    <row r="486" spans="1:3" ht="15.75" thickBot="1">
       <c r="A486" s="22"/>
-    </row>
-    <row r="487" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C486" s="22"/>
+    </row>
+    <row r="487" spans="1:3" ht="15.75" thickBot="1">
       <c r="A487" s="22"/>
-    </row>
-    <row r="488" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C487" s="22"/>
+    </row>
+    <row r="488" spans="1:3" ht="15.75" thickBot="1">
       <c r="A488" s="22"/>
-    </row>
-    <row r="489" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C488" s="22"/>
+    </row>
+    <row r="489" spans="1:3" ht="15.75" thickBot="1">
       <c r="A489" s="22"/>
-    </row>
-    <row r="490" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C489" s="22"/>
+    </row>
+    <row r="490" spans="1:3" ht="15.75" thickBot="1">
       <c r="A490" s="22"/>
-    </row>
-    <row r="491" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C490" s="22"/>
+    </row>
+    <row r="491" spans="1:3" ht="15.75" thickBot="1">
       <c r="A491" s="22"/>
-    </row>
-    <row r="492" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C491" s="22"/>
+    </row>
+    <row r="492" spans="1:3" ht="15.75" thickBot="1">
       <c r="A492" s="22"/>
-    </row>
-    <row r="493" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C492" s="22"/>
+    </row>
+    <row r="493" spans="1:3" ht="15.75" thickBot="1">
       <c r="A493" s="22"/>
-    </row>
-    <row r="494" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C493" s="22"/>
+    </row>
+    <row r="494" spans="1:3" ht="15.75" thickBot="1">
       <c r="A494" s="22"/>
-    </row>
-    <row r="495" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C494" s="22"/>
+    </row>
+    <row r="495" spans="1:3" ht="15.75" thickBot="1">
       <c r="A495" s="22"/>
-    </row>
-    <row r="496" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C495" s="22"/>
+    </row>
+    <row r="496" spans="1:3" ht="15.75" thickBot="1">
       <c r="A496" s="22"/>
-    </row>
-    <row r="497" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C496" s="22"/>
+    </row>
+    <row r="497" spans="1:3" ht="15.75" thickBot="1">
       <c r="A497" s="22"/>
-    </row>
-    <row r="498" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C497" s="22"/>
+    </row>
+    <row r="498" spans="1:3" ht="15.75" thickBot="1">
       <c r="A498" s="22"/>
-    </row>
-    <row r="499" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C498" s="22"/>
+    </row>
+    <row r="499" spans="1:3" ht="15.75" thickBot="1">
       <c r="A499" s="22"/>
-    </row>
-    <row r="500" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C499" s="22"/>
+    </row>
+    <row r="500" spans="1:3" ht="15.75" thickBot="1">
       <c r="A500" s="22"/>
-    </row>
-    <row r="501" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C500" s="22"/>
+    </row>
+    <row r="501" spans="1:3" ht="15.75" thickBot="1">
       <c r="A501" s="22"/>
-    </row>
-    <row r="502" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C501" s="22"/>
+    </row>
+    <row r="502" spans="1:3" ht="15.75" thickBot="1">
       <c r="A502" s="22"/>
-    </row>
-    <row r="503" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C502" s="22"/>
+    </row>
+    <row r="503" spans="1:3" ht="15.75" thickBot="1">
       <c r="A503" s="22"/>
-    </row>
-    <row r="504" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C503" s="22"/>
+    </row>
+    <row r="504" spans="1:3" ht="15.75" thickBot="1">
       <c r="A504" s="22"/>
-    </row>
-    <row r="505" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C504" s="22"/>
+    </row>
+    <row r="505" spans="1:3" ht="15.75" thickBot="1">
       <c r="A505" s="22"/>
-    </row>
-    <row r="506" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C505" s="22"/>
+    </row>
+    <row r="506" spans="1:3" ht="15.75" thickBot="1">
       <c r="A506" s="22"/>
-    </row>
-    <row r="507" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C506" s="22"/>
+    </row>
+    <row r="507" spans="1:3" ht="15.75" thickBot="1">
       <c r="A507" s="22"/>
-    </row>
-    <row r="508" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C507" s="22"/>
+    </row>
+    <row r="508" spans="1:3" ht="15.75" thickBot="1">
       <c r="A508" s="22"/>
-    </row>
-    <row r="509" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C508" s="22"/>
+    </row>
+    <row r="509" spans="1:3" ht="15.75" thickBot="1">
       <c r="A509" s="22"/>
-    </row>
-    <row r="510" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C509" s="22"/>
+    </row>
+    <row r="510" spans="1:3" ht="15.75" thickBot="1">
       <c r="A510" s="22"/>
-    </row>
-    <row r="511" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C510" s="22"/>
+    </row>
+    <row r="511" spans="1:3" ht="15.75" thickBot="1">
       <c r="A511" s="22"/>
-    </row>
-    <row r="512" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C511" s="22"/>
+    </row>
+    <row r="512" spans="1:3" ht="15.75" thickBot="1">
       <c r="A512" s="22"/>
-    </row>
-    <row r="513" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C512" s="22"/>
+    </row>
+    <row r="513" spans="1:3" ht="15.75" thickBot="1">
       <c r="A513" s="22"/>
-    </row>
-    <row r="514" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C513" s="22"/>
+    </row>
+    <row r="514" spans="1:3" ht="15.75" thickBot="1">
       <c r="A514" s="22"/>
-    </row>
-    <row r="515" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C514" s="22"/>
+    </row>
+    <row r="515" spans="1:3" ht="15.75" thickBot="1">
       <c r="A515" s="22"/>
-    </row>
-    <row r="516" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C515" s="22"/>
+    </row>
+    <row r="516" spans="1:3" ht="15.75" thickBot="1">
       <c r="A516" s="22"/>
-    </row>
-    <row r="517" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C516" s="22"/>
+    </row>
+    <row r="517" spans="1:3" ht="15.75" thickBot="1">
       <c r="A517" s="22"/>
-    </row>
-    <row r="518" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C517" s="22"/>
+    </row>
+    <row r="518" spans="1:3" ht="15.75" thickBot="1">
       <c r="A518" s="22"/>
-    </row>
-    <row r="519" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C518" s="22"/>
+    </row>
+    <row r="519" spans="1:3" ht="15.75" thickBot="1">
       <c r="A519" s="22"/>
-    </row>
-    <row r="520" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C519" s="22"/>
+    </row>
+    <row r="520" spans="1:3" ht="15.75" thickBot="1">
       <c r="A520" s="22"/>
-    </row>
-    <row r="521" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C520" s="22"/>
+    </row>
+    <row r="521" spans="1:3" ht="15.75" thickBot="1">
       <c r="A521" s="22"/>
-    </row>
-    <row r="522" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C521" s="22"/>
+    </row>
+    <row r="522" spans="1:3" ht="15.75" thickBot="1">
       <c r="A522" s="22"/>
-    </row>
-    <row r="523" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C522" s="22"/>
+    </row>
+    <row r="523" spans="1:3" ht="15.75" thickBot="1">
       <c r="A523" s="22"/>
-    </row>
-    <row r="524" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C523" s="22"/>
+    </row>
+    <row r="524" spans="1:3" ht="15.75" thickBot="1">
       <c r="A524" s="22"/>
-    </row>
-    <row r="525" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C524" s="22"/>
+    </row>
+    <row r="525" spans="1:3" ht="15.75" thickBot="1">
       <c r="A525" s="22"/>
-    </row>
-    <row r="526" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C525" s="22"/>
+    </row>
+    <row r="526" spans="1:3" ht="15.75" thickBot="1">
       <c r="A526" s="22"/>
-    </row>
-    <row r="527" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C526" s="22"/>
+    </row>
+    <row r="527" spans="1:3" ht="15.75" thickBot="1">
       <c r="A527" s="22"/>
-    </row>
-    <row r="528" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C527" s="22"/>
+    </row>
+    <row r="528" spans="1:3" ht="15.75" thickBot="1">
       <c r="A528" s="22"/>
-    </row>
-    <row r="529" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C528" s="22"/>
+    </row>
+    <row r="529" spans="1:3" ht="15.75" thickBot="1">
       <c r="A529" s="22"/>
-    </row>
-    <row r="530" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C529" s="22"/>
+    </row>
+    <row r="530" spans="1:3" ht="15.75" thickBot="1">
       <c r="A530" s="22"/>
-    </row>
-    <row r="531" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C530" s="22"/>
+    </row>
+    <row r="531" spans="1:3" ht="15.75" thickBot="1">
       <c r="A531" s="22"/>
-    </row>
-    <row r="532" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C531" s="22"/>
+    </row>
+    <row r="532" spans="1:3" ht="15.75" thickBot="1">
       <c r="A532" s="22"/>
-    </row>
-    <row r="533" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C532" s="22"/>
+    </row>
+    <row r="533" spans="1:3" ht="15.75" thickBot="1">
       <c r="A533" s="22"/>
-    </row>
-    <row r="534" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C533" s="22"/>
+    </row>
+    <row r="534" spans="1:3" ht="15.75" thickBot="1">
       <c r="A534" s="22"/>
-    </row>
-    <row r="535" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C534" s="22"/>
+    </row>
+    <row r="535" spans="1:3" ht="15.75" thickBot="1">
       <c r="A535" s="22"/>
-    </row>
-    <row r="536" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C535" s="22"/>
+    </row>
+    <row r="536" spans="1:3" ht="15.75" thickBot="1">
       <c r="A536" s="22"/>
-    </row>
-    <row r="537" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C536" s="22"/>
+    </row>
+    <row r="537" spans="1:3" ht="15.75" thickBot="1">
       <c r="A537" s="22"/>
-    </row>
-    <row r="538" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C537" s="22"/>
+    </row>
+    <row r="538" spans="1:3" ht="15.75" thickBot="1">
       <c r="A538" s="22"/>
-    </row>
-    <row r="539" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C538" s="22"/>
+    </row>
+    <row r="539" spans="1:3" ht="15.75" thickBot="1">
       <c r="A539" s="22"/>
-    </row>
-    <row r="540" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C539" s="22"/>
+    </row>
+    <row r="540" spans="1:3" ht="15.75" thickBot="1">
       <c r="A540" s="22"/>
-    </row>
-    <row r="541" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C540" s="22"/>
+    </row>
+    <row r="541" spans="1:3" ht="15.75" thickBot="1">
       <c r="A541" s="22"/>
-    </row>
-    <row r="542" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C541" s="22"/>
+    </row>
+    <row r="542" spans="1:3" ht="15.75" thickBot="1">
       <c r="A542" s="22"/>
-    </row>
-    <row r="543" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C542" s="22"/>
+    </row>
+    <row r="543" spans="1:3" ht="15.75" thickBot="1">
       <c r="A543" s="22"/>
-    </row>
-    <row r="544" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C543" s="22"/>
+    </row>
+    <row r="544" spans="1:3" ht="15.75" thickBot="1">
       <c r="A544" s="22"/>
-    </row>
-    <row r="545" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C544" s="22"/>
+    </row>
+    <row r="545" spans="1:3" ht="15.75" thickBot="1">
       <c r="A545" s="22"/>
-    </row>
-    <row r="546" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C545" s="22"/>
+    </row>
+    <row r="546" spans="1:3" ht="15.75" thickBot="1">
       <c r="A546" s="22"/>
-    </row>
-    <row r="547" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C546" s="22"/>
+    </row>
+    <row r="547" spans="1:3" ht="15.75" thickBot="1">
       <c r="A547" s="22"/>
-    </row>
-    <row r="548" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C547" s="22"/>
+    </row>
+    <row r="548" spans="1:3" ht="15.75" thickBot="1">
       <c r="A548" s="22"/>
-    </row>
-    <row r="549" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C548" s="22"/>
+    </row>
+    <row r="549" spans="1:3" ht="15.75" thickBot="1">
       <c r="A549" s="22"/>
-    </row>
-    <row r="550" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C549" s="22"/>
+    </row>
+    <row r="550" spans="1:3" ht="15.75" thickBot="1">
       <c r="A550" s="22"/>
-    </row>
-    <row r="551" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C550" s="22"/>
+    </row>
+    <row r="551" spans="1:3" ht="15.75" thickBot="1">
       <c r="A551" s="22"/>
-    </row>
-    <row r="552" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C551" s="22"/>
+    </row>
+    <row r="552" spans="1:3" ht="15.75" thickBot="1">
       <c r="A552" s="22"/>
-    </row>
-    <row r="553" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C552" s="22"/>
+    </row>
+    <row r="553" spans="1:3" ht="15.75" thickBot="1">
       <c r="A553" s="22"/>
-    </row>
-    <row r="554" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C553" s="22"/>
+    </row>
+    <row r="554" spans="1:3" ht="15.75" thickBot="1">
       <c r="A554" s="22"/>
-    </row>
-    <row r="555" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C554" s="22"/>
+    </row>
+    <row r="555" spans="1:3" ht="15.75" thickBot="1">
       <c r="A555" s="22"/>
-    </row>
-    <row r="556" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C555" s="22"/>
+    </row>
+    <row r="556" spans="1:3" ht="15.75" thickBot="1">
       <c r="A556" s="22"/>
-    </row>
-    <row r="557" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C556" s="22"/>
+    </row>
+    <row r="557" spans="1:3" ht="15.75" thickBot="1">
       <c r="A557" s="22"/>
-    </row>
-    <row r="558" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C557" s="22"/>
+    </row>
+    <row r="558" spans="1:3" ht="15.75" thickBot="1">
       <c r="A558" s="22"/>
-    </row>
-    <row r="559" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C558" s="22"/>
+    </row>
+    <row r="559" spans="1:3" ht="15.75" thickBot="1">
       <c r="A559" s="22"/>
-    </row>
-    <row r="560" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C559" s="22"/>
+    </row>
+    <row r="560" spans="1:3" ht="15.75" thickBot="1">
       <c r="A560" s="22"/>
-    </row>
-    <row r="561" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C560" s="22"/>
+    </row>
+    <row r="561" spans="1:3" ht="15.75" thickBot="1">
       <c r="A561" s="22"/>
-    </row>
-    <row r="562" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C561" s="22"/>
+    </row>
+    <row r="562" spans="1:3" ht="15.75" thickBot="1">
       <c r="A562" s="22"/>
-    </row>
-    <row r="563" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C562" s="22"/>
+    </row>
+    <row r="563" spans="1:3" ht="15.75" thickBot="1">
       <c r="A563" s="22"/>
-    </row>
-    <row r="564" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C563" s="22"/>
+    </row>
+    <row r="564" spans="1:3" ht="15.75" thickBot="1">
       <c r="A564" s="22"/>
-    </row>
-    <row r="565" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C564" s="22"/>
+    </row>
+    <row r="565" spans="1:3" ht="15.75" thickBot="1">
       <c r="A565" s="22"/>
-    </row>
-    <row r="566" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C565" s="22"/>
+    </row>
+    <row r="566" spans="1:3" ht="15.75" thickBot="1">
       <c r="A566" s="22"/>
-    </row>
-    <row r="567" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C566" s="22"/>
+    </row>
+    <row r="567" spans="1:3" ht="15.75" thickBot="1">
       <c r="A567" s="22"/>
-    </row>
-    <row r="568" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C567" s="22"/>
+    </row>
+    <row r="568" spans="1:3" ht="15.75" thickBot="1">
       <c r="A568" s="22"/>
-    </row>
-    <row r="569" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C568" s="22"/>
+    </row>
+    <row r="569" spans="1:3" ht="15.75" thickBot="1">
       <c r="A569" s="22"/>
-    </row>
-    <row r="570" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C569" s="22"/>
+    </row>
+    <row r="570" spans="1:3" ht="15.75" thickBot="1">
       <c r="A570" s="22"/>
-    </row>
-    <row r="571" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C570" s="22"/>
+    </row>
+    <row r="571" spans="1:3" ht="15.75" thickBot="1">
       <c r="A571" s="22"/>
-    </row>
-    <row r="572" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C571" s="22"/>
+    </row>
+    <row r="572" spans="1:3" ht="15.75" thickBot="1">
       <c r="A572" s="22"/>
-    </row>
-    <row r="573" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C572" s="22"/>
+    </row>
+    <row r="573" spans="1:3" ht="15.75" thickBot="1">
       <c r="A573" s="22"/>
-    </row>
-    <row r="574" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C573" s="22"/>
+    </row>
+    <row r="574" spans="1:3" ht="15.75" thickBot="1">
       <c r="A574" s="22"/>
-    </row>
-    <row r="575" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C574" s="22"/>
+    </row>
+    <row r="575" spans="1:3" ht="15.75" thickBot="1">
       <c r="A575" s="22"/>
-    </row>
-    <row r="576" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C575" s="22"/>
+    </row>
+    <row r="576" spans="1:3" ht="15.75" thickBot="1">
       <c r="A576" s="22"/>
-    </row>
-    <row r="577" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C576" s="22"/>
+    </row>
+    <row r="577" spans="1:3" ht="15.75" thickBot="1">
       <c r="A577" s="22"/>
-    </row>
-    <row r="578" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C577" s="22"/>
+    </row>
+    <row r="578" spans="1:3" ht="15.75" thickBot="1">
       <c r="A578" s="22"/>
-    </row>
-    <row r="579" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C578" s="22"/>
+    </row>
+    <row r="579" spans="1:3" ht="15.75" thickBot="1">
       <c r="A579" s="22"/>
-    </row>
-    <row r="580" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C579" s="22"/>
+    </row>
+    <row r="580" spans="1:3" ht="15.75" thickBot="1">
       <c r="A580" s="22"/>
-    </row>
-    <row r="581" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C580" s="22"/>
+    </row>
+    <row r="581" spans="1:3" ht="15.75" thickBot="1">
       <c r="A581" s="22"/>
-    </row>
-    <row r="582" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C581" s="22"/>
+    </row>
+    <row r="582" spans="1:3" ht="15.75" thickBot="1">
       <c r="A582" s="22"/>
-    </row>
-    <row r="583" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C582" s="22"/>
+    </row>
+    <row r="583" spans="1:3" ht="15.75" thickBot="1">
       <c r="A583" s="22"/>
-    </row>
-    <row r="584" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C583" s="22"/>
+    </row>
+    <row r="584" spans="1:3" ht="15.75" thickBot="1">
       <c r="A584" s="22"/>
-    </row>
-    <row r="585" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C584" s="22"/>
+    </row>
+    <row r="585" spans="1:3" ht="15.75" thickBot="1">
       <c r="A585" s="22"/>
-    </row>
-    <row r="586" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C585" s="22"/>
+    </row>
+    <row r="586" spans="1:3" ht="15.75" thickBot="1">
       <c r="A586" s="22"/>
-    </row>
-    <row r="587" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C586" s="22"/>
+    </row>
+    <row r="587" spans="1:3" ht="15.75" thickBot="1">
       <c r="A587" s="22"/>
-    </row>
-    <row r="588" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C587" s="22"/>
+    </row>
+    <row r="588" spans="1:3" ht="15.75" thickBot="1">
       <c r="A588" s="22"/>
-    </row>
-    <row r="589" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C588" s="22"/>
+    </row>
+    <row r="589" spans="1:3" ht="15.75" thickBot="1">
       <c r="A589" s="22"/>
-    </row>
-    <row r="590" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C589" s="22"/>
+    </row>
+    <row r="590" spans="1:3" ht="15.75" thickBot="1">
       <c r="A590" s="22"/>
-    </row>
-    <row r="591" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C590" s="22"/>
+    </row>
+    <row r="591" spans="1:3" ht="15.75" thickBot="1">
       <c r="A591" s="22"/>
-    </row>
-    <row r="592" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C591" s="22"/>
+    </row>
+    <row r="592" spans="1:3" ht="15.75" thickBot="1">
       <c r="A592" s="22"/>
-    </row>
-    <row r="593" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C592" s="22"/>
+    </row>
+    <row r="593" spans="1:3" ht="15.75" thickBot="1">
       <c r="A593" s="22"/>
-    </row>
-    <row r="594" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C593" s="22"/>
+    </row>
+    <row r="594" spans="1:3" ht="15.75" thickBot="1">
       <c r="A594" s="22"/>
-    </row>
-    <row r="595" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C594" s="22"/>
+    </row>
+    <row r="595" spans="1:3" ht="15.75" thickBot="1">
       <c r="A595" s="22"/>
-    </row>
-    <row r="596" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C595" s="22"/>
+    </row>
+    <row r="596" spans="1:3" ht="15.75" thickBot="1">
       <c r="A596" s="22"/>
-    </row>
-    <row r="597" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C596" s="22"/>
+    </row>
+    <row r="597" spans="1:3" ht="15.75" thickBot="1">
       <c r="A597" s="22"/>
-    </row>
-    <row r="598" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C597" s="22"/>
+    </row>
+    <row r="598" spans="1:3" ht="15.75" thickBot="1">
       <c r="A598" s="22"/>
-    </row>
-    <row r="599" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C598" s="22"/>
+    </row>
+    <row r="599" spans="1:3" ht="15.75" thickBot="1">
       <c r="A599" s="22"/>
-    </row>
-    <row r="600" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C599" s="22"/>
+    </row>
+    <row r="600" spans="1:3" ht="15.75" thickBot="1">
       <c r="A600" s="22"/>
-    </row>
-    <row r="601" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C600" s="22"/>
+    </row>
+    <row r="601" spans="1:3" ht="15.75" thickBot="1">
       <c r="A601" s="22"/>
-    </row>
-    <row r="602" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C601" s="22"/>
+    </row>
+    <row r="602" spans="1:3" ht="15.75" thickBot="1">
       <c r="A602" s="22"/>
-    </row>
-    <row r="603" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C602" s="22"/>
+    </row>
+    <row r="603" spans="1:3" ht="15.75" thickBot="1">
       <c r="A603" s="22"/>
-    </row>
-    <row r="604" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C603" s="22"/>
+    </row>
+    <row r="604" spans="1:3" ht="15.75" thickBot="1">
       <c r="A604" s="22"/>
-    </row>
-    <row r="605" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C604" s="22"/>
+    </row>
+    <row r="605" spans="1:3" ht="15.75" thickBot="1">
       <c r="A605" s="22"/>
-    </row>
-    <row r="606" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C605" s="22"/>
+    </row>
+    <row r="606" spans="1:3" ht="15.75" thickBot="1">
       <c r="A606" s="22"/>
-    </row>
-    <row r="607" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C606" s="22"/>
+    </row>
+    <row r="607" spans="1:3" ht="15.75" thickBot="1">
       <c r="A607" s="22"/>
-    </row>
-    <row r="608" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C607" s="22"/>
+    </row>
+    <row r="608" spans="1:3" ht="15.75" thickBot="1">
       <c r="A608" s="22"/>
-    </row>
-    <row r="609" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C608" s="22"/>
+    </row>
+    <row r="609" spans="1:3" ht="15.75" thickBot="1">
       <c r="A609" s="22"/>
-    </row>
-    <row r="610" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C609" s="22"/>
+    </row>
+    <row r="610" spans="1:3" ht="15.75" thickBot="1">
       <c r="A610" s="22"/>
-    </row>
-    <row r="611" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C610" s="22"/>
+    </row>
+    <row r="611" spans="1:3" ht="15.75" thickBot="1">
       <c r="A611" s="22"/>
-    </row>
-    <row r="612" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C611" s="22"/>
+    </row>
+    <row r="612" spans="1:3" ht="15.75" thickBot="1">
       <c r="A612" s="22"/>
-    </row>
-    <row r="613" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C612" s="22"/>
+    </row>
+    <row r="613" spans="1:3" ht="15.75" thickBot="1">
       <c r="A613" s="22"/>
-    </row>
-    <row r="614" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C613" s="22"/>
+    </row>
+    <row r="614" spans="1:3" ht="15.75" thickBot="1">
       <c r="A614" s="22"/>
-    </row>
-    <row r="615" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C614" s="22"/>
+    </row>
+    <row r="615" spans="1:3" ht="15.75" thickBot="1">
       <c r="A615" s="22"/>
-    </row>
-    <row r="616" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C615" s="22"/>
+    </row>
+    <row r="616" spans="1:3" ht="15.75" thickBot="1">
       <c r="A616" s="22"/>
-    </row>
-    <row r="617" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C616" s="22"/>
+    </row>
+    <row r="617" spans="1:3" ht="15.75" thickBot="1">
       <c r="A617" s="22"/>
-    </row>
-    <row r="618" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C617" s="22"/>
+    </row>
+    <row r="618" spans="1:3" ht="15.75" thickBot="1">
       <c r="A618" s="22"/>
-    </row>
-    <row r="619" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C618" s="22"/>
+    </row>
+    <row r="619" spans="1:3" ht="15.75" thickBot="1">
       <c r="A619" s="22"/>
-    </row>
-    <row r="620" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C619" s="22"/>
+    </row>
+    <row r="620" spans="1:3" ht="15.75" thickBot="1">
       <c r="A620" s="22"/>
-    </row>
-    <row r="621" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C620" s="22"/>
+    </row>
+    <row r="621" spans="1:3" ht="15.75" thickBot="1">
       <c r="A621" s="22"/>
-    </row>
-    <row r="622" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C621" s="22"/>
+    </row>
+    <row r="622" spans="1:3" ht="15.75" thickBot="1">
       <c r="A622" s="22"/>
-    </row>
-    <row r="623" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C622" s="22"/>
+    </row>
+    <row r="623" spans="1:3" ht="15.75" thickBot="1">
       <c r="A623" s="22"/>
-    </row>
-    <row r="624" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C623" s="22"/>
+    </row>
+    <row r="624" spans="1:3" ht="15.75" thickBot="1">
       <c r="A624" s="22"/>
-    </row>
-    <row r="625" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C624" s="22"/>
+    </row>
+    <row r="625" spans="1:3" ht="15.75" thickBot="1">
       <c r="A625" s="22"/>
-    </row>
-    <row r="626" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C625" s="22"/>
+    </row>
+    <row r="626" spans="1:3" ht="15.75" thickBot="1">
       <c r="A626" s="22"/>
-    </row>
-    <row r="627" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C626" s="22"/>
+    </row>
+    <row r="627" spans="1:3" ht="15.75" thickBot="1">
       <c r="A627" s="22"/>
-    </row>
-    <row r="628" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C627" s="22"/>
+    </row>
+    <row r="628" spans="1:3" ht="15.75" thickBot="1">
       <c r="A628" s="22"/>
-    </row>
-    <row r="629" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C628" s="22"/>
+    </row>
+    <row r="629" spans="1:3" ht="15.75" thickBot="1">
       <c r="A629" s="22"/>
-    </row>
-    <row r="630" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C629" s="22"/>
+    </row>
+    <row r="630" spans="1:3" ht="15.75" thickBot="1">
       <c r="A630" s="22"/>
-    </row>
-    <row r="631" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C630" s="22"/>
+    </row>
+    <row r="631" spans="1:3" ht="15.75" thickBot="1">
       <c r="A631" s="22"/>
-    </row>
-    <row r="632" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C631" s="22"/>
+    </row>
+    <row r="632" spans="1:3" ht="15.75" thickBot="1">
       <c r="A632" s="22"/>
-    </row>
-    <row r="633" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C632" s="22"/>
+    </row>
+    <row r="633" spans="1:3" ht="15.75" thickBot="1">
       <c r="A633" s="22"/>
-    </row>
-    <row r="634" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C633" s="22"/>
+    </row>
+    <row r="634" spans="1:3" ht="15.75" thickBot="1">
       <c r="A634" s="22"/>
-    </row>
-    <row r="635" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C634" s="22"/>
+    </row>
+    <row r="635" spans="1:3" ht="15.75" thickBot="1">
       <c r="A635" s="22"/>
-    </row>
-    <row r="636" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C635" s="22"/>
+    </row>
+    <row r="636" spans="1:3" ht="15.75" thickBot="1">
       <c r="A636" s="22"/>
-    </row>
-    <row r="637" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C636" s="22"/>
+    </row>
+    <row r="637" spans="1:3" ht="15.75" thickBot="1">
       <c r="A637" s="22"/>
-    </row>
-    <row r="638" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C637" s="22"/>
+    </row>
+    <row r="638" spans="1:3" ht="15.75" thickBot="1">
       <c r="A638" s="22"/>
-    </row>
-    <row r="639" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C638" s="22"/>
+    </row>
+    <row r="639" spans="1:3" ht="15.75" thickBot="1">
       <c r="A639" s="22"/>
-    </row>
-    <row r="640" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C639" s="22"/>
+    </row>
+    <row r="640" spans="1:3" ht="15.75" thickBot="1">
       <c r="A640" s="22"/>
-    </row>
-    <row r="641" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C640" s="22"/>
+    </row>
+    <row r="641" spans="1:3" ht="15.75" thickBot="1">
       <c r="A641" s="22"/>
-    </row>
-    <row r="642" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C641" s="22"/>
+    </row>
+    <row r="642" spans="1:3" ht="15.75" thickBot="1">
       <c r="A642" s="22"/>
-    </row>
-    <row r="643" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C642" s="22"/>
+    </row>
+    <row r="643" spans="1:3" ht="15.75" thickBot="1">
       <c r="A643" s="22"/>
-    </row>
-    <row r="644" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C643" s="22"/>
+    </row>
+    <row r="644" spans="1:3" ht="15.75" thickBot="1">
       <c r="A644" s="22"/>
-    </row>
-    <row r="645" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C644" s="22"/>
+    </row>
+    <row r="645" spans="1:3" ht="15.75" thickBot="1">
       <c r="A645" s="22"/>
-    </row>
-    <row r="646" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C645" s="22"/>
+    </row>
+    <row r="646" spans="1:3" ht="15.75" thickBot="1">
       <c r="A646" s="22"/>
-    </row>
-    <row r="647" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C646" s="22"/>
+    </row>
+    <row r="647" spans="1:3" ht="15.75" thickBot="1">
       <c r="A647" s="22"/>
-    </row>
-    <row r="648" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C647" s="22"/>
+    </row>
+    <row r="648" spans="1:3" ht="15.75" thickBot="1">
       <c r="A648" s="22"/>
-    </row>
-    <row r="649" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C648" s="22"/>
+    </row>
+    <row r="649" spans="1:3" ht="15.75" thickBot="1">
       <c r="A649" s="22"/>
-    </row>
-    <row r="650" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C649" s="22"/>
+    </row>
+    <row r="650" spans="1:3" ht="15.75" thickBot="1">
       <c r="A650" s="22"/>
-    </row>
-    <row r="651" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C650" s="22"/>
+    </row>
+    <row r="651" spans="1:3" ht="15.75" thickBot="1">
       <c r="A651" s="22"/>
-    </row>
-    <row r="652" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C651" s="22"/>
+    </row>
+    <row r="652" spans="1:3" ht="15.75" thickBot="1">
       <c r="A652" s="22"/>
-    </row>
-    <row r="653" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C652" s="22"/>
+    </row>
+    <row r="653" spans="1:3" ht="15.75" thickBot="1">
       <c r="A653" s="22"/>
-    </row>
-    <row r="654" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C653" s="22"/>
+    </row>
+    <row r="654" spans="1:3" ht="15.75" thickBot="1">
       <c r="A654" s="22"/>
-    </row>
-    <row r="655" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C654" s="22"/>
+    </row>
+    <row r="655" spans="1:3" ht="15.75" thickBot="1">
       <c r="A655" s="22"/>
-    </row>
-    <row r="656" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C655" s="22"/>
+    </row>
+    <row r="656" spans="1:3" ht="15.75" thickBot="1">
       <c r="A656" s="22"/>
-    </row>
-    <row r="657" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C656" s="22"/>
+    </row>
+    <row r="657" spans="1:3" ht="15.75" thickBot="1">
       <c r="A657" s="22"/>
-    </row>
-    <row r="658" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C657" s="22"/>
+    </row>
+    <row r="658" spans="1:3" ht="15.75" thickBot="1">
       <c r="A658" s="22"/>
-    </row>
-    <row r="659" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C658" s="22"/>
+    </row>
+    <row r="659" spans="1:3" ht="15.75" thickBot="1">
       <c r="A659" s="22"/>
-    </row>
-    <row r="660" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C659" s="22"/>
+    </row>
+    <row r="660" spans="1:3" ht="15.75" thickBot="1">
       <c r="A660" s="22"/>
-    </row>
-    <row r="661" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C660" s="22"/>
+    </row>
+    <row r="661" spans="1:3" ht="15.75" thickBot="1">
       <c r="A661" s="22"/>
-    </row>
-    <row r="662" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C661" s="22"/>
+    </row>
+    <row r="662" spans="1:3" ht="15.75" thickBot="1">
       <c r="A662" s="22"/>
-    </row>
-    <row r="663" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C662" s="22"/>
+    </row>
+    <row r="663" spans="1:3" ht="15.75" thickBot="1">
       <c r="A663" s="22"/>
-    </row>
-    <row r="664" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C663" s="22"/>
+    </row>
+    <row r="664" spans="1:3" ht="15.75" thickBot="1">
       <c r="A664" s="22"/>
-    </row>
-    <row r="665" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C664" s="22"/>
+    </row>
+    <row r="665" spans="1:3" ht="15.75" thickBot="1">
       <c r="A665" s="22"/>
-    </row>
-    <row r="666" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C665" s="22"/>
+    </row>
+    <row r="666" spans="1:3" ht="15.75" thickBot="1">
       <c r="A666" s="22"/>
-    </row>
-    <row r="667" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C666" s="22"/>
+    </row>
+    <row r="667" spans="1:3" ht="15.75" thickBot="1">
       <c r="A667" s="22"/>
-    </row>
-    <row r="668" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C667" s="22"/>
+    </row>
+    <row r="668" spans="1:3" ht="15.75" thickBot="1">
       <c r="A668" s="22"/>
-    </row>
-    <row r="669" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C668" s="22"/>
+    </row>
+    <row r="669" spans="1:3" ht="15.75" thickBot="1">
       <c r="A669" s="22"/>
-    </row>
-    <row r="670" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C669" s="22"/>
+    </row>
+    <row r="670" spans="1:3" ht="15.75" thickBot="1">
       <c r="A670" s="22"/>
-    </row>
-    <row r="671" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C670" s="22"/>
+    </row>
+    <row r="671" spans="1:3" ht="15.75" thickBot="1">
       <c r="A671" s="22"/>
-    </row>
-    <row r="672" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C671" s="22"/>
+    </row>
+    <row r="672" spans="1:3" ht="15.75" thickBot="1">
       <c r="A672" s="22"/>
-    </row>
-    <row r="673" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C672" s="22"/>
+    </row>
+    <row r="673" spans="1:3" ht="15.75" thickBot="1">
       <c r="A673" s="22"/>
-    </row>
-    <row r="674" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C673" s="22"/>
+    </row>
+    <row r="674" spans="1:3" ht="15.75" thickBot="1">
       <c r="A674" s="22"/>
-    </row>
-    <row r="675" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C674" s="22"/>
+    </row>
+    <row r="675" spans="1:3" ht="15.75" thickBot="1">
       <c r="A675" s="22"/>
-    </row>
-    <row r="676" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C675" s="22"/>
+    </row>
+    <row r="676" spans="1:3" ht="15.75" thickBot="1">
       <c r="A676" s="22"/>
-    </row>
-    <row r="677" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C676" s="22"/>
+    </row>
+    <row r="677" spans="1:3" ht="15.75" thickBot="1">
       <c r="A677" s="22"/>
-    </row>
-    <row r="678" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C677" s="22"/>
+    </row>
+    <row r="678" spans="1:3" ht="15.75" thickBot="1">
       <c r="A678" s="22"/>
-    </row>
-    <row r="679" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C678" s="22"/>
+    </row>
+    <row r="679" spans="1:3" ht="15.75" thickBot="1">
       <c r="A679" s="22"/>
-    </row>
-    <row r="680" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C679" s="22"/>
+    </row>
+    <row r="680" spans="1:3" ht="15.75" thickBot="1">
       <c r="A680" s="22"/>
-    </row>
-    <row r="681" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C680" s="22"/>
+    </row>
+    <row r="681" spans="1:3" ht="15.75" thickBot="1">
       <c r="A681" s="22"/>
-    </row>
-    <row r="682" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C681" s="22"/>
+    </row>
+    <row r="682" spans="1:3" ht="15.75" thickBot="1">
       <c r="A682" s="22"/>
-    </row>
-    <row r="683" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C682" s="22"/>
+    </row>
+    <row r="683" spans="1:3" ht="15.75" thickBot="1">
       <c r="A683" s="22"/>
-    </row>
-    <row r="684" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C683" s="22"/>
+    </row>
+    <row r="684" spans="1:3" ht="15.75" thickBot="1">
       <c r="A684" s="22"/>
-    </row>
-    <row r="685" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C684" s="22"/>
+    </row>
+    <row r="685" spans="1:3" ht="15.75" thickBot="1">
       <c r="A685" s="22"/>
-    </row>
-    <row r="686" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C685" s="22"/>
+    </row>
+    <row r="686" spans="1:3" ht="15.75" thickBot="1">
       <c r="A686" s="22"/>
-    </row>
-    <row r="687" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C686" s="22"/>
+    </row>
+    <row r="687" spans="1:3" ht="15.75" thickBot="1">
       <c r="A687" s="22"/>
-    </row>
-    <row r="688" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C687" s="22"/>
+    </row>
+    <row r="688" spans="1:3" ht="15.75" thickBot="1">
       <c r="A688" s="22"/>
-    </row>
-    <row r="689" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C688" s="22"/>
+    </row>
+    <row r="689" spans="1:3" ht="15.75" thickBot="1">
       <c r="A689" s="22"/>
-    </row>
-    <row r="690" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C689" s="22"/>
+    </row>
+    <row r="690" spans="1:3" ht="15.75" thickBot="1">
       <c r="A690" s="22"/>
-    </row>
-    <row r="691" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C690" s="22"/>
+    </row>
+    <row r="691" spans="1:3" ht="15.75" thickBot="1">
       <c r="A691" s="22"/>
-    </row>
-    <row r="692" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C691" s="22"/>
+    </row>
+    <row r="692" spans="1:3" ht="15.75" thickBot="1">
       <c r="A692" s="22"/>
-    </row>
-    <row r="693" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C692" s="22"/>
+    </row>
+    <row r="693" spans="1:3" ht="15.75" thickBot="1">
       <c r="A693" s="22"/>
-    </row>
-    <row r="694" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C693" s="22"/>
+    </row>
+    <row r="694" spans="1:3" ht="15.75" thickBot="1">
       <c r="A694" s="22"/>
-    </row>
-    <row r="695" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C694" s="22"/>
+    </row>
+    <row r="695" spans="1:3" ht="15.75" thickBot="1">
       <c r="A695" s="22"/>
-    </row>
-    <row r="696" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C695" s="22"/>
+    </row>
+    <row r="696" spans="1:3" ht="15.75" thickBot="1">
       <c r="A696" s="22"/>
-    </row>
-    <row r="697" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C696" s="22"/>
+    </row>
+    <row r="697" spans="1:3" ht="15.75" thickBot="1">
       <c r="A697" s="22"/>
-    </row>
-    <row r="698" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C697" s="22"/>
+    </row>
+    <row r="698" spans="1:3" ht="15.75" thickBot="1">
       <c r="A698" s="22"/>
-    </row>
-    <row r="699" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C698" s="22"/>
+    </row>
+    <row r="699" spans="1:3" ht="15.75" thickBot="1">
       <c r="A699" s="22"/>
-    </row>
-    <row r="700" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C699" s="22"/>
+    </row>
+    <row r="700" spans="1:3" ht="15.75" thickBot="1">
       <c r="A700" s="22"/>
-    </row>
-    <row r="701" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C700" s="22"/>
+    </row>
+    <row r="701" spans="1:3" ht="15.75" thickBot="1">
       <c r="A701" s="22"/>
-    </row>
-    <row r="702" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C701" s="22"/>
+    </row>
+    <row r="702" spans="1:3" ht="15.75" thickBot="1">
       <c r="A702" s="22"/>
-    </row>
-    <row r="703" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C702" s="22"/>
+    </row>
+    <row r="703" spans="1:3" ht="15.75" thickBot="1">
       <c r="A703" s="22"/>
-    </row>
-    <row r="704" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C703" s="22"/>
+    </row>
+    <row r="704" spans="1:3" ht="15.75" thickBot="1">
       <c r="A704" s="22"/>
-    </row>
-    <row r="705" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C704" s="22"/>
+    </row>
+    <row r="705" spans="1:3" ht="15.75" thickBot="1">
       <c r="A705" s="22"/>
-    </row>
-    <row r="706" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C705" s="22"/>
+    </row>
+    <row r="706" spans="1:3" ht="15.75" thickBot="1">
       <c r="A706" s="22"/>
-    </row>
-    <row r="707" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C706" s="22"/>
+    </row>
+    <row r="707" spans="1:3" ht="15.75" thickBot="1">
       <c r="A707" s="22"/>
-    </row>
-    <row r="708" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C707" s="22"/>
+    </row>
+    <row r="708" spans="1:3" ht="15.75" thickBot="1">
       <c r="A708" s="22"/>
-    </row>
-    <row r="709" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C708" s="22"/>
+    </row>
+    <row r="709" spans="1:3" ht="15.75" thickBot="1">
       <c r="A709" s="22"/>
-    </row>
-    <row r="710" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C709" s="22"/>
+    </row>
+    <row r="710" spans="1:3" ht="15.75" thickBot="1">
       <c r="A710" s="22"/>
-    </row>
-    <row r="711" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C710" s="22"/>
+    </row>
+    <row r="711" spans="1:3" ht="15.75" thickBot="1">
       <c r="A711" s="22"/>
-    </row>
-    <row r="712" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C711" s="22"/>
+    </row>
+    <row r="712" spans="1:3" ht="15.75" thickBot="1">
       <c r="A712" s="22"/>
-    </row>
-    <row r="713" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C712" s="22"/>
+    </row>
+    <row r="713" spans="1:3" ht="15.75" thickBot="1">
       <c r="A713" s="22"/>
-    </row>
-    <row r="714" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C713" s="22"/>
+    </row>
+    <row r="714" spans="1:3" ht="15.75" thickBot="1">
       <c r="A714" s="22"/>
-    </row>
-    <row r="715" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C714" s="22"/>
+    </row>
+    <row r="715" spans="1:3" ht="15.75" thickBot="1">
       <c r="A715" s="22"/>
-    </row>
-    <row r="716" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C715" s="22"/>
+    </row>
+    <row r="716" spans="1:3" ht="15.75" thickBot="1">
       <c r="A716" s="22"/>
-    </row>
-    <row r="717" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C716" s="22"/>
+    </row>
+    <row r="717" spans="1:3" ht="15.75" thickBot="1">
       <c r="A717" s="22"/>
-    </row>
-    <row r="718" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C717" s="22"/>
+    </row>
+    <row r="718" spans="1:3" ht="15.75" thickBot="1">
       <c r="A718" s="22"/>
-    </row>
-    <row r="719" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C718" s="22"/>
+    </row>
+    <row r="719" spans="1:3" ht="15.75" thickBot="1">
       <c r="A719" s="22"/>
-    </row>
-    <row r="720" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C719" s="22"/>
+    </row>
+    <row r="720" spans="1:3" ht="15.75" thickBot="1">
       <c r="A720" s="22"/>
-    </row>
-    <row r="721" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C720" s="22"/>
+    </row>
+    <row r="721" spans="1:3" ht="15.75" thickBot="1">
       <c r="A721" s="22"/>
-    </row>
-    <row r="722" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C721" s="22"/>
+    </row>
+    <row r="722" spans="1:3" ht="15.75" thickBot="1">
       <c r="A722" s="22"/>
-    </row>
-    <row r="723" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C722" s="22"/>
+    </row>
+    <row r="723" spans="1:3" ht="15.75" thickBot="1">
       <c r="A723" s="22"/>
-    </row>
-    <row r="724" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C723" s="22"/>
+    </row>
+    <row r="724" spans="1:3" ht="15.75" thickBot="1">
       <c r="A724" s="22"/>
-    </row>
-    <row r="725" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C724" s="22"/>
+    </row>
+    <row r="725" spans="1:3" ht="15.75" thickBot="1">
       <c r="A725" s="22"/>
-    </row>
-    <row r="726" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C725" s="22"/>
+    </row>
+    <row r="726" spans="1:3" ht="15.75" thickBot="1">
       <c r="A726" s="22"/>
-    </row>
-    <row r="727" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C726" s="22"/>
+    </row>
+    <row r="727" spans="1:3" ht="15.75" thickBot="1">
       <c r="A727" s="22"/>
-    </row>
-    <row r="728" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C727" s="22"/>
+    </row>
+    <row r="728" spans="1:3" ht="15.75" thickBot="1">
       <c r="A728" s="22"/>
-    </row>
-    <row r="729" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C728" s="22"/>
+    </row>
+    <row r="729" spans="1:3" ht="15.75" thickBot="1">
       <c r="A729" s="22"/>
-    </row>
-    <row r="730" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C729" s="22"/>
+    </row>
+    <row r="730" spans="1:3" ht="15.75" thickBot="1">
       <c r="A730" s="22"/>
-    </row>
-    <row r="731" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C730" s="22"/>
+    </row>
+    <row r="731" spans="1:3" ht="15.75" thickBot="1">
       <c r="A731" s="22"/>
-    </row>
-    <row r="732" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C731" s="22"/>
+    </row>
+    <row r="732" spans="1:3" ht="15.75" thickBot="1">
       <c r="A732" s="22"/>
-    </row>
-    <row r="733" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C732" s="22"/>
+    </row>
+    <row r="733" spans="1:3" ht="15.75" thickBot="1">
       <c r="A733" s="22"/>
-    </row>
-    <row r="734" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C733" s="22"/>
+    </row>
+    <row r="734" spans="1:3" ht="15.75" thickBot="1">
       <c r="A734" s="22"/>
-    </row>
-    <row r="735" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C734" s="22"/>
+    </row>
+    <row r="735" spans="1:3" ht="15.75" thickBot="1">
       <c r="A735" s="22"/>
-    </row>
-    <row r="736" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C735" s="22"/>
+    </row>
+    <row r="736" spans="1:3" ht="15.75" thickBot="1">
       <c r="A736" s="22"/>
-    </row>
-    <row r="737" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C736" s="22"/>
+    </row>
+    <row r="737" spans="1:3" ht="15.75" thickBot="1">
       <c r="A737" s="22"/>
-    </row>
-    <row r="738" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C737" s="22"/>
+    </row>
+    <row r="738" spans="1:3" ht="15.75" thickBot="1">
       <c r="A738" s="22"/>
-    </row>
-    <row r="739" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C738" s="22"/>
+    </row>
+    <row r="739" spans="1:3" ht="15.75" thickBot="1">
       <c r="A739" s="22"/>
-    </row>
-    <row r="740" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C739" s="22"/>
+    </row>
+    <row r="740" spans="1:3" ht="15.75" thickBot="1">
       <c r="A740" s="22"/>
-    </row>
-    <row r="741" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C740" s="22"/>
+    </row>
+    <row r="741" spans="1:3" ht="15.75" thickBot="1">
       <c r="A741" s="22"/>
-    </row>
-    <row r="742" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C741" s="22"/>
+    </row>
+    <row r="742" spans="1:3" ht="15.75" thickBot="1">
       <c r="A742" s="22"/>
-    </row>
-    <row r="743" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C742" s="22"/>
+    </row>
+    <row r="743" spans="1:3" ht="15.75" thickBot="1">
       <c r="A743" s="22"/>
-    </row>
-    <row r="744" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C743" s="22"/>
+    </row>
+    <row r="744" spans="1:3" ht="15.75" thickBot="1">
       <c r="A744" s="22"/>
-    </row>
-    <row r="745" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C744" s="22"/>
+    </row>
+    <row r="745" spans="1:3" ht="15.75" thickBot="1">
       <c r="A745" s="22"/>
-    </row>
-    <row r="746" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C745" s="22"/>
+    </row>
+    <row r="746" spans="1:3" ht="15.75" thickBot="1">
       <c r="A746" s="22"/>
-    </row>
-    <row r="747" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C746" s="22"/>
+    </row>
+    <row r="747" spans="1:3" ht="15.75" thickBot="1">
       <c r="A747" s="22"/>
-    </row>
-    <row r="748" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C747" s="22"/>
+    </row>
+    <row r="748" spans="1:3" ht="15.75" thickBot="1">
       <c r="A748" s="22"/>
-    </row>
-    <row r="749" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C748" s="22"/>
+    </row>
+    <row r="749" spans="1:3" ht="15.75" thickBot="1">
       <c r="A749" s="22"/>
-    </row>
-    <row r="750" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C749" s="22"/>
+    </row>
+    <row r="750" spans="1:3" ht="15.75" thickBot="1">
       <c r="A750" s="22"/>
-    </row>
-    <row r="751" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C750" s="22"/>
+    </row>
+    <row r="751" spans="1:3" ht="15.75" thickBot="1">
       <c r="A751" s="22"/>
-    </row>
-    <row r="752" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C751" s="22"/>
+    </row>
+    <row r="752" spans="1:3" ht="15.75" thickBot="1">
       <c r="A752" s="22"/>
-    </row>
-    <row r="753" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C752" s="22"/>
+    </row>
+    <row r="753" spans="1:3" ht="15.75" thickBot="1">
       <c r="A753" s="22"/>
-    </row>
-    <row r="754" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C753" s="22"/>
+    </row>
+    <row r="754" spans="1:3" ht="15.75" thickBot="1">
       <c r="A754" s="22"/>
-    </row>
-    <row r="755" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C754" s="22"/>
+    </row>
+    <row r="755" spans="1:3" ht="15.75" thickBot="1">
       <c r="A755" s="22"/>
-    </row>
-    <row r="756" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C755" s="22"/>
+    </row>
+    <row r="756" spans="1:3" ht="15.75" thickBot="1">
       <c r="A756" s="22"/>
-    </row>
-    <row r="757" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C756" s="22"/>
+    </row>
+    <row r="757" spans="1:3" ht="15.75" thickBot="1">
       <c r="A757" s="22"/>
-    </row>
-    <row r="758" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C757" s="22"/>
+    </row>
+    <row r="758" spans="1:3" ht="15.75" thickBot="1">
       <c r="A758" s="22"/>
-    </row>
-    <row r="759" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C758" s="22"/>
+    </row>
+    <row r="759" spans="1:3" ht="15.75" thickBot="1">
       <c r="A759" s="22"/>
-    </row>
-    <row r="760" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C759" s="22"/>
+    </row>
+    <row r="760" spans="1:3" ht="15.75" thickBot="1">
       <c r="A760" s="22"/>
-    </row>
-    <row r="761" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C760" s="22"/>
+    </row>
+    <row r="761" spans="1:3" ht="15.75" thickBot="1">
       <c r="A761" s="22"/>
-    </row>
-    <row r="762" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C761" s="22"/>
+    </row>
+    <row r="762" spans="1:3" ht="15.75" thickBot="1">
       <c r="A762" s="22"/>
-    </row>
-    <row r="763" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C762" s="22"/>
+    </row>
+    <row r="763" spans="1:3" ht="15.75" thickBot="1">
       <c r="A763" s="22"/>
-    </row>
-    <row r="764" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C763" s="22"/>
+    </row>
+    <row r="764" spans="1:3" ht="15.75" thickBot="1">
       <c r="A764" s="22"/>
-    </row>
-    <row r="765" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C764" s="22"/>
+    </row>
+    <row r="765" spans="1:3" ht="15.75" thickBot="1">
       <c r="A765" s="22"/>
-    </row>
-    <row r="766" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C765" s="22"/>
+    </row>
+    <row r="766" spans="1:3" ht="15.75" thickBot="1">
       <c r="A766" s="22"/>
-    </row>
-    <row r="767" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C766" s="22"/>
+    </row>
+    <row r="767" spans="1:3" ht="15.75" thickBot="1">
       <c r="A767" s="22"/>
-    </row>
-    <row r="768" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C767" s="22"/>
+    </row>
+    <row r="768" spans="1:3" ht="15.75" thickBot="1">
       <c r="A768" s="22"/>
-    </row>
-    <row r="769" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C768" s="22"/>
+    </row>
+    <row r="769" spans="1:3" ht="15.75" thickBot="1">
       <c r="A769" s="22"/>
-    </row>
-    <row r="770" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C769" s="22"/>
+    </row>
+    <row r="770" spans="1:3" ht="15.75" thickBot="1">
       <c r="A770" s="22"/>
-    </row>
-    <row r="771" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C770" s="22"/>
+    </row>
+    <row r="771" spans="1:3" ht="15.75" thickBot="1">
       <c r="A771" s="22"/>
-    </row>
-    <row r="772" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C771" s="22"/>
+    </row>
+    <row r="772" spans="1:3" ht="15.75" thickBot="1">
       <c r="A772" s="22"/>
-    </row>
-    <row r="773" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C772" s="22"/>
+    </row>
+    <row r="773" spans="1:3" ht="15.75" thickBot="1">
       <c r="A773" s="22"/>
-    </row>
-    <row r="774" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C773" s="22"/>
+    </row>
+    <row r="774" spans="1:3" ht="15.75" thickBot="1">
       <c r="A774" s="22"/>
-    </row>
-    <row r="775" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C774" s="22"/>
+    </row>
+    <row r="775" spans="1:3" ht="15.75" thickBot="1">
       <c r="A775" s="22"/>
-    </row>
-    <row r="776" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C775" s="22"/>
+    </row>
+    <row r="776" spans="1:3" ht="15.75" thickBot="1">
       <c r="A776" s="22"/>
-    </row>
-    <row r="777" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C776" s="22"/>
+    </row>
+    <row r="777" spans="1:3" ht="15.75" thickBot="1">
       <c r="A777" s="22"/>
-    </row>
-    <row r="778" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C777" s="22"/>
+    </row>
+    <row r="778" spans="1:3" ht="15.75" thickBot="1">
       <c r="A778" s="22"/>
-    </row>
-    <row r="779" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C778" s="22"/>
+    </row>
+    <row r="779" spans="1:3" ht="15.75" thickBot="1">
       <c r="A779" s="22"/>
-    </row>
-    <row r="780" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C779" s="22"/>
+    </row>
+    <row r="780" spans="1:3" ht="15.75" thickBot="1">
       <c r="A780" s="22"/>
-    </row>
-    <row r="781" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C780" s="22"/>
+    </row>
+    <row r="781" spans="1:3" ht="15.75" thickBot="1">
       <c r="A781" s="22"/>
-    </row>
-    <row r="782" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C781" s="22"/>
+    </row>
+    <row r="782" spans="1:3" ht="15.75" thickBot="1">
       <c r="A782" s="22"/>
-    </row>
-    <row r="783" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C782" s="22"/>
+    </row>
+    <row r="783" spans="1:3" ht="15.75" thickBot="1">
       <c r="A783" s="22"/>
-    </row>
-    <row r="784" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C783" s="22"/>
+    </row>
+    <row r="784" spans="1:3" ht="15.75" thickBot="1">
       <c r="A784" s="22"/>
-    </row>
-    <row r="785" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C784" s="22"/>
+    </row>
+    <row r="785" spans="1:3" ht="15.75" thickBot="1">
       <c r="A785" s="22"/>
-    </row>
-    <row r="786" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C785" s="22"/>
+    </row>
+    <row r="786" spans="1:3" ht="15.75" thickBot="1">
       <c r="A786" s="22"/>
-    </row>
-    <row r="787" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C786" s="22"/>
+    </row>
+    <row r="787" spans="1:3" ht="15.75" thickBot="1">
       <c r="A787" s="22"/>
-    </row>
-    <row r="788" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C787" s="22"/>
+    </row>
+    <row r="788" spans="1:3" ht="15.75" thickBot="1">
       <c r="A788" s="22"/>
-    </row>
-    <row r="789" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C788" s="22"/>
+    </row>
+    <row r="789" spans="1:3" ht="15.75" thickBot="1">
       <c r="A789" s="22"/>
-    </row>
-    <row r="790" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C789" s="22"/>
+    </row>
+    <row r="790" spans="1:3" ht="15.75" thickBot="1">
       <c r="A790" s="22"/>
-    </row>
-    <row r="791" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C790" s="22"/>
+    </row>
+    <row r="791" spans="1:3" ht="15.75" thickBot="1">
       <c r="A791" s="22"/>
-    </row>
-    <row r="792" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C791" s="22"/>
+    </row>
+    <row r="792" spans="1:3" ht="15.75" thickBot="1">
       <c r="A792" s="22"/>
-    </row>
-    <row r="793" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C792" s="22"/>
+    </row>
+    <row r="793" spans="1:3" ht="15.75" thickBot="1">
       <c r="A793" s="22"/>
-    </row>
-    <row r="794" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C793" s="22"/>
+    </row>
+    <row r="794" spans="1:3" ht="15.75" thickBot="1">
       <c r="A794" s="22"/>
-    </row>
-    <row r="795" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C794" s="22"/>
+    </row>
+    <row r="795" spans="1:3" ht="15.75" thickBot="1">
       <c r="A795" s="22"/>
-    </row>
-    <row r="796" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C795" s="22"/>
+    </row>
+    <row r="796" spans="1:3" ht="15.75" thickBot="1">
       <c r="A796" s="22"/>
-    </row>
-    <row r="797" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C796" s="22"/>
+    </row>
+    <row r="797" spans="1:3" ht="15.75" thickBot="1">
       <c r="A797" s="22"/>
-    </row>
-    <row r="798" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C797" s="22"/>
+    </row>
+    <row r="798" spans="1:3" ht="15.75" thickBot="1">
       <c r="A798" s="22"/>
-    </row>
-    <row r="799" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C798" s="22"/>
+    </row>
+    <row r="799" spans="1:3" ht="15.75" thickBot="1">
       <c r="A799" s="22"/>
-    </row>
-    <row r="800" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C799" s="22"/>
+    </row>
+    <row r="800" spans="1:3" ht="15.75" thickBot="1">
       <c r="A800" s="22"/>
-    </row>
-    <row r="801" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C800" s="22"/>
+    </row>
+    <row r="801" spans="1:3" ht="15.75" thickBot="1">
       <c r="A801" s="22"/>
-    </row>
-    <row r="802" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C801" s="22"/>
+    </row>
+    <row r="802" spans="1:3" ht="15.75" thickBot="1">
       <c r="A802" s="22"/>
-    </row>
-    <row r="803" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C802" s="22"/>
+    </row>
+    <row r="803" spans="1:3" ht="15.75" thickBot="1">
       <c r="A803" s="22"/>
-    </row>
-    <row r="804" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C803" s="22"/>
+    </row>
+    <row r="804" spans="1:3" ht="15.75" thickBot="1">
       <c r="A804" s="22"/>
-    </row>
-    <row r="805" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C804" s="22"/>
+    </row>
+    <row r="805" spans="1:3" ht="15.75" thickBot="1">
       <c r="A805" s="22"/>
-    </row>
-    <row r="806" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C805" s="22"/>
+    </row>
+    <row r="806" spans="1:3" ht="15.75" thickBot="1">
       <c r="A806" s="22"/>
-    </row>
-    <row r="807" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C806" s="22"/>
+    </row>
+    <row r="807" spans="1:3" ht="15.75" thickBot="1">
       <c r="A807" s="22"/>
-    </row>
-    <row r="808" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C807" s="22"/>
+    </row>
+    <row r="808" spans="1:3" ht="15.75" thickBot="1">
       <c r="A808" s="22"/>
-    </row>
-    <row r="809" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C808" s="22"/>
+    </row>
+    <row r="809" spans="1:3" ht="15.75" thickBot="1">
       <c r="A809" s="22"/>
-    </row>
-    <row r="810" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C809" s="22"/>
+    </row>
+    <row r="810" spans="1:3" ht="15.75" thickBot="1">
       <c r="A810" s="22"/>
-    </row>
-    <row r="811" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C810" s="22"/>
+    </row>
+    <row r="811" spans="1:3" ht="15.75" thickBot="1">
       <c r="A811" s="22"/>
-    </row>
-    <row r="812" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C811" s="22"/>
+    </row>
+    <row r="812" spans="1:3" ht="15.75" thickBot="1">
       <c r="A812" s="22"/>
-    </row>
-    <row r="813" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C812" s="22"/>
+    </row>
+    <row r="813" spans="1:3" ht="15.75" thickBot="1">
       <c r="A813" s="22"/>
-    </row>
-    <row r="814" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C813" s="22"/>
+    </row>
+    <row r="814" spans="1:3" ht="15.75" thickBot="1">
       <c r="A814" s="22"/>
-    </row>
-    <row r="815" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C814" s="22"/>
+    </row>
+    <row r="815" spans="1:3" ht="15.75" thickBot="1">
       <c r="A815" s="22"/>
-    </row>
-    <row r="816" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C815" s="22"/>
+    </row>
+    <row r="816" spans="1:3" ht="15.75" thickBot="1">
       <c r="A816" s="22"/>
-    </row>
-    <row r="817" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C816" s="22"/>
+    </row>
+    <row r="817" spans="1:3" ht="15.75" thickBot="1">
       <c r="A817" s="22"/>
-    </row>
-    <row r="818" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C817" s="22"/>
+    </row>
+    <row r="818" spans="1:3" ht="15.75" thickBot="1">
       <c r="A818" s="22"/>
-    </row>
-    <row r="819" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C818" s="22"/>
+    </row>
+    <row r="819" spans="1:3" ht="15.75" thickBot="1">
       <c r="A819" s="22"/>
-    </row>
-    <row r="820" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C819" s="22"/>
+    </row>
+    <row r="820" spans="1:3" ht="15.75" thickBot="1">
       <c r="A820" s="22"/>
-    </row>
-    <row r="821" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C820" s="22"/>
+    </row>
+    <row r="821" spans="1:3" ht="15.75" thickBot="1">
       <c r="A821" s="22"/>
-    </row>
-    <row r="822" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C821" s="22"/>
+    </row>
+    <row r="822" spans="1:3" ht="15.75" thickBot="1">
       <c r="A822" s="22"/>
-    </row>
-    <row r="823" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C822" s="22"/>
+    </row>
+    <row r="823" spans="1:3" ht="15.75" thickBot="1">
       <c r="A823" s="22"/>
-    </row>
-    <row r="824" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C823" s="22"/>
+    </row>
+    <row r="824" spans="1:3" ht="15.75" thickBot="1">
       <c r="A824" s="22"/>
-    </row>
-    <row r="825" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C824" s="22"/>
+    </row>
+    <row r="825" spans="1:3" ht="15.75" thickBot="1">
       <c r="A825" s="22"/>
-    </row>
-    <row r="826" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C825" s="22"/>
+    </row>
+    <row r="826" spans="1:3" ht="15.75" thickBot="1">
       <c r="A826" s="22"/>
-    </row>
-    <row r="827" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C826" s="22"/>
+    </row>
+    <row r="827" spans="1:3" ht="15.75" thickBot="1">
       <c r="A827" s="22"/>
-    </row>
-    <row r="828" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C827" s="22"/>
+    </row>
+    <row r="828" spans="1:3" ht="15.75" thickBot="1">
       <c r="A828" s="22"/>
-    </row>
-    <row r="829" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C828" s="22"/>
+    </row>
+    <row r="829" spans="1:3" ht="15.75" thickBot="1">
       <c r="A829" s="22"/>
-    </row>
-    <row r="830" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C829" s="22"/>
+    </row>
+    <row r="830" spans="1:3" ht="15.75" thickBot="1">
       <c r="A830" s="22"/>
-    </row>
-    <row r="831" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C830" s="22"/>
+    </row>
+    <row r="831" spans="1:3" ht="15.75" thickBot="1">
       <c r="A831" s="22"/>
-    </row>
-    <row r="832" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C831" s="22"/>
+    </row>
+    <row r="832" spans="1:3" ht="15.75" thickBot="1">
       <c r="A832" s="22"/>
-    </row>
-    <row r="833" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C832" s="22"/>
+    </row>
+    <row r="833" spans="1:3" ht="15.75" thickBot="1">
       <c r="A833" s="22"/>
-    </row>
-    <row r="834" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C833" s="22"/>
+    </row>
+    <row r="834" spans="1:3" ht="15.75" thickBot="1">
       <c r="A834" s="22"/>
-    </row>
-    <row r="835" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C834" s="22"/>
+    </row>
+    <row r="835" spans="1:3" ht="15.75" thickBot="1">
       <c r="A835" s="22"/>
-    </row>
-    <row r="836" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C835" s="22"/>
+    </row>
+    <row r="836" spans="1:3" ht="15.75" thickBot="1">
       <c r="A836" s="22"/>
-    </row>
-    <row r="837" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C836" s="22"/>
+    </row>
+    <row r="837" spans="1:3" ht="15.75" thickBot="1">
       <c r="A837" s="22"/>
-    </row>
-    <row r="838" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C837" s="22"/>
+    </row>
+    <row r="838" spans="1:3" ht="15.75" thickBot="1">
       <c r="A838" s="22"/>
-    </row>
-    <row r="839" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C838" s="22"/>
+    </row>
+    <row r="839" spans="1:3" ht="15.75" thickBot="1">
       <c r="A839" s="22"/>
-    </row>
-    <row r="840" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C839" s="22"/>
+    </row>
+    <row r="840" spans="1:3" ht="15.75" thickBot="1">
       <c r="A840" s="22"/>
-    </row>
-    <row r="841" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C840" s="22"/>
+    </row>
+    <row r="841" spans="1:3" ht="15.75" thickBot="1">
       <c r="A841" s="22"/>
-    </row>
-    <row r="842" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C841" s="22"/>
+    </row>
+    <row r="842" spans="1:3" ht="15.75" thickBot="1">
       <c r="A842" s="22"/>
-    </row>
-    <row r="843" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C842" s="22"/>
+    </row>
+    <row r="843" spans="1:3" ht="15.75" thickBot="1">
       <c r="A843" s="22"/>
-    </row>
-    <row r="844" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C843" s="22"/>
+    </row>
+    <row r="844" spans="1:3" ht="15.75" thickBot="1">
       <c r="A844" s="22"/>
-    </row>
-    <row r="845" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C844" s="22"/>
+    </row>
+    <row r="845" spans="1:3" ht="15.75" thickBot="1">
       <c r="A845" s="22"/>
-    </row>
-    <row r="846" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C845" s="22"/>
+    </row>
+    <row r="846" spans="1:3" ht="15.75" thickBot="1">
       <c r="A846" s="22"/>
-    </row>
-    <row r="847" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C846" s="22"/>
+    </row>
+    <row r="847" spans="1:3" ht="15.75" thickBot="1">
       <c r="A847" s="22"/>
-    </row>
-    <row r="848" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C847" s="22"/>
+    </row>
+    <row r="848" spans="1:3" ht="15.75" thickBot="1">
       <c r="A848" s="22"/>
-    </row>
-    <row r="849" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C848" s="22"/>
+    </row>
+    <row r="849" spans="1:3" ht="15.75" thickBot="1">
       <c r="A849" s="22"/>
-    </row>
-    <row r="850" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C849" s="22"/>
+    </row>
+    <row r="850" spans="1:3" ht="15.75" thickBot="1">
       <c r="A850" s="22"/>
-    </row>
-    <row r="851" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C850" s="22"/>
+    </row>
+    <row r="851" spans="1:3" ht="15.75" thickBot="1">
       <c r="A851" s="22"/>
-    </row>
-    <row r="852" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C851" s="22"/>
+    </row>
+    <row r="852" spans="1:3" ht="15.75" thickBot="1">
       <c r="A852" s="22"/>
-    </row>
-    <row r="853" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C852" s="22"/>
+    </row>
+    <row r="853" spans="1:3" ht="15.75" thickBot="1">
       <c r="A853" s="22"/>
-    </row>
-    <row r="854" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C853" s="22"/>
+    </row>
+    <row r="854" spans="1:3" ht="15.75" thickBot="1">
       <c r="A854" s="22"/>
-    </row>
-    <row r="855" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C854" s="22"/>
+    </row>
+    <row r="855" spans="1:3" ht="15.75" thickBot="1">
       <c r="A855" s="22"/>
-    </row>
-    <row r="856" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C855" s="22"/>
+    </row>
+    <row r="856" spans="1:3" ht="15.75" thickBot="1">
       <c r="A856" s="22"/>
-    </row>
-    <row r="857" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C856" s="22"/>
+    </row>
+    <row r="857" spans="1:3" ht="15.75" thickBot="1">
       <c r="A857" s="22"/>
-    </row>
-    <row r="858" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C857" s="22"/>
+    </row>
+    <row r="858" spans="1:3" ht="15.75" thickBot="1">
       <c r="A858" s="22"/>
-    </row>
-    <row r="859" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C858" s="22"/>
+    </row>
+    <row r="859" spans="1:3" ht="15.75" thickBot="1">
       <c r="A859" s="22"/>
-    </row>
-    <row r="860" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C859" s="22"/>
+    </row>
+    <row r="860" spans="1:3" ht="15.75" thickBot="1">
       <c r="A860" s="22"/>
-    </row>
-    <row r="861" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C860" s="22"/>
+    </row>
+    <row r="861" spans="1:3" ht="15.75" thickBot="1">
       <c r="A861" s="22"/>
-    </row>
-    <row r="862" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C861" s="22"/>
+    </row>
+    <row r="862" spans="1:3" ht="15.75" thickBot="1">
       <c r="A862" s="22"/>
-    </row>
-    <row r="863" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C862" s="22"/>
+    </row>
+    <row r="863" spans="1:3" ht="15.75" thickBot="1">
       <c r="A863" s="22"/>
-    </row>
-    <row r="864" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C863" s="22"/>
+    </row>
+    <row r="864" spans="1:3" ht="15.75" thickBot="1">
       <c r="A864" s="22"/>
-    </row>
-    <row r="865" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C864" s="22"/>
+    </row>
+    <row r="865" spans="1:3" ht="15.75" thickBot="1">
       <c r="A865" s="22"/>
-    </row>
-    <row r="866" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C865" s="22"/>
+    </row>
+    <row r="866" spans="1:3" ht="15.75" thickBot="1">
       <c r="A866" s="22"/>
-    </row>
-    <row r="867" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C866" s="22"/>
+    </row>
+    <row r="867" spans="1:3" ht="15.75" thickBot="1">
       <c r="A867" s="22"/>
-    </row>
-    <row r="868" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C867" s="22"/>
+    </row>
+    <row r="868" spans="1:3" ht="15.75" thickBot="1">
       <c r="A868" s="22"/>
-    </row>
-    <row r="869" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C868" s="22"/>
+    </row>
+    <row r="869" spans="1:3" ht="15.75" thickBot="1">
       <c r="A869" s="22"/>
-    </row>
-    <row r="870" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C869" s="22"/>
+    </row>
+    <row r="870" spans="1:3" ht="15.75" thickBot="1">
       <c r="A870" s="22"/>
-    </row>
-    <row r="871" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C870" s="22"/>
+    </row>
+    <row r="871" spans="1:3" ht="15.75" thickBot="1">
       <c r="A871" s="22"/>
-    </row>
-    <row r="872" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C871" s="22"/>
+    </row>
+    <row r="872" spans="1:3" ht="15.75" thickBot="1">
       <c r="A872" s="22"/>
-    </row>
-    <row r="873" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C872" s="22"/>
+    </row>
+    <row r="873" spans="1:3" ht="15.75" thickBot="1">
       <c r="A873" s="22"/>
-    </row>
-    <row r="874" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C873" s="22"/>
+    </row>
+    <row r="874" spans="1:3" ht="15.75" thickBot="1">
       <c r="A874" s="22"/>
-    </row>
-    <row r="875" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C874" s="22"/>
+    </row>
+    <row r="875" spans="1:3" ht="15.75" thickBot="1">
       <c r="A875" s="22"/>
-    </row>
-    <row r="876" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C875" s="22"/>
+    </row>
+    <row r="876" spans="1:3" ht="15.75" thickBot="1">
       <c r="A876" s="22"/>
-    </row>
-    <row r="877" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C876" s="22"/>
+    </row>
+    <row r="877" spans="1:3" ht="15.75" thickBot="1">
       <c r="A877" s="22"/>
-    </row>
-    <row r="878" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C877" s="22"/>
+    </row>
+    <row r="878" spans="1:3" ht="15.75" thickBot="1">
       <c r="A878" s="22"/>
-    </row>
-    <row r="879" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C878" s="22"/>
+    </row>
+    <row r="879" spans="1:3" ht="15.75" thickBot="1">
       <c r="A879" s="22"/>
-    </row>
-    <row r="880" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C879" s="22"/>
+    </row>
+    <row r="880" spans="1:3" ht="15.75" thickBot="1">
       <c r="A880" s="22"/>
-    </row>
-    <row r="881" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C880" s="22"/>
+    </row>
+    <row r="881" spans="1:3" ht="15.75" thickBot="1">
       <c r="A881" s="22"/>
-    </row>
-    <row r="882" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C881" s="22"/>
+    </row>
+    <row r="882" spans="1:3" ht="15.75" thickBot="1">
       <c r="A882" s="22"/>
-    </row>
-    <row r="883" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C882" s="22"/>
+    </row>
+    <row r="883" spans="1:3" ht="15.75" thickBot="1">
       <c r="A883" s="22"/>
-    </row>
-    <row r="884" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C883" s="22"/>
+    </row>
+    <row r="884" spans="1:3" ht="15.75" thickBot="1">
       <c r="A884" s="22"/>
-    </row>
-    <row r="885" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C884" s="22"/>
+    </row>
+    <row r="885" spans="1:3" ht="15.75" thickBot="1">
       <c r="A885" s="22"/>
-    </row>
-    <row r="886" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C885" s="22"/>
+    </row>
+    <row r="886" spans="1:3" ht="15.75" thickBot="1">
       <c r="A886" s="22"/>
-    </row>
-    <row r="887" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C886" s="22"/>
+    </row>
+    <row r="887" spans="1:3" ht="15.75" thickBot="1">
       <c r="A887" s="22"/>
-    </row>
-    <row r="888" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C887" s="22"/>
+    </row>
+    <row r="888" spans="1:3" ht="15.75" thickBot="1">
       <c r="A888" s="22"/>
-    </row>
-    <row r="889" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C888" s="22"/>
+    </row>
+    <row r="889" spans="1:3" ht="15.75" thickBot="1">
       <c r="A889" s="22"/>
-    </row>
-    <row r="890" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C889" s="22"/>
+    </row>
+    <row r="890" spans="1:3" ht="15.75" thickBot="1">
       <c r="A890" s="22"/>
-    </row>
-    <row r="891" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C890" s="22"/>
+    </row>
+    <row r="891" spans="1:3" ht="15.75" thickBot="1">
       <c r="A891" s="22"/>
-    </row>
-    <row r="892" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C891" s="22"/>
+    </row>
+    <row r="892" spans="1:3" ht="15.75" thickBot="1">
       <c r="A892" s="22"/>
-    </row>
-    <row r="893" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C892" s="22"/>
+    </row>
+    <row r="893" spans="1:3" ht="15.75" thickBot="1">
       <c r="A893" s="22"/>
-    </row>
-    <row r="894" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C893" s="22"/>
+    </row>
+    <row r="894" spans="1:3" ht="15.75" thickBot="1">
       <c r="A894" s="22"/>
-    </row>
-    <row r="895" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C894" s="22"/>
+    </row>
+    <row r="895" spans="1:3" ht="15.75" thickBot="1">
       <c r="A895" s="22"/>
-    </row>
-    <row r="896" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C895" s="22"/>
+    </row>
+    <row r="896" spans="1:3" ht="15.75" thickBot="1">
       <c r="A896" s="22"/>
-    </row>
-    <row r="897" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C896" s="22"/>
+    </row>
+    <row r="897" spans="1:3" ht="15.75" thickBot="1">
       <c r="A897" s="22"/>
-    </row>
-    <row r="898" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C897" s="22"/>
+    </row>
+    <row r="898" spans="1:3" ht="15.75" thickBot="1">
       <c r="A898" s="22"/>
-    </row>
-    <row r="899" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C898" s="22"/>
+    </row>
+    <row r="899" spans="1:3" ht="15.75" thickBot="1">
       <c r="A899" s="22"/>
-    </row>
-    <row r="900" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C899" s="22"/>
+    </row>
+    <row r="900" spans="1:3" ht="15.75" thickBot="1">
       <c r="A900" s="22"/>
-    </row>
-    <row r="901" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C900" s="22"/>
+    </row>
+    <row r="901" spans="1:3" ht="15.75" thickBot="1">
       <c r="A901" s="22"/>
-    </row>
-    <row r="902" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C901" s="22"/>
+    </row>
+    <row r="902" spans="1:3" ht="15.75" thickBot="1">
       <c r="A902" s="22"/>
-    </row>
-    <row r="903" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C902" s="22"/>
+    </row>
+    <row r="903" spans="1:3" ht="15.75" thickBot="1">
       <c r="A903" s="22"/>
-    </row>
-    <row r="904" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C903" s="22"/>
+    </row>
+    <row r="904" spans="1:3" ht="15.75" thickBot="1">
       <c r="A904" s="22"/>
-    </row>
-    <row r="905" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C904" s="22"/>
+    </row>
+    <row r="905" spans="1:3" ht="15.75" thickBot="1">
       <c r="A905" s="22"/>
-    </row>
-    <row r="906" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C905" s="22"/>
+    </row>
+    <row r="906" spans="1:3" ht="15.75" thickBot="1">
       <c r="A906" s="22"/>
-    </row>
-    <row r="907" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C906" s="22"/>
+    </row>
+    <row r="907" spans="1:3" ht="15.75" thickBot="1">
       <c r="A907" s="22"/>
-    </row>
-    <row r="908" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C907" s="22"/>
+    </row>
+    <row r="908" spans="1:3" ht="15.75" thickBot="1">
       <c r="A908" s="22"/>
-    </row>
-    <row r="909" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C908" s="22"/>
+    </row>
+    <row r="909" spans="1:3" ht="15.75" thickBot="1">
       <c r="A909" s="22"/>
-    </row>
-    <row r="910" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C909" s="22"/>
+    </row>
+    <row r="910" spans="1:3" ht="15.75" thickBot="1">
       <c r="A910" s="22"/>
-    </row>
-    <row r="911" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C910" s="22"/>
+    </row>
+    <row r="911" spans="1:3" ht="15.75" thickBot="1">
       <c r="A911" s="22"/>
-    </row>
-    <row r="912" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C911" s="22"/>
+    </row>
+    <row r="912" spans="1:3" ht="15.75" thickBot="1">
       <c r="A912" s="22"/>
-    </row>
-    <row r="913" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C912" s="22"/>
+    </row>
+    <row r="913" spans="1:3" ht="15.75" thickBot="1">
       <c r="A913" s="22"/>
-    </row>
-    <row r="914" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C913" s="22"/>
+    </row>
+    <row r="914" spans="1:3" ht="15.75" thickBot="1">
       <c r="A914" s="22"/>
-    </row>
-    <row r="915" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C914" s="22"/>
+    </row>
+    <row r="915" spans="1:3" ht="15.75" thickBot="1">
       <c r="A915" s="22"/>
-    </row>
-    <row r="916" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C915" s="22"/>
+    </row>
+    <row r="916" spans="1:3" ht="15.75" thickBot="1">
       <c r="A916" s="22"/>
-    </row>
-    <row r="917" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C916" s="22"/>
+    </row>
+    <row r="917" spans="1:3" ht="15.75" thickBot="1">
       <c r="A917" s="22"/>
-    </row>
-    <row r="918" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C917" s="22"/>
+    </row>
+    <row r="918" spans="1:3" ht="15.75" thickBot="1">
       <c r="A918" s="22"/>
-    </row>
-    <row r="919" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C918" s="22"/>
+    </row>
+    <row r="919" spans="1:3" ht="15.75" thickBot="1">
       <c r="A919" s="22"/>
-    </row>
-    <row r="920" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C919" s="22"/>
+    </row>
+    <row r="920" spans="1:3" ht="15.75" thickBot="1">
       <c r="A920" s="22"/>
-    </row>
-    <row r="921" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C920" s="22"/>
+    </row>
+    <row r="921" spans="1:3" ht="15.75" thickBot="1">
       <c r="A921" s="22"/>
-    </row>
-    <row r="922" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C921" s="22"/>
+    </row>
+    <row r="922" spans="1:3" ht="15.75" thickBot="1">
       <c r="A922" s="22"/>
-    </row>
-    <row r="923" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C922" s="22"/>
+    </row>
+    <row r="923" spans="1:3" ht="15.75" thickBot="1">
       <c r="A923" s="22"/>
-    </row>
-    <row r="924" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C923" s="22"/>
+    </row>
+    <row r="924" spans="1:3" ht="15.75" thickBot="1">
       <c r="A924" s="22"/>
-    </row>
-    <row r="925" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C924" s="22"/>
+    </row>
+    <row r="925" spans="1:3" ht="15.75" thickBot="1">
       <c r="A925" s="22"/>
-    </row>
-    <row r="926" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C925" s="22"/>
+    </row>
+    <row r="926" spans="1:3" ht="15.75" thickBot="1">
       <c r="A926" s="22"/>
-    </row>
-    <row r="927" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C926" s="22"/>
+    </row>
+    <row r="927" spans="1:3" ht="15.75" thickBot="1">
       <c r="A927" s="22"/>
-    </row>
-    <row r="928" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C927" s="22"/>
+    </row>
+    <row r="928" spans="1:3" ht="15.75" thickBot="1">
       <c r="A928" s="22"/>
-    </row>
-    <row r="929" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C928" s="22"/>
+    </row>
+    <row r="929" spans="1:3" ht="15.75" thickBot="1">
       <c r="A929" s="22"/>
-    </row>
-    <row r="930" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C929" s="22"/>
+    </row>
+    <row r="930" spans="1:3" ht="15.75" thickBot="1">
       <c r="A930" s="22"/>
-    </row>
-    <row r="931" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C930" s="22"/>
+    </row>
+    <row r="931" spans="1:3" ht="15.75" thickBot="1">
       <c r="A931" s="22"/>
-    </row>
-    <row r="932" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C931" s="22"/>
+    </row>
+    <row r="932" spans="1:3" ht="15.75" thickBot="1">
       <c r="A932" s="22"/>
-    </row>
-    <row r="933" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C932" s="22"/>
+    </row>
+    <row r="933" spans="1:3" ht="15.75" thickBot="1">
       <c r="A933" s="22"/>
-    </row>
-    <row r="934" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C933" s="22"/>
+    </row>
+    <row r="934" spans="1:3" ht="15.75" thickBot="1">
       <c r="A934" s="22"/>
-    </row>
-    <row r="935" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C934" s="22"/>
+    </row>
+    <row r="935" spans="1:3" ht="15.75" thickBot="1">
       <c r="A935" s="22"/>
-    </row>
-    <row r="936" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C935" s="22"/>
+    </row>
+    <row r="936" spans="1:3" ht="15.75" thickBot="1">
       <c r="A936" s="22"/>
-    </row>
-    <row r="937" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C936" s="22"/>
+    </row>
+    <row r="937" spans="1:3" ht="15.75" thickBot="1">
       <c r="A937" s="22"/>
-    </row>
-    <row r="938" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C937" s="22"/>
+    </row>
+    <row r="938" spans="1:3" ht="15.75" thickBot="1">
       <c r="A938" s="22"/>
-    </row>
-    <row r="939" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C938" s="22"/>
+    </row>
+    <row r="939" spans="1:3" ht="15.75" thickBot="1">
       <c r="A939" s="22"/>
-    </row>
-    <row r="940" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C939" s="22"/>
+    </row>
+    <row r="940" spans="1:3" ht="15.75" thickBot="1">
       <c r="A940" s="22"/>
-    </row>
-    <row r="941" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C940" s="22"/>
+    </row>
+    <row r="941" spans="1:3" ht="15.75" thickBot="1">
       <c r="A941" s="22"/>
-    </row>
-    <row r="942" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C941" s="22"/>
+    </row>
+    <row r="942" spans="1:3" ht="15.75" thickBot="1">
       <c r="A942" s="22"/>
-    </row>
-    <row r="943" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C942" s="22"/>
+    </row>
+    <row r="943" spans="1:3" ht="15.75" thickBot="1">
       <c r="A943" s="22"/>
-    </row>
-    <row r="944" spans="1:1" ht="15.75" thickBot="1">
+      <c r="C943" s="22"/>
+    </row>
+    <row r="944" spans="1:3" ht="15.75" thickBot="1">
       <c r="A944" s="22"/>
-    </row>
-    <row r="945" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A945" s="22"/>
-    </row>
-    <row r="946" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A946" s="22"/>
-    </row>
-    <row r="947" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A947" s="22"/>
-    </row>
-    <row r="948" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A948" s="22"/>
-    </row>
-    <row r="949" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A949" s="22"/>
-    </row>
-    <row r="950" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A950" s="22"/>
-    </row>
-    <row r="951" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A951" s="22"/>
-    </row>
-    <row r="952" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A952" s="22"/>
-    </row>
-    <row r="953" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A953" s="22"/>
-    </row>
-    <row r="954" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A954" s="22"/>
-    </row>
-    <row r="955" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A955" s="22"/>
-    </row>
-    <row r="956" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A956" s="22"/>
-    </row>
-    <row r="957" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A957" s="22"/>
-    </row>
-    <row r="958" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A958" s="22"/>
-    </row>
-    <row r="959" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A959" s="22"/>
-    </row>
-    <row r="960" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A960" s="22"/>
-    </row>
-    <row r="961" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A961" s="22"/>
-    </row>
-    <row r="962" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A962" s="22"/>
-    </row>
-    <row r="963" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A963" s="22"/>
-    </row>
-    <row r="964" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A964" s="22"/>
-    </row>
-    <row r="965" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A965" s="22"/>
-    </row>
-    <row r="966" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A966" s="22"/>
-    </row>
-    <row r="967" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A967" s="22"/>
-    </row>
-    <row r="968" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A968" s="22"/>
-    </row>
-    <row r="969" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A969" s="22"/>
-    </row>
-    <row r="970" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A970" s="22"/>
-    </row>
-    <row r="971" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A971" s="22"/>
-    </row>
-    <row r="972" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A972" s="22"/>
-    </row>
-    <row r="973" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A973" s="22"/>
-    </row>
-    <row r="974" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A974" s="22"/>
-    </row>
-    <row r="975" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A975" s="22"/>
-    </row>
-    <row r="976" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A976" s="22"/>
-    </row>
-    <row r="977" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A977" s="22"/>
-    </row>
-    <row r="978" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A978" s="22"/>
-    </row>
-    <row r="979" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A979" s="22"/>
-    </row>
-    <row r="980" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A980" s="22"/>
-    </row>
-    <row r="981" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A981" s="22"/>
-    </row>
-    <row r="982" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A982" s="22"/>
-    </row>
-    <row r="983" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A983" s="22"/>
-    </row>
-    <row r="984" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A984" s="22"/>
-    </row>
-    <row r="985" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A985" s="22"/>
-    </row>
-    <row r="986" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A986" s="22"/>
-    </row>
-    <row r="987" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A987" s="22"/>
-    </row>
-    <row r="988" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A988" s="22"/>
-    </row>
-    <row r="989" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A989" s="22"/>
-    </row>
-    <row r="990" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A990" s="22"/>
-    </row>
-    <row r="991" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A991" s="22"/>
-    </row>
-    <row r="992" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A992" s="22"/>
-    </row>
-    <row r="993" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A993" s="22"/>
-    </row>
-    <row r="994" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A994" s="22"/>
-    </row>
-    <row r="995" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A995" s="22"/>
-    </row>
-    <row r="996" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A996" s="22"/>
-    </row>
-    <row r="997" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A997" s="22"/>
-    </row>
-    <row r="998" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A998" s="22"/>
-    </row>
-    <row r="999" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A999" s="22"/>
-    </row>
-    <row r="1000" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A1000" s="22"/>
+      <c r="C944" s="22"/>
+    </row>
+    <row r="945" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C945" s="22"/>
+    </row>
+    <row r="946" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C946" s="22"/>
+    </row>
+    <row r="947" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C947" s="22"/>
+    </row>
+    <row r="948" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C948" s="22"/>
+    </row>
+    <row r="949" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C949" s="22"/>
+    </row>
+    <row r="950" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C950" s="22"/>
+    </row>
+    <row r="951" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C951" s="22"/>
+    </row>
+    <row r="952" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C952" s="22"/>
+    </row>
+    <row r="953" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C953" s="22"/>
+    </row>
+    <row r="954" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C954" s="22"/>
+    </row>
+    <row r="955" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C955" s="22"/>
+    </row>
+    <row r="956" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C956" s="22"/>
+    </row>
+    <row r="957" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C957" s="22"/>
+    </row>
+    <row r="958" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C958" s="22"/>
+    </row>
+    <row r="959" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C959" s="22"/>
+    </row>
+    <row r="960" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C960" s="22"/>
+    </row>
+    <row r="961" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C961" s="22"/>
+    </row>
+    <row r="962" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C962" s="22"/>
+    </row>
+    <row r="963" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C963" s="22"/>
+    </row>
+    <row r="964" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C964" s="22"/>
+    </row>
+    <row r="965" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C965" s="22"/>
+    </row>
+    <row r="966" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C966" s="22"/>
+    </row>
+    <row r="967" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C967" s="22"/>
+    </row>
+    <row r="968" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C968" s="22"/>
+    </row>
+    <row r="969" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C969" s="22"/>
+    </row>
+    <row r="970" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C970" s="22"/>
+    </row>
+    <row r="971" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C971" s="22"/>
+    </row>
+    <row r="972" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C972" s="22"/>
+    </row>
+    <row r="973" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C973" s="22"/>
+    </row>
+    <row r="974" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C974" s="22"/>
+    </row>
+    <row r="975" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C975" s="22"/>
+    </row>
+    <row r="976" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C976" s="22"/>
+    </row>
+    <row r="977" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C977" s="22"/>
+    </row>
+    <row r="978" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C978" s="22"/>
+    </row>
+    <row r="979" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C979" s="22"/>
+    </row>
+    <row r="980" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C980" s="22"/>
+    </row>
+    <row r="981" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C981" s="22"/>
+    </row>
+    <row r="982" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C982" s="22"/>
+    </row>
+    <row r="983" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C983" s="22"/>
+    </row>
+    <row r="984" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C984" s="22"/>
+    </row>
+    <row r="985" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C985" s="22"/>
+    </row>
+    <row r="986" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C986" s="22"/>
+    </row>
+    <row r="987" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C987" s="22"/>
+    </row>
+    <row r="988" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C988" s="22"/>
+    </row>
+    <row r="989" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C989" s="22"/>
+    </row>
+    <row r="990" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C990" s="22"/>
+    </row>
+    <row r="991" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C991" s="22"/>
+    </row>
+    <row r="992" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C992" s="22"/>
+    </row>
+    <row r="993" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C993" s="22"/>
+    </row>
+    <row r="994" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C994" s="22"/>
+    </row>
+    <row r="995" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C995" s="22"/>
+    </row>
+    <row r="996" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C996" s="22"/>
+    </row>
+    <row r="997" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C997" s="22"/>
+    </row>
+    <row r="998" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C998" s="22"/>
+    </row>
+    <row r="999" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C999" s="22"/>
+    </row>
+    <row r="1000" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C1000" s="22"/>
+    </row>
+    <row r="1001" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C1001" s="22"/>
+    </row>
+    <row r="1002" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C1002" s="22"/>
+    </row>
+    <row r="1003" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C1003" s="22"/>
+    </row>
+    <row r="1004" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C1004" s="22"/>
+    </row>
+    <row r="1005" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C1005" s="22"/>
+    </row>
+    <row r="1006" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C1006" s="22"/>
+    </row>
+    <row r="1007" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C1007" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/storage/app/iprs/1/week_4.xlsx
+++ b/storage/app/iprs/1/week_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A6E64D-8ECA-4B64-90BA-02103B735C04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2598BF49-F27B-4624-A73B-20CC10E2AD64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -748,10 +748,10 @@
   <dimension ref="A1:AMN1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23:AO23"/>
+      <selection pane="bottomRight" activeCell="AO55" sqref="AO55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="11">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="N45" s="16">
         <v>1</v>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="11">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="X45" s="16">
         <v>2</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <v>0.17</v>
+        <v>1.17</v>
       </c>
       <c r="N46" s="7">
         <v>0</v>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" s="11">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="11">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="N47" s="16">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" s="16">
         <v>2</v>
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="16">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="X48" s="16">
         <v>2</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="16">
         <v>1</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="7">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="X49" s="16">
         <v>2</v>
